--- a/data/Task schedule (template)_finplan.xlsx
+++ b/data/Task schedule (template)_finplan.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Communications &amp; dissimenation</t>
+  </si>
+  <si>
+    <t>Services</t>
   </si>
   <si>
     <t>Overhead</t>
@@ -582,10 +585,10 @@
         <v>162.6666666666667</v>
       </c>
       <c r="E2">
-        <v>145.9920040176787</v>
+        <v>96.6834463693236</v>
       </c>
       <c r="F2">
-        <v>23748.0326535424</v>
+        <v>15727.17394274331</v>
       </c>
       <c r="G2">
         <v>15.72717394274331</v>
@@ -605,10 +608,10 @@
         <v>162.6666666666667</v>
       </c>
       <c r="E3">
-        <v>120.1826067876003</v>
+        <v>79.59113032291413</v>
       </c>
       <c r="F3">
-        <v>19549.70403744965</v>
+        <v>12946.8238658607</v>
       </c>
       <c r="G3">
         <v>12.9468238658607</v>
@@ -628,13 +631,13 @@
         <v>162.6666666666667</v>
       </c>
       <c r="E4">
-        <v>98.2378627553243</v>
+        <v>65.05818725518166</v>
       </c>
       <c r="F4">
-        <v>15980.02567486609</v>
+        <v>10582.79846017621</v>
       </c>
       <c r="G4">
-        <v>10.58279846017622</v>
+        <v>10.58279846017621</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -651,10 +654,10 @@
         <v>133.3333333333333</v>
       </c>
       <c r="E5">
-        <v>44.74079278994206</v>
+        <v>29.62966409929938</v>
       </c>
       <c r="F5">
-        <v>5965.439038658942</v>
+        <v>3950.621879906585</v>
       </c>
       <c r="G5">
         <v>3.950621879906584</v>
@@ -674,10 +677,10 @@
         <v>162.6666666666667</v>
       </c>
       <c r="E6">
-        <v>97.67032627173096</v>
+        <v>64.68233527929203</v>
       </c>
       <c r="F6">
-        <v>15887.70640686823</v>
+        <v>10521.65987209817</v>
       </c>
       <c r="G6">
         <v>10.52165987209817</v>
@@ -697,10 +700,10 @@
         <v>162.6666666666667</v>
       </c>
       <c r="E7">
-        <v>96.19743396907204</v>
+        <v>63.70690991329274</v>
       </c>
       <c r="F7">
-        <v>15648.11592563572</v>
+        <v>10362.99067922895</v>
       </c>
       <c r="G7">
         <v>10.36299067922895</v>
@@ -720,13 +723,13 @@
         <v>162.6666666666667</v>
       </c>
       <c r="E8">
-        <v>91.21122057750193</v>
+        <v>60.40478183940525</v>
       </c>
       <c r="F8">
-        <v>14837.02521394031</v>
+        <v>9825.844512543255</v>
       </c>
       <c r="G8">
-        <v>9.825844512543254</v>
+        <v>9.825844512543256</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -743,10 +746,10 @@
         <v>162.6666666666667</v>
       </c>
       <c r="E9">
-        <v>87.67763032846241</v>
+        <v>58.06465584666385</v>
       </c>
       <c r="F9">
-        <v>14262.22786676322</v>
+        <v>9445.184017723986</v>
       </c>
       <c r="G9">
         <v>9.445184017723987</v>
@@ -766,10 +769,10 @@
         <v>162.6666666666667</v>
       </c>
       <c r="E10">
-        <v>73.41489798482489</v>
+        <v>48.61913773829463</v>
       </c>
       <c r="F10">
-        <v>11942.15673886485</v>
+        <v>7908.713072095926</v>
       </c>
       <c r="G10">
         <v>7.908713072095925</v>
@@ -789,13 +792,13 @@
         <v>178.6666666666667</v>
       </c>
       <c r="E11">
-        <v>73.76623009371602</v>
+        <v>48.85180800908345</v>
       </c>
       <c r="F11">
-        <v>13179.56644341059</v>
+        <v>8728.189697622909</v>
       </c>
       <c r="G11">
-        <v>8.728189697622911</v>
+        <v>8.728189697622909</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -803,10 +806,10 @@
         <v>17</v>
       </c>
       <c r="E12">
-        <v>929.0910055758536</v>
+        <v>615.2920566727507</v>
       </c>
       <c r="F12">
-        <v>151000</v>
+        <v>100000</v>
       </c>
       <c r="G12">
         <v>100</v>
@@ -1042,211 +1045,211 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>12.07141092087433</v>
+        <v>7.994311868128696</v>
       </c>
       <c r="C2">
-        <v>241.4282184174866</v>
+        <v>159.8862373625739</v>
       </c>
       <c r="D2">
-        <v>277.6424511801096</v>
+        <v>183.86917296696</v>
       </c>
       <c r="E2">
-        <v>531.1420805184705</v>
+        <v>351.7497221976626</v>
       </c>
       <c r="F2">
-        <v>241.4282184174866</v>
+        <v>159.8862373625739</v>
       </c>
       <c r="G2">
-        <v>277.6424511801096</v>
+        <v>183.86917296696</v>
       </c>
       <c r="H2">
-        <v>265.5710402592352</v>
+        <v>175.8748610988313</v>
       </c>
       <c r="I2">
-        <v>784.6417098568314</v>
+        <v>519.6302714283652</v>
       </c>
       <c r="J2">
-        <v>253.4996293383609</v>
+        <v>167.8805492307026</v>
       </c>
       <c r="K2">
-        <v>277.6424511801096</v>
+        <v>183.86917296696</v>
       </c>
       <c r="L2">
-        <v>253.4996293383609</v>
+        <v>167.8805492307026</v>
       </c>
       <c r="M2">
-        <v>784.6417098568314</v>
+        <v>519.6302714283652</v>
       </c>
       <c r="N2">
-        <v>265.5710402592352</v>
+        <v>175.8748610988313</v>
       </c>
       <c r="O2">
-        <v>265.5710402592352</v>
+        <v>175.8748610988313</v>
       </c>
       <c r="P2">
-        <v>253.4996293383609</v>
+        <v>167.8805492307026</v>
       </c>
       <c r="Q2">
-        <v>784.6417098568314</v>
+        <v>519.6302714283652</v>
       </c>
       <c r="R2">
-        <v>2885.067210088966</v>
+        <v>1910.640536482758</v>
       </c>
       <c r="S2">
-        <v>277.6424511801096</v>
+        <v>183.86917296696</v>
       </c>
       <c r="T2">
-        <v>253.4996293383609</v>
+        <v>167.8805492307026</v>
       </c>
       <c r="U2">
-        <v>253.4996293383609</v>
+        <v>167.8805492307026</v>
       </c>
       <c r="V2">
-        <v>784.6417098568314</v>
+        <v>519.6302714283652</v>
       </c>
       <c r="W2">
-        <v>265.5710402592352</v>
+        <v>175.8748610988313</v>
       </c>
       <c r="X2">
-        <v>277.6424511801096</v>
+        <v>183.86917296696</v>
       </c>
       <c r="Y2">
-        <v>241.4282184174866</v>
+        <v>159.8862373625739</v>
       </c>
       <c r="Z2">
-        <v>784.6417098568314</v>
+        <v>519.6302714283652</v>
       </c>
       <c r="AA2">
-        <v>499.7564121241973</v>
+        <v>330.964511340528</v>
       </c>
       <c r="AB2">
-        <v>458.7136149932246</v>
+        <v>303.7838509888904</v>
       </c>
       <c r="AC2">
-        <v>253.4996293383609</v>
+        <v>167.8805492307026</v>
       </c>
       <c r="AD2">
-        <v>1211.969656455783</v>
+        <v>802.6289115601211</v>
       </c>
       <c r="AE2">
-        <v>277.6424511801096</v>
+        <v>183.86917296696</v>
       </c>
       <c r="AF2">
-        <v>253.4996293383609</v>
+        <v>167.8805492307026</v>
       </c>
       <c r="AG2">
-        <v>265.5710402592352</v>
+        <v>175.8748610988313</v>
       </c>
       <c r="AH2">
-        <v>796.7131207777057</v>
+        <v>527.6245832964939</v>
       </c>
       <c r="AI2">
-        <v>3577.966196947152</v>
+        <v>2369.514037713345</v>
       </c>
       <c r="AJ2">
-        <v>277.6424511801096</v>
+        <v>183.86917296696</v>
       </c>
       <c r="AK2">
-        <v>241.4282184174866</v>
+        <v>159.8862373625739</v>
       </c>
       <c r="AL2">
-        <v>253.4996293383609</v>
+        <v>167.8805492307026</v>
       </c>
       <c r="AM2">
-        <v>772.5702989359571</v>
+        <v>511.6359595602365</v>
       </c>
       <c r="AN2">
-        <v>265.5710402592352</v>
+        <v>175.8748610988313</v>
       </c>
       <c r="AO2">
-        <v>265.5710402592352</v>
+        <v>175.8748610988313</v>
       </c>
       <c r="AP2">
-        <v>253.4996293383609</v>
+        <v>167.8805492307026</v>
       </c>
       <c r="AQ2">
-        <v>784.6417098568314</v>
+        <v>519.6302714283652</v>
       </c>
       <c r="AR2">
-        <v>277.6424511801096</v>
+        <v>183.86917296696</v>
       </c>
       <c r="AS2">
-        <v>253.4996293383609</v>
+        <v>167.8805492307026</v>
       </c>
       <c r="AT2">
-        <v>265.5710402592352</v>
+        <v>175.8748610988313</v>
       </c>
       <c r="AU2">
-        <v>796.7131207777057</v>
+        <v>527.6245832964939</v>
       </c>
       <c r="AV2">
-        <v>277.6424511801096</v>
+        <v>183.86917296696</v>
       </c>
       <c r="AW2">
-        <v>241.4282184174866</v>
+        <v>159.8862373625739</v>
       </c>
       <c r="AX2">
-        <v>287.299579916809</v>
+        <v>190.2646224614629</v>
       </c>
       <c r="AY2">
-        <v>806.3702495144053</v>
+        <v>534.0200327909969</v>
       </c>
       <c r="AZ2">
-        <v>3160.2953790849</v>
+        <v>2092.910847076092</v>
       </c>
       <c r="BA2">
-        <v>478.0278724666234</v>
+        <v>316.5747499778963</v>
       </c>
       <c r="BB2">
-        <v>434.5707931514759</v>
+        <v>287.795227252633</v>
       </c>
       <c r="BC2">
-        <v>265.5710402592352</v>
+        <v>175.8748610988313</v>
       </c>
       <c r="BD2">
-        <v>1178.169705877335</v>
+        <v>780.2448383293606</v>
       </c>
       <c r="BE2">
-        <v>265.5710402592352</v>
+        <v>175.8748610988313</v>
       </c>
       <c r="BF2">
-        <v>253.4996293383609</v>
+        <v>167.8805492307026</v>
       </c>
       <c r="BG2">
-        <v>265.5710402592352</v>
+        <v>175.8748610988313</v>
       </c>
       <c r="BH2">
-        <v>784.6417098568314</v>
+        <v>519.6302714283652</v>
       </c>
       <c r="BI2">
-        <v>277.6424511801096</v>
+        <v>183.86917296696</v>
       </c>
       <c r="BJ2">
-        <v>253.4996293383609</v>
+        <v>167.8805492307026</v>
       </c>
       <c r="BK2">
-        <v>265.5710402592352</v>
+        <v>175.8748610988313</v>
       </c>
       <c r="BL2">
-        <v>796.7131207777057</v>
+        <v>527.6245832964939</v>
       </c>
       <c r="BM2">
-        <v>265.5710402592352</v>
+        <v>175.8748610988313</v>
       </c>
       <c r="BN2">
-        <v>253.4996293383609</v>
+        <v>167.8805492307026</v>
       </c>
       <c r="BO2">
-        <v>277.6424511801096</v>
+        <v>183.86917296696</v>
       </c>
       <c r="BP2">
-        <v>796.7131207777059</v>
+        <v>527.6245832964939</v>
       </c>
       <c r="BQ2">
-        <v>3556.237657289578</v>
+        <v>2355.124276350714</v>
       </c>
       <c r="BR2">
-        <v>13179.56644341059</v>
+        <v>8728.189697622909</v>
       </c>
     </row>
     <row r="3" spans="1:70">
@@ -1254,211 +1257,211 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>7.693272333154237</v>
+        <v>5.094882339837243</v>
       </c>
       <c r="C3">
-        <v>153.8654466630847</v>
+        <v>101.8976467967449</v>
       </c>
       <c r="D3">
-        <v>176.9452636625474</v>
+        <v>117.1822938162566</v>
       </c>
       <c r="E3">
-        <v>338.5039826587864</v>
+        <v>224.1748229528387</v>
       </c>
       <c r="F3">
-        <v>153.8654466630847</v>
+        <v>101.8976467967449</v>
       </c>
       <c r="G3">
-        <v>176.9452636625474</v>
+        <v>117.1822938162566</v>
       </c>
       <c r="H3">
-        <v>169.2519913293932</v>
+        <v>112.0874114764193</v>
       </c>
       <c r="I3">
-        <v>500.0627016550253</v>
+        <v>331.1673520894208</v>
       </c>
       <c r="J3">
-        <v>138.4789019967762</v>
+        <v>91.70788211707037</v>
       </c>
       <c r="K3">
-        <v>151.6673688536121</v>
+        <v>100.4419661282199</v>
       </c>
       <c r="L3">
-        <v>138.4789019967762</v>
+        <v>91.70788211707037</v>
       </c>
       <c r="M3">
-        <v>428.6251728471645</v>
+        <v>283.8577303623607</v>
       </c>
       <c r="N3">
-        <v>145.0731354251942</v>
+        <v>96.07492412264516</v>
       </c>
       <c r="O3">
-        <v>145.0731354251942</v>
+        <v>96.07492412264516</v>
       </c>
       <c r="P3">
-        <v>138.4789019967762</v>
+        <v>91.70788211707037</v>
       </c>
       <c r="Q3">
-        <v>428.6251728471647</v>
+        <v>283.8577303623607</v>
       </c>
       <c r="R3">
-        <v>1695.817030008141</v>
+        <v>1123.057635766981</v>
       </c>
       <c r="S3">
-        <v>252.7789480893535</v>
+        <v>167.4032768803665</v>
       </c>
       <c r="T3">
-        <v>230.7981699946271</v>
+        <v>152.8464701951173</v>
       </c>
       <c r="U3">
-        <v>230.7981699946271</v>
+        <v>152.8464701951173</v>
       </c>
       <c r="V3">
-        <v>714.3752880786077</v>
+        <v>473.0962172706011</v>
       </c>
       <c r="W3">
-        <v>241.7885590419903</v>
+        <v>160.1248735377419</v>
       </c>
       <c r="X3">
-        <v>252.7789480893535</v>
+        <v>167.4032768803665</v>
       </c>
       <c r="Y3">
-        <v>219.8077809472639</v>
+        <v>145.5680668524927</v>
       </c>
       <c r="Z3">
-        <v>714.3752880786077</v>
+        <v>473.0962172706012</v>
       </c>
       <c r="AA3">
-        <v>328.6126325161595</v>
+        <v>217.6242599444765</v>
       </c>
       <c r="AB3">
-        <v>314.3251267545874</v>
+        <v>208.1623355990645</v>
       </c>
       <c r="AC3">
-        <v>438.5165229897915</v>
+        <v>290.4082933707228</v>
       </c>
       <c r="AD3">
-        <v>1081.454282260539</v>
+        <v>716.1948889142639</v>
       </c>
       <c r="AE3">
-        <v>480.2800013697716</v>
+        <v>318.0662260726965</v>
       </c>
       <c r="AF3">
-        <v>438.5165229897915</v>
+        <v>290.4082933707228</v>
       </c>
       <c r="AG3">
-        <v>459.3982621797816</v>
+        <v>304.2372597217097</v>
       </c>
       <c r="AH3">
-        <v>1378.194786539345</v>
+        <v>912.711779165129</v>
       </c>
       <c r="AI3">
-        <v>3888.399644957099</v>
+        <v>2575.099102620595</v>
       </c>
       <c r="AJ3">
-        <v>480.2800013697716</v>
+        <v>318.0662260726965</v>
       </c>
       <c r="AK3">
-        <v>417.6347837998014</v>
+        <v>276.5793270197361</v>
       </c>
       <c r="AL3">
-        <v>438.5165229897915</v>
+        <v>290.4082933707228</v>
       </c>
       <c r="AM3">
-        <v>1336.431308159365</v>
+        <v>885.0538464631553</v>
       </c>
       <c r="AN3">
-        <v>459.3982621797816</v>
+        <v>304.2372597217097</v>
       </c>
       <c r="AO3">
-        <v>459.3982621797816</v>
+        <v>304.2372597217097</v>
       </c>
       <c r="AP3">
-        <v>438.5165229897915</v>
+        <v>290.4082933707228</v>
       </c>
       <c r="AQ3">
-        <v>1357.313047349355</v>
+        <v>898.8828128141422</v>
       </c>
       <c r="AR3">
-        <v>480.2800013697716</v>
+        <v>318.0662260726965</v>
       </c>
       <c r="AS3">
-        <v>438.5165229897915</v>
+        <v>290.4082933707228</v>
       </c>
       <c r="AT3">
-        <v>459.3982621797816</v>
+        <v>304.2372597217097</v>
       </c>
       <c r="AU3">
-        <v>1378.194786539345</v>
+        <v>912.711779165129</v>
       </c>
       <c r="AV3">
-        <v>480.2800013697716</v>
+        <v>318.0662260726965</v>
       </c>
       <c r="AW3">
-        <v>417.6347837998014</v>
+        <v>276.5793270197361</v>
       </c>
       <c r="AX3">
-        <v>480.2800013697716</v>
+        <v>318.0662260726965</v>
       </c>
       <c r="AY3">
-        <v>1378.194786539345</v>
+        <v>912.711779165129</v>
       </c>
       <c r="AZ3">
-        <v>5450.133928587408</v>
+        <v>3609.360217607555</v>
       </c>
       <c r="BA3">
-        <v>362.6828385629855</v>
+        <v>240.1873103066129</v>
       </c>
       <c r="BB3">
-        <v>329.7116714208958</v>
+        <v>218.352100278739</v>
       </c>
       <c r="BC3">
-        <v>362.6828385629855</v>
+        <v>240.1873103066129</v>
       </c>
       <c r="BD3">
-        <v>1055.077348546867</v>
+        <v>698.7267208919648</v>
       </c>
       <c r="BE3">
-        <v>362.6828385629855</v>
+        <v>240.1873103066129</v>
       </c>
       <c r="BF3">
-        <v>346.1972549919406</v>
+        <v>229.2697052926759</v>
       </c>
       <c r="BG3">
-        <v>362.6828385629855</v>
+        <v>240.1873103066129</v>
       </c>
       <c r="BH3">
-        <v>1071.562932117912</v>
+        <v>709.6443259059017</v>
       </c>
       <c r="BI3">
-        <v>240.689520137254</v>
+        <v>159.3970332034795</v>
       </c>
       <c r="BJ3">
-        <v>207.7183529951643</v>
+        <v>137.5618231756056</v>
       </c>
       <c r="BK3">
-        <v>217.6097031377913</v>
+        <v>144.1123861839677</v>
       </c>
       <c r="BL3">
-        <v>666.0175762702096</v>
+        <v>441.0712425630528</v>
       </c>
       <c r="BM3">
-        <v>145.0731354251942</v>
+        <v>96.07492412264516</v>
       </c>
       <c r="BN3">
-        <v>138.4789019967762</v>
+        <v>91.70788211707037</v>
       </c>
       <c r="BO3">
-        <v>151.6673688536121</v>
+        <v>100.4419661282199</v>
       </c>
       <c r="BP3">
-        <v>435.2194062755825</v>
+        <v>288.2247723679354</v>
       </c>
       <c r="BQ3">
-        <v>3227.877263210571</v>
+        <v>2137.667061728855</v>
       </c>
       <c r="BR3">
-        <v>14262.22786676322</v>
+        <v>9445.184017723986</v>
       </c>
     </row>
     <row r="4" spans="1:70">
@@ -1466,211 +1469,211 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>19.78270028525375</v>
+        <v>13.10112601672434</v>
       </c>
       <c r="C4">
-        <v>395.6540057050751</v>
+        <v>262.0225203344867</v>
       </c>
       <c r="D4">
-        <v>514.3502074165975</v>
+        <v>340.6292764348328</v>
       </c>
       <c r="E4">
-        <v>929.7869134069264</v>
+        <v>615.7529227860439</v>
       </c>
       <c r="F4">
-        <v>395.6540057050751</v>
+        <v>262.0225203344867</v>
       </c>
       <c r="G4">
-        <v>470.3886512271447</v>
+        <v>311.5156630643343</v>
       </c>
       <c r="H4">
-        <v>626.452175699702</v>
+        <v>414.8689905296041</v>
       </c>
       <c r="I4">
-        <v>1492.494832631922</v>
+        <v>988.4071739284252</v>
       </c>
       <c r="J4">
-        <v>415.4367059903288</v>
+        <v>275.1236463512112</v>
       </c>
       <c r="K4">
-        <v>571.5002304628862</v>
+        <v>378.4769738164809</v>
       </c>
       <c r="L4">
-        <v>553.9156079871051</v>
+        <v>366.8315284682815</v>
       </c>
       <c r="M4">
-        <v>1540.85254444032</v>
+        <v>1020.432148635974</v>
       </c>
       <c r="N4">
-        <v>531.9348298923786</v>
+        <v>352.2747217830322</v>
       </c>
       <c r="O4">
-        <v>531.9348298923786</v>
+        <v>352.2747217830322</v>
       </c>
       <c r="P4">
-        <v>692.3945099838813</v>
+        <v>458.5394105853518</v>
       </c>
       <c r="Q4">
-        <v>1756.264169768639</v>
+        <v>1163.088854151416</v>
       </c>
       <c r="R4">
-        <v>5719.398460247807</v>
+        <v>3787.68109950186</v>
       </c>
       <c r="S4">
-        <v>494.5675071313437</v>
+        <v>327.5281504181085</v>
       </c>
       <c r="T4">
-        <v>461.5963399892543</v>
+        <v>305.6929403902345</v>
       </c>
       <c r="U4">
-        <v>507.7559739881797</v>
+        <v>336.2622344292581</v>
       </c>
       <c r="V4">
-        <v>1463.919821108778</v>
+        <v>969.4833252376011</v>
       </c>
       <c r="W4">
-        <v>483.5771180839806</v>
+        <v>320.2497470754838</v>
       </c>
       <c r="X4">
-        <v>505.5578961787069</v>
+        <v>334.8065537607331</v>
       </c>
       <c r="Y4">
-        <v>611.0656310333937</v>
+        <v>404.6792258499297</v>
       </c>
       <c r="Z4">
-        <v>1600.200645296081</v>
+        <v>1059.735526686147</v>
       </c>
       <c r="AA4">
-        <v>923.1926799785084</v>
+        <v>611.3858807804692</v>
       </c>
       <c r="AB4">
-        <v>835.2695675996029</v>
+        <v>553.1586540394721</v>
       </c>
       <c r="AC4">
-        <v>501.1617405597618</v>
+        <v>331.8951924236832</v>
       </c>
       <c r="AD4">
-        <v>2259.623988137873</v>
+        <v>1496.439727243625</v>
       </c>
       <c r="AE4">
-        <v>505.5578961787069</v>
+        <v>334.8065537607331</v>
       </c>
       <c r="AF4">
-        <v>461.5963399892543</v>
+        <v>305.6929403902345</v>
       </c>
       <c r="AG4">
-        <v>674.8098875081001</v>
+        <v>446.8939652371525</v>
       </c>
       <c r="AH4">
-        <v>1641.964123676061</v>
+        <v>1087.39345938812</v>
       </c>
       <c r="AI4">
-        <v>6965.708578218794</v>
+        <v>4613.052038555493</v>
       </c>
       <c r="AJ4">
-        <v>147.2712132346668</v>
+        <v>97.53060479117008</v>
       </c>
       <c r="AK4">
-        <v>483.5771180839806</v>
+        <v>320.2497470754839</v>
       </c>
       <c r="AL4">
-        <v>600.0752419860305</v>
+        <v>397.400822507305</v>
       </c>
       <c r="AM4">
-        <v>1230.923573304678</v>
+        <v>815.1811743739589</v>
       </c>
       <c r="AN4">
-        <v>531.9348298923786</v>
+        <v>352.2747217830322</v>
       </c>
       <c r="AO4">
-        <v>531.9348298923786</v>
+        <v>352.2747217830322</v>
       </c>
       <c r="AP4">
-        <v>547.3213745586872</v>
+        <v>362.4644864627067</v>
       </c>
       <c r="AQ4">
-        <v>1611.191034343444</v>
+        <v>1067.013930028771</v>
       </c>
       <c r="AR4">
-        <v>556.1136857965777</v>
+        <v>368.2872091368064</v>
       </c>
       <c r="AS4">
-        <v>507.7559739881797</v>
+        <v>336.2622344292581</v>
       </c>
       <c r="AT4">
-        <v>538.5290633207966</v>
+        <v>356.641763788607</v>
       </c>
       <c r="AU4">
-        <v>1602.398723105554</v>
+        <v>1061.191207354671</v>
       </c>
       <c r="AV4">
-        <v>707.7810546501897</v>
+        <v>468.7291752650264</v>
       </c>
       <c r="AW4">
-        <v>615.4617866523389</v>
+        <v>407.5905871869795</v>
       </c>
       <c r="AX4">
-        <v>877.033045979583</v>
+        <v>580.8165867414457</v>
       </c>
       <c r="AY4">
-        <v>2200.275887282111</v>
+        <v>1457.136349193452</v>
       </c>
       <c r="AZ4">
-        <v>6644.789218035789</v>
+        <v>4400.522660950853</v>
       </c>
       <c r="BA4">
-        <v>859.4484235038019</v>
+        <v>569.1711413932462</v>
       </c>
       <c r="BB4">
-        <v>791.3080114101501</v>
+        <v>524.0450406689736</v>
       </c>
       <c r="BC4">
-        <v>483.5771180839806</v>
+        <v>320.2497470754838</v>
       </c>
       <c r="BD4">
-        <v>2134.333552997933</v>
+        <v>1413.465929137704</v>
       </c>
       <c r="BE4">
-        <v>483.5771180839806</v>
+        <v>320.2497470754838</v>
       </c>
       <c r="BF4">
-        <v>461.5963399892543</v>
+        <v>305.6929403902345</v>
       </c>
       <c r="BG4">
-        <v>529.736752082906</v>
+        <v>350.8190411145073</v>
       </c>
       <c r="BH4">
-        <v>1474.910210156141</v>
+        <v>976.7617285802256</v>
       </c>
       <c r="BI4">
-        <v>118.6962017115225</v>
+        <v>78.60675610034603</v>
       </c>
       <c r="BJ4">
-        <v>92.31926799785084</v>
+        <v>61.13858807804691</v>
       </c>
       <c r="BK4">
-        <v>96.71542361679612</v>
+        <v>64.04994941509676</v>
       </c>
       <c r="BL4">
-        <v>307.7308933261695</v>
+        <v>203.7952935934897</v>
       </c>
       <c r="BM4">
-        <v>96.71542361679612</v>
+        <v>64.04994941509676</v>
       </c>
       <c r="BN4">
-        <v>92.31926799785084</v>
+        <v>61.13858807804691</v>
       </c>
       <c r="BO4">
-        <v>312.1270489451147</v>
+        <v>206.7066549305396</v>
       </c>
       <c r="BP4">
-        <v>501.1617405597617</v>
+        <v>331.8951924236833</v>
       </c>
       <c r="BQ4">
-        <v>4418.136397040004</v>
+        <v>2925.918143735102</v>
       </c>
       <c r="BR4">
-        <v>23748.0326535424</v>
+        <v>15727.17394274331</v>
       </c>
     </row>
     <row r="5" spans="1:70">
@@ -1678,196 +1681,196 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>5.405109367555671</v>
+        <v>3.579542627520312</v>
       </c>
       <c r="C5">
-        <v>108.1021873511134</v>
+        <v>71.59085255040625</v>
       </c>
       <c r="D5">
-        <v>124.3175154537804</v>
+        <v>82.32948043296719</v>
       </c>
       <c r="E5">
-        <v>237.8248121724495</v>
+        <v>157.4998756108938</v>
       </c>
       <c r="F5">
-        <v>108.1021873511134</v>
+        <v>71.59085255040625</v>
       </c>
       <c r="G5">
-        <v>129.7226248213361</v>
+        <v>85.90902306048748</v>
       </c>
       <c r="H5">
-        <v>118.9124060862247</v>
+        <v>78.74993780544686</v>
       </c>
       <c r="I5">
-        <v>356.7372182586743</v>
+        <v>236.2498134163406</v>
       </c>
       <c r="J5">
-        <v>113.5072967186691</v>
+        <v>75.17039517792654</v>
       </c>
       <c r="K5">
-        <v>336.9184839109702</v>
+        <v>223.1248237820994</v>
       </c>
       <c r="L5">
-        <v>302.6861245831175</v>
+        <v>200.4543871411375</v>
       </c>
       <c r="M5">
-        <v>753.1119052127567</v>
+        <v>498.7496061011634</v>
       </c>
       <c r="N5">
-        <v>317.099749563266</v>
+        <v>209.9998341478583</v>
       </c>
       <c r="O5">
-        <v>317.099749563266</v>
+        <v>209.9998341478583</v>
       </c>
       <c r="P5">
-        <v>302.6861245831175</v>
+        <v>200.4543871411375</v>
       </c>
       <c r="Q5">
-        <v>936.8856237096495</v>
+        <v>620.4540554368541</v>
       </c>
       <c r="R5">
-        <v>2284.55955935353</v>
+        <v>1512.953350565252</v>
       </c>
       <c r="S5">
-        <v>198.1873434770413</v>
+        <v>131.2498963424114</v>
       </c>
       <c r="T5">
-        <v>189.1788278644485</v>
+        <v>125.2839919632109</v>
       </c>
       <c r="U5">
-        <v>189.1788278644485</v>
+        <v>125.2839919632109</v>
       </c>
       <c r="V5">
-        <v>576.5449992059382</v>
+        <v>381.8178802688332</v>
       </c>
       <c r="W5">
-        <v>198.1873434770413</v>
+        <v>131.2498963424114</v>
       </c>
       <c r="X5">
-        <v>207.195859089634</v>
+        <v>137.2158007216119</v>
       </c>
       <c r="Y5">
-        <v>180.1703122518557</v>
+        <v>119.3180875840104</v>
       </c>
       <c r="Z5">
-        <v>585.5535148185311</v>
+        <v>387.7837846480338</v>
       </c>
       <c r="AA5">
-        <v>207.195859089634</v>
+        <v>137.2158007216119</v>
       </c>
       <c r="AB5">
-        <v>198.1873434770413</v>
+        <v>131.2498963424114</v>
       </c>
       <c r="AC5">
-        <v>189.1788278644485</v>
+        <v>125.2839919632109</v>
       </c>
       <c r="AD5">
-        <v>594.5620304311238</v>
+        <v>393.7496890272343</v>
       </c>
       <c r="AE5">
-        <v>207.195859089634</v>
+        <v>137.2158007216119</v>
       </c>
       <c r="AF5">
-        <v>189.1788278644485</v>
+        <v>125.2839919632109</v>
       </c>
       <c r="AG5">
-        <v>198.1873434770413</v>
+        <v>131.2498963424114</v>
       </c>
       <c r="AH5">
-        <v>594.5620304311238</v>
+        <v>393.7496890272343</v>
       </c>
       <c r="AI5">
-        <v>2351.222574886717</v>
+        <v>1557.101042971335</v>
       </c>
       <c r="AJ5">
-        <v>7.206812490074228</v>
+        <v>4.772723503360416</v>
       </c>
       <c r="AK5">
-        <v>72.06812490074228</v>
+        <v>47.72723503360416</v>
       </c>
       <c r="AL5">
-        <v>75.67153114577938</v>
+        <v>50.11359678528436</v>
       </c>
       <c r="AM5">
-        <v>154.9464685365959</v>
+        <v>102.6135553222489</v>
       </c>
       <c r="AN5">
-        <v>79.2749373908165</v>
+        <v>52.49995853696457</v>
       </c>
       <c r="AO5">
-        <v>79.2749373908165</v>
+        <v>52.49995853696457</v>
       </c>
       <c r="AP5">
-        <v>75.67153114577938</v>
+        <v>50.11359678528436</v>
       </c>
       <c r="AQ5">
-        <v>234.2214059274124</v>
+        <v>155.1135138592135</v>
       </c>
       <c r="AR5">
-        <v>82.87834363585361</v>
+        <v>54.88632028864478</v>
       </c>
       <c r="AS5">
-        <v>75.67153114577938</v>
+        <v>50.11359678528436</v>
       </c>
       <c r="AT5">
-        <v>79.2749373908165</v>
+        <v>52.49995853696457</v>
       </c>
       <c r="AU5">
-        <v>237.8248121724495</v>
+        <v>157.4998756108937</v>
       </c>
       <c r="AV5">
-        <v>82.87834363585361</v>
+        <v>54.88632028864478</v>
       </c>
       <c r="AW5">
-        <v>72.06812490074228</v>
+        <v>47.72723503360416</v>
       </c>
       <c r="AX5">
-        <v>82.87834363585361</v>
+        <v>54.88632028864478</v>
       </c>
       <c r="AY5">
-        <v>237.8248121724495</v>
+        <v>157.4998756108937</v>
       </c>
       <c r="AZ5">
-        <v>864.8174988089073</v>
+        <v>572.7268204032499</v>
       </c>
       <c r="BA5">
-        <v>75.67153114577938</v>
+        <v>50.11359678528436</v>
       </c>
       <c r="BB5">
-        <v>72.06812490074228</v>
+        <v>47.72723503360416</v>
       </c>
       <c r="BC5">
-        <v>79.2749373908165</v>
+        <v>52.49995853696457</v>
       </c>
       <c r="BD5">
-        <v>227.0145934373381</v>
+        <v>150.3407903558531</v>
       </c>
       <c r="BE5">
-        <v>79.2749373908165</v>
+        <v>52.49995853696457</v>
       </c>
       <c r="BF5">
-        <v>75.67153114577938</v>
+        <v>50.11359678528436</v>
       </c>
       <c r="BG5">
-        <v>79.2749373908165</v>
+        <v>52.49995853696457</v>
       </c>
       <c r="BH5">
-        <v>234.2214059274124</v>
+        <v>155.1135138592135</v>
       </c>
       <c r="BI5">
-        <v>3.603406245037114</v>
+        <v>2.386361751680208</v>
       </c>
       <c r="BL5">
-        <v>3.603406245037114</v>
+        <v>2.386361751680208</v>
       </c>
       <c r="BP5">
         <v>0</v>
       </c>
       <c r="BQ5">
-        <v>464.8394056097876</v>
+        <v>307.8406659667468</v>
       </c>
       <c r="BR5">
-        <v>5965.439038658942</v>
+        <v>3950.621879906585</v>
       </c>
     </row>
     <row r="6" spans="1:70">
@@ -1875,211 +1878,211 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>7.693272333154237</v>
+        <v>5.094882339837243</v>
       </c>
       <c r="C6">
-        <v>153.8654466630847</v>
+        <v>101.8976467967449</v>
       </c>
       <c r="D6">
-        <v>176.9452636625474</v>
+        <v>117.1822938162566</v>
       </c>
       <c r="E6">
-        <v>338.5039826587864</v>
+        <v>224.1748229528387</v>
       </c>
       <c r="F6">
-        <v>153.8654466630847</v>
+        <v>101.8976467967449</v>
       </c>
       <c r="G6">
-        <v>176.9452636625474</v>
+        <v>117.1822938162566</v>
       </c>
       <c r="H6">
-        <v>169.2519913293932</v>
+        <v>112.0874114764193</v>
       </c>
       <c r="I6">
-        <v>500.0627016550253</v>
+        <v>331.1673520894208</v>
       </c>
       <c r="J6">
-        <v>138.4789019967762</v>
+        <v>91.70788211707037</v>
       </c>
       <c r="K6">
-        <v>151.6673688536121</v>
+        <v>100.4419661282199</v>
       </c>
       <c r="L6">
-        <v>138.4789019967762</v>
+        <v>91.70788211707037</v>
       </c>
       <c r="M6">
-        <v>428.6251728471645</v>
+        <v>283.8577303623607</v>
       </c>
       <c r="N6">
-        <v>145.0731354251942</v>
+        <v>96.07492412264516</v>
       </c>
       <c r="O6">
-        <v>145.0731354251942</v>
+        <v>96.07492412264516</v>
       </c>
       <c r="P6">
-        <v>138.4789019967762</v>
+        <v>91.70788211707037</v>
       </c>
       <c r="Q6">
-        <v>428.6251728471647</v>
+        <v>283.8577303623607</v>
       </c>
       <c r="R6">
-        <v>1695.817030008141</v>
+        <v>1123.057635766981</v>
       </c>
       <c r="S6">
-        <v>278.0568428982889</v>
+        <v>184.1436045684032</v>
       </c>
       <c r="T6">
-        <v>253.8779869940898</v>
+        <v>168.131117214629</v>
       </c>
       <c r="U6">
-        <v>253.8779869940898</v>
+        <v>168.131117214629</v>
       </c>
       <c r="V6">
-        <v>785.8128168864686</v>
+        <v>520.4058389976612</v>
       </c>
       <c r="W6">
-        <v>265.9674149461894</v>
+        <v>176.1373608915162</v>
       </c>
       <c r="X6">
-        <v>278.0568428982889</v>
+        <v>184.1436045684032</v>
       </c>
       <c r="Y6">
-        <v>241.7885590419903</v>
+        <v>160.124873537742</v>
       </c>
       <c r="Z6">
-        <v>785.8128168864686</v>
+        <v>520.4058389976612</v>
       </c>
       <c r="AA6">
-        <v>353.8905273250949</v>
+        <v>234.3645876325132</v>
       </c>
       <c r="AB6">
-        <v>338.5039826587864</v>
+        <v>224.1748229528387</v>
       </c>
       <c r="AC6">
-        <v>461.5963399892542</v>
+        <v>305.6929403902346</v>
       </c>
       <c r="AD6">
-        <v>1153.990849973135</v>
+        <v>764.2323509755865</v>
       </c>
       <c r="AE6">
-        <v>505.557896178707</v>
+        <v>334.8065537607331</v>
       </c>
       <c r="AF6">
-        <v>461.5963399892542</v>
+        <v>305.6929403902346</v>
       </c>
       <c r="AG6">
-        <v>483.5771180839806</v>
+        <v>320.2497470754839</v>
       </c>
       <c r="AH6">
-        <v>1450.731354251942</v>
+        <v>960.7492412264514</v>
       </c>
       <c r="AI6">
-        <v>4176.347837998015</v>
+        <v>2765.79327019736</v>
       </c>
       <c r="AJ6">
-        <v>505.557896178707</v>
+        <v>334.8065537607331</v>
       </c>
       <c r="AK6">
-        <v>439.6155618945278</v>
+        <v>291.1361337049854</v>
       </c>
       <c r="AL6">
-        <v>461.5963399892542</v>
+        <v>305.6929403902346</v>
       </c>
       <c r="AM6">
-        <v>1406.769798062489</v>
+        <v>931.6356278559531</v>
       </c>
       <c r="AN6">
-        <v>483.5771180839806</v>
+        <v>320.2497470754839</v>
       </c>
       <c r="AO6">
-        <v>483.5771180839806</v>
+        <v>320.2497470754839</v>
       </c>
       <c r="AP6">
-        <v>461.5963399892542</v>
+        <v>305.6929403902346</v>
       </c>
       <c r="AQ6">
-        <v>1428.750576157215</v>
+        <v>946.1924345412024</v>
       </c>
       <c r="AR6">
-        <v>505.557896178707</v>
+        <v>334.8065537607331</v>
       </c>
       <c r="AS6">
-        <v>461.5963399892542</v>
+        <v>305.6929403902346</v>
       </c>
       <c r="AT6">
-        <v>483.5771180839806</v>
+        <v>320.2497470754839</v>
       </c>
       <c r="AU6">
-        <v>1450.731354251942</v>
+        <v>960.7492412264514</v>
       </c>
       <c r="AV6">
-        <v>505.557896178707</v>
+        <v>334.8065537607331</v>
       </c>
       <c r="AW6">
-        <v>439.6155618945278</v>
+        <v>291.1361337049854</v>
       </c>
       <c r="AX6">
-        <v>505.557896178707</v>
+        <v>334.8065537607331</v>
       </c>
       <c r="AY6">
-        <v>1450.731354251942</v>
+        <v>960.7492412264517</v>
       </c>
       <c r="AZ6">
-        <v>5736.983082723588</v>
+        <v>3799.326544850058</v>
       </c>
       <c r="BA6">
-        <v>362.6828385629855</v>
+        <v>240.1873103066129</v>
       </c>
       <c r="BB6">
-        <v>329.7116714208958</v>
+        <v>218.352100278739</v>
       </c>
       <c r="BC6">
-        <v>362.6828385629855</v>
+        <v>240.1873103066129</v>
       </c>
       <c r="BD6">
-        <v>1055.077348546867</v>
+        <v>698.7267208919648</v>
       </c>
       <c r="BE6">
-        <v>362.6828385629855</v>
+        <v>240.1873103066129</v>
       </c>
       <c r="BF6">
-        <v>346.1972549919406</v>
+        <v>229.2697052926759</v>
       </c>
       <c r="BG6">
-        <v>362.6828385629855</v>
+        <v>240.1873103066129</v>
       </c>
       <c r="BH6">
-        <v>1071.562932117912</v>
+        <v>709.6443259059017</v>
       </c>
       <c r="BI6">
-        <v>240.689520137254</v>
+        <v>159.3970332034795</v>
       </c>
       <c r="BJ6">
-        <v>207.7183529951643</v>
+        <v>137.5618231756056</v>
       </c>
       <c r="BK6">
-        <v>217.6097031377913</v>
+        <v>144.1123861839677</v>
       </c>
       <c r="BL6">
-        <v>666.0175762702096</v>
+        <v>441.0712425630528</v>
       </c>
       <c r="BM6">
-        <v>145.0731354251942</v>
+        <v>96.07492412264516</v>
       </c>
       <c r="BN6">
-        <v>138.4789019967762</v>
+        <v>91.70788211707037</v>
       </c>
       <c r="BO6">
-        <v>151.6673688536121</v>
+        <v>100.4419661282199</v>
       </c>
       <c r="BP6">
-        <v>435.2194062755825</v>
+        <v>288.2247723679354</v>
       </c>
       <c r="BQ6">
-        <v>3227.877263210571</v>
+        <v>2137.667061728855</v>
       </c>
       <c r="BR6">
-        <v>14837.02521394031</v>
+        <v>9825.844512543255</v>
       </c>
     </row>
     <row r="7" spans="1:70">
@@ -2087,211 +2090,211 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>17.58462247578111</v>
+        <v>11.64544534819941</v>
       </c>
       <c r="C7">
-        <v>351.6924495156223</v>
+        <v>232.9089069639883</v>
       </c>
       <c r="D7">
-        <v>404.4463169429656</v>
+        <v>267.8452430085865</v>
       </c>
       <c r="E7">
-        <v>773.723388934369</v>
+        <v>512.3995953207741</v>
       </c>
       <c r="F7">
-        <v>351.6924495156223</v>
+        <v>232.9089069639883</v>
       </c>
       <c r="G7">
-        <v>411.0405503713835</v>
+        <v>272.2122850141613</v>
       </c>
       <c r="H7">
-        <v>386.8616944671845</v>
+        <v>256.1997976603871</v>
       </c>
       <c r="I7">
-        <v>1149.59469435419</v>
+        <v>761.3209896385367</v>
       </c>
       <c r="J7">
-        <v>369.2770719914034</v>
+        <v>244.5543523121877</v>
       </c>
       <c r="K7">
-        <v>512.1521296071248</v>
+        <v>339.1735957663079</v>
       </c>
       <c r="L7">
-        <v>461.5963399892543</v>
+        <v>305.6929403902346</v>
       </c>
       <c r="M7">
-        <v>1343.025541587782</v>
+        <v>889.42088846873</v>
       </c>
       <c r="N7">
-        <v>483.5771180839806</v>
+        <v>320.2497470754838</v>
       </c>
       <c r="O7">
-        <v>483.5771180839806</v>
+        <v>320.2497470754838</v>
       </c>
       <c r="P7">
-        <v>461.5963399892543</v>
+        <v>305.6929403902346</v>
       </c>
       <c r="Q7">
-        <v>1428.750576157215</v>
+        <v>946.1924345412021</v>
       </c>
       <c r="R7">
-        <v>4695.094201033558</v>
+        <v>3109.333907969243</v>
       </c>
       <c r="S7">
-        <v>241.7885590419903</v>
+        <v>160.1248735377419</v>
       </c>
       <c r="T7">
-        <v>230.7981699946271</v>
+        <v>152.8464701951173</v>
       </c>
       <c r="U7">
-        <v>230.7981699946271</v>
+        <v>152.8464701951173</v>
       </c>
       <c r="V7">
-        <v>703.3848990312445</v>
+        <v>465.8178139279765</v>
       </c>
       <c r="W7">
-        <v>241.7885590419903</v>
+        <v>160.1248735377419</v>
       </c>
       <c r="X7">
-        <v>252.7789480893535</v>
+        <v>167.4032768803665</v>
       </c>
       <c r="Y7">
-        <v>219.8077809472639</v>
+        <v>145.5680668524927</v>
       </c>
       <c r="Z7">
-        <v>714.3752880786077</v>
+        <v>473.0962172706011</v>
       </c>
       <c r="AA7">
-        <v>252.7789480893535</v>
+        <v>167.4032768803665</v>
       </c>
       <c r="AB7">
-        <v>241.7885590419903</v>
+        <v>160.1248735377419</v>
       </c>
       <c r="AC7">
-        <v>230.7981699946271</v>
+        <v>152.8464701951173</v>
       </c>
       <c r="AD7">
-        <v>725.3656771259709</v>
+        <v>480.3746206132257</v>
       </c>
       <c r="AE7">
-        <v>252.7789480893535</v>
+        <v>167.4032768803665</v>
       </c>
       <c r="AF7">
-        <v>230.7981699946271</v>
+        <v>152.8464701951173</v>
       </c>
       <c r="AG7">
-        <v>241.7885590419903</v>
+        <v>160.1248735377419</v>
       </c>
       <c r="AH7">
-        <v>725.3656771259709</v>
+        <v>480.3746206132257</v>
       </c>
       <c r="AI7">
-        <v>2868.491541361794</v>
+        <v>1899.663272425029</v>
       </c>
       <c r="AJ7">
-        <v>26.37693371367167</v>
+        <v>17.46816802229912</v>
       </c>
       <c r="AK7">
-        <v>263.7693371367167</v>
+        <v>174.6816802229912</v>
       </c>
       <c r="AL7">
-        <v>276.9578039935525</v>
+        <v>183.4157642341407</v>
       </c>
       <c r="AM7">
-        <v>567.1040748439409</v>
+        <v>375.5656124794311</v>
       </c>
       <c r="AN7">
-        <v>435.2194062755826</v>
+        <v>288.2247723679355</v>
       </c>
       <c r="AO7">
-        <v>435.2194062755826</v>
+        <v>288.2247723679355</v>
       </c>
       <c r="AP7">
-        <v>415.4367059903287</v>
+        <v>275.1236463512112</v>
       </c>
       <c r="AQ7">
-        <v>1285.875518541494</v>
+        <v>851.5731910870821</v>
       </c>
       <c r="AR7">
-        <v>455.0021065608362</v>
+        <v>301.3258983846598</v>
       </c>
       <c r="AS7">
-        <v>461.5963399892542</v>
+        <v>305.6929403902346</v>
       </c>
       <c r="AT7">
-        <v>483.5771180839806</v>
+        <v>320.2497470754839</v>
       </c>
       <c r="AU7">
-        <v>1400.175564634071</v>
+        <v>927.2685858503783</v>
       </c>
       <c r="AV7">
-        <v>505.5578961787069</v>
+        <v>334.8065537607331</v>
       </c>
       <c r="AW7">
-        <v>439.6155618945278</v>
+        <v>291.1361337049854</v>
       </c>
       <c r="AX7">
-        <v>505.5578961787069</v>
+        <v>334.8065537607331</v>
       </c>
       <c r="AY7">
-        <v>1450.731354251942</v>
+        <v>960.7492412264517</v>
       </c>
       <c r="AZ7">
-        <v>4703.886512271448</v>
+        <v>3115.156630643343</v>
       </c>
       <c r="BA7">
-        <v>373.6732276103486</v>
+        <v>247.4657136492375</v>
       </c>
       <c r="BB7">
-        <v>351.6924495156223</v>
+        <v>232.9089069639883</v>
       </c>
       <c r="BC7">
-        <v>386.8616944671845</v>
+        <v>256.1997976603871</v>
       </c>
       <c r="BD7">
-        <v>1112.227371593156</v>
+        <v>736.5744182736129</v>
       </c>
       <c r="BE7">
-        <v>386.8616944671845</v>
+        <v>256.1997976603871</v>
       </c>
       <c r="BF7">
-        <v>369.2770719914033</v>
+        <v>244.5543523121876</v>
       </c>
       <c r="BG7">
-        <v>386.8616944671845</v>
+        <v>256.1997976603871</v>
       </c>
       <c r="BH7">
-        <v>1143.000460925772</v>
+        <v>756.9539476329619</v>
       </c>
       <c r="BI7">
-        <v>259.3731815177713</v>
+        <v>171.7703188859413</v>
       </c>
       <c r="BJ7">
-        <v>230.7981699946271</v>
+        <v>152.8464701951173</v>
       </c>
       <c r="BK7">
-        <v>241.7885590419903</v>
+        <v>160.1248735377419</v>
       </c>
       <c r="BL7">
-        <v>731.9599105543888</v>
+        <v>484.7416626188005</v>
       </c>
       <c r="BM7">
-        <v>241.7885590419903</v>
+        <v>160.1248735377419</v>
       </c>
       <c r="BN7">
-        <v>230.7981699946271</v>
+        <v>152.8464701951173</v>
       </c>
       <c r="BO7">
-        <v>252.7789480893535</v>
+        <v>167.4032768803665</v>
       </c>
       <c r="BP7">
-        <v>725.3656771259709</v>
+        <v>480.3746206132258</v>
       </c>
       <c r="BQ7">
-        <v>3712.553420199287</v>
+        <v>2458.644649138601</v>
       </c>
       <c r="BR7">
-        <v>15980.02567486609</v>
+        <v>10582.79846017621</v>
       </c>
     </row>
     <row r="8" spans="1:70">
@@ -2299,211 +2302,211 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>6.594233428417917</v>
+        <v>4.367042005574779</v>
       </c>
       <c r="C8">
-        <v>131.8846685683583</v>
+        <v>87.34084011149561</v>
       </c>
       <c r="D8">
-        <v>151.6673688536121</v>
+        <v>100.4419661282199</v>
       </c>
       <c r="E8">
-        <v>290.1462708503883</v>
+        <v>192.1498482452903</v>
       </c>
       <c r="F8">
-        <v>131.8846685683583</v>
+        <v>87.34084011149561</v>
       </c>
       <c r="G8">
-        <v>151.6673688536121</v>
+        <v>100.4419661282199</v>
       </c>
       <c r="H8">
-        <v>145.0731354251942</v>
+        <v>96.07492412264516</v>
       </c>
       <c r="I8">
-        <v>428.6251728471647</v>
+        <v>283.8577303623607</v>
       </c>
       <c r="J8">
-        <v>115.3990849973136</v>
+        <v>76.42323509755865</v>
       </c>
       <c r="K8">
-        <v>126.3894740446767</v>
+        <v>83.70163844018327</v>
       </c>
       <c r="L8">
-        <v>115.3990849973136</v>
+        <v>76.42323509755865</v>
       </c>
       <c r="M8">
-        <v>357.1876440393039</v>
+        <v>236.5481086353005</v>
       </c>
       <c r="N8">
-        <v>120.8942795209951</v>
+        <v>80.06243676887097</v>
       </c>
       <c r="O8">
-        <v>120.8942795209951</v>
+        <v>80.06243676887097</v>
       </c>
       <c r="P8">
-        <v>115.3990849973136</v>
+        <v>76.42323509755865</v>
       </c>
       <c r="Q8">
-        <v>357.1876440393038</v>
+        <v>236.5481086353006</v>
       </c>
       <c r="R8">
-        <v>1433.146731776161</v>
+        <v>949.1037958782521</v>
       </c>
       <c r="S8">
-        <v>227.5010532804181</v>
+        <v>150.6629491923299</v>
       </c>
       <c r="T8">
-        <v>207.7183529951644</v>
+        <v>137.5618231756056</v>
       </c>
       <c r="U8">
-        <v>207.7183529951644</v>
+        <v>137.5618231756056</v>
       </c>
       <c r="V8">
-        <v>642.9377592707469</v>
+        <v>425.7865955435411</v>
       </c>
       <c r="W8">
-        <v>217.6097031377913</v>
+        <v>144.1123861839677</v>
       </c>
       <c r="X8">
-        <v>227.5010532804181</v>
+        <v>150.6629491923299</v>
       </c>
       <c r="Y8">
-        <v>197.8270028525376</v>
+        <v>131.0112601672434</v>
       </c>
       <c r="Z8">
-        <v>642.9377592707469</v>
+        <v>425.786595543541</v>
       </c>
       <c r="AA8">
-        <v>303.3347377072242</v>
+        <v>200.8839322564399</v>
       </c>
       <c r="AB8">
-        <v>290.1462708503884</v>
+        <v>192.1498482452903</v>
       </c>
       <c r="AC8">
-        <v>369.2770719914034</v>
+        <v>244.5543523121876</v>
       </c>
       <c r="AD8">
-        <v>962.7580805490159</v>
+        <v>637.5881328139178</v>
       </c>
       <c r="AE8">
-        <v>404.4463169429656</v>
+        <v>267.8452430085865</v>
       </c>
       <c r="AF8">
-        <v>369.2770719914034</v>
+        <v>244.5543523121876</v>
       </c>
       <c r="AG8">
-        <v>386.8616944671845</v>
+        <v>256.199797660387</v>
       </c>
       <c r="AH8">
-        <v>1160.585083401553</v>
+        <v>768.5993929811611</v>
       </c>
       <c r="AI8">
-        <v>3409.218682492063</v>
+        <v>2257.760716882161</v>
       </c>
       <c r="AJ8">
-        <v>404.4463169429656</v>
+        <v>267.8452430085865</v>
       </c>
       <c r="AK8">
-        <v>351.6924495156223</v>
+        <v>232.9089069639883</v>
       </c>
       <c r="AL8">
-        <v>369.2770719914034</v>
+        <v>244.5543523121876</v>
       </c>
       <c r="AM8">
-        <v>1125.415838449991</v>
+        <v>745.3085022847624</v>
       </c>
       <c r="AN8">
-        <v>386.8616944671845</v>
+        <v>256.199797660387</v>
       </c>
       <c r="AO8">
-        <v>386.8616944671845</v>
+        <v>256.199797660387</v>
       </c>
       <c r="AP8">
-        <v>369.2770719914034</v>
+        <v>244.5543523121876</v>
       </c>
       <c r="AQ8">
-        <v>1143.000460925772</v>
+        <v>756.9539476329617</v>
       </c>
       <c r="AR8">
-        <v>404.4463169429656</v>
+        <v>267.8452430085865</v>
       </c>
       <c r="AS8">
-        <v>369.2770719914034</v>
+        <v>244.5543523121876</v>
       </c>
       <c r="AT8">
-        <v>386.8616944671845</v>
+        <v>256.199797660387</v>
       </c>
       <c r="AU8">
-        <v>1160.585083401553</v>
+        <v>768.5993929811611</v>
       </c>
       <c r="AV8">
-        <v>404.4463169429656</v>
+        <v>267.8452430085865</v>
       </c>
       <c r="AW8">
-        <v>351.6924495156223</v>
+        <v>232.9089069639883</v>
       </c>
       <c r="AX8">
-        <v>404.4463169429656</v>
+        <v>267.8452430085865</v>
       </c>
       <c r="AY8">
-        <v>1160.585083401553</v>
+        <v>768.5993929811611</v>
       </c>
       <c r="AZ8">
-        <v>4589.58646617887</v>
+        <v>3039.461235880046</v>
       </c>
       <c r="BA8">
-        <v>290.1462708503884</v>
+        <v>192.1498482452903</v>
       </c>
       <c r="BB8">
-        <v>263.7693371367167</v>
+        <v>174.6816802229912</v>
       </c>
       <c r="BC8">
-        <v>290.1462708503884</v>
+        <v>192.1498482452903</v>
       </c>
       <c r="BD8">
-        <v>844.0618788374934</v>
+        <v>558.9813767135719</v>
       </c>
       <c r="BE8">
-        <v>290.1462708503884</v>
+        <v>192.1498482452903</v>
       </c>
       <c r="BF8">
-        <v>276.9578039935525</v>
+        <v>183.4157642341407</v>
       </c>
       <c r="BG8">
-        <v>290.1462708503884</v>
+        <v>192.1498482452903</v>
       </c>
       <c r="BH8">
-        <v>857.2503456943293</v>
+        <v>567.7154607247213</v>
       </c>
       <c r="BI8">
-        <v>187.9356527099106</v>
+        <v>124.4606971588812</v>
       </c>
       <c r="BJ8">
-        <v>161.558718996239</v>
+        <v>106.9925291365821</v>
       </c>
       <c r="BK8">
-        <v>169.2519913293932</v>
+        <v>112.0874114764193</v>
       </c>
       <c r="BL8">
-        <v>518.7463630355428</v>
+        <v>343.5406377718826</v>
       </c>
       <c r="BM8">
-        <v>96.71542361679612</v>
+        <v>64.04994941509676</v>
       </c>
       <c r="BN8">
-        <v>92.31926799785084</v>
+        <v>61.13858807804691</v>
       </c>
       <c r="BO8">
-        <v>101.1115792357414</v>
+        <v>66.96131075214662</v>
       </c>
       <c r="BP8">
-        <v>290.1462708503884</v>
+        <v>192.1498482452903</v>
       </c>
       <c r="BQ8">
-        <v>2510.204858417754</v>
+        <v>1662.387323455466</v>
       </c>
       <c r="BR8">
-        <v>11942.15673886485</v>
+        <v>7908.713072095926</v>
       </c>
     </row>
     <row r="9" spans="1:70">
@@ -2511,211 +2514,211 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>17.58462247578111</v>
+        <v>11.64544534819941</v>
       </c>
       <c r="C9">
-        <v>351.6924495156223</v>
+        <v>232.9089069639883</v>
       </c>
       <c r="D9">
-        <v>404.4463169429656</v>
+        <v>267.8452430085865</v>
       </c>
       <c r="E9">
-        <v>773.7233889343689</v>
+        <v>512.3995953207741</v>
       </c>
       <c r="F9">
-        <v>351.6924495156223</v>
+        <v>232.9089069639883</v>
       </c>
       <c r="G9">
-        <v>417.6347837998014</v>
+        <v>276.5793270197361</v>
       </c>
       <c r="H9">
-        <v>386.8616944671845</v>
+        <v>256.1997976603871</v>
       </c>
       <c r="I9">
-        <v>1156.188927782608</v>
+        <v>765.6880316441114</v>
       </c>
       <c r="J9">
-        <v>369.2770719914033</v>
+        <v>244.5543523121876</v>
       </c>
       <c r="K9">
-        <v>417.6347837998014</v>
+        <v>276.5793270197361</v>
       </c>
       <c r="L9">
-        <v>369.2770719914034</v>
+        <v>244.5543523121876</v>
       </c>
       <c r="M9">
-        <v>1156.188927782608</v>
+        <v>765.6880316441113</v>
       </c>
       <c r="N9">
-        <v>386.8616944671845</v>
+        <v>256.199797660387</v>
       </c>
       <c r="O9">
-        <v>386.8616944671845</v>
+        <v>256.199797660387</v>
       </c>
       <c r="P9">
-        <v>369.2770719914034</v>
+        <v>244.5543523121876</v>
       </c>
       <c r="Q9">
-        <v>1143.000460925772</v>
+        <v>756.9539476329617</v>
       </c>
       <c r="R9">
-        <v>4229.101705425358</v>
+        <v>2800.729606241959</v>
       </c>
       <c r="S9">
-        <v>450.605950941891</v>
+        <v>298.41453704761</v>
       </c>
       <c r="T9">
-        <v>415.4367059903287</v>
+        <v>275.1236463512112</v>
       </c>
       <c r="U9">
-        <v>415.4367059903287</v>
+        <v>275.1236463512112</v>
       </c>
       <c r="V9">
-        <v>1281.479362922548</v>
+        <v>848.6618297500323</v>
       </c>
       <c r="W9">
-        <v>386.8616944671845</v>
+        <v>256.1997976603871</v>
       </c>
       <c r="X9">
-        <v>404.4463169429656</v>
+        <v>267.8452430085865</v>
       </c>
       <c r="Y9">
-        <v>351.6924495156223</v>
+        <v>232.9089069639883</v>
       </c>
       <c r="Z9">
-        <v>1143.000460925772</v>
+        <v>756.9539476329619</v>
       </c>
       <c r="AA9">
-        <v>406.6443947524382</v>
+        <v>269.3009236771114</v>
       </c>
       <c r="AB9">
-        <v>435.2194062755825</v>
+        <v>288.2247723679355</v>
       </c>
       <c r="AC9">
-        <v>415.4367059903288</v>
+        <v>275.1236463512112</v>
       </c>
       <c r="AD9">
-        <v>1257.30050701835</v>
+        <v>832.6493423962581</v>
       </c>
       <c r="AE9">
-        <v>455.0021065608363</v>
+        <v>301.3258983846598</v>
       </c>
       <c r="AF9">
-        <v>415.4367059903288</v>
+        <v>275.1236463512112</v>
       </c>
       <c r="AG9">
-        <v>435.2194062755825</v>
+        <v>288.2247723679355</v>
       </c>
       <c r="AH9">
-        <v>1305.658218826748</v>
+        <v>864.6743171038063</v>
       </c>
       <c r="AI9">
-        <v>4987.438549693417</v>
+        <v>3302.93943688306</v>
       </c>
       <c r="AJ9">
-        <v>74.73464552206971</v>
+        <v>49.4931427298475</v>
       </c>
       <c r="AK9">
-        <v>307.7308933261695</v>
+        <v>203.7952935934898</v>
       </c>
       <c r="AL9">
-        <v>323.117437992478</v>
+        <v>213.9850582731642</v>
       </c>
       <c r="AM9">
-        <v>705.582976840717</v>
+        <v>467.2734945965015</v>
       </c>
       <c r="AN9">
-        <v>531.9348298923787</v>
+        <v>352.2747217830322</v>
       </c>
       <c r="AO9">
-        <v>531.9348298923787</v>
+        <v>352.2747217830322</v>
       </c>
       <c r="AP9">
-        <v>507.7559739881797</v>
+        <v>336.2622344292581</v>
       </c>
       <c r="AQ9">
-        <v>1571.625633772937</v>
+        <v>1040.811677995322</v>
       </c>
       <c r="AR9">
-        <v>556.1136857965777</v>
+        <v>368.2872091368064</v>
       </c>
       <c r="AS9">
-        <v>507.7559739881796</v>
+        <v>336.2622344292581</v>
       </c>
       <c r="AT9">
-        <v>531.9348298923787</v>
+        <v>352.2747217830323</v>
       </c>
       <c r="AU9">
-        <v>1595.804489677136</v>
+        <v>1056.824165349097</v>
       </c>
       <c r="AV9">
-        <v>556.1136857965777</v>
+        <v>368.2872091368064</v>
       </c>
       <c r="AW9">
-        <v>483.5771180839806</v>
+        <v>320.2497470754839</v>
       </c>
       <c r="AX9">
-        <v>556.1136857965777</v>
+        <v>368.2872091368064</v>
       </c>
       <c r="AY9">
-        <v>1595.804489677136</v>
+        <v>1056.824165349097</v>
       </c>
       <c r="AZ9">
-        <v>5468.817589967926</v>
+        <v>3621.733503290017</v>
       </c>
       <c r="BA9">
-        <v>468.1905734176721</v>
+        <v>310.0599823958094</v>
       </c>
       <c r="BB9">
-        <v>439.6155618945278</v>
+        <v>291.1361337049854</v>
       </c>
       <c r="BC9">
-        <v>483.5771180839806</v>
+        <v>320.2497470754839</v>
       </c>
       <c r="BD9">
-        <v>1391.383253396181</v>
+        <v>921.4458631762786</v>
       </c>
       <c r="BE9">
-        <v>483.5771180839806</v>
+        <v>320.2497470754839</v>
       </c>
       <c r="BF9">
-        <v>461.5963399892542</v>
+        <v>305.6929403902346</v>
       </c>
       <c r="BG9">
-        <v>483.5771180839806</v>
+        <v>320.2497470754839</v>
       </c>
       <c r="BH9">
-        <v>1428.750576157215</v>
+        <v>946.1924345412024</v>
       </c>
       <c r="BI9">
-        <v>367.0789941819307</v>
+        <v>243.0986716436628</v>
       </c>
       <c r="BJ9">
-        <v>323.117437992478</v>
+        <v>213.9850582731642</v>
       </c>
       <c r="BK9">
-        <v>338.5039826587864</v>
+        <v>224.1748229528387</v>
       </c>
       <c r="BL9">
-        <v>1028.700414833195</v>
+        <v>681.2585528696657</v>
       </c>
       <c r="BM9">
-        <v>338.5039826587864</v>
+        <v>224.1748229528387</v>
       </c>
       <c r="BN9">
-        <v>323.117437992478</v>
+        <v>213.9850582731642</v>
       </c>
       <c r="BO9">
-        <v>353.8905273250949</v>
+        <v>234.3645876325132</v>
       </c>
       <c r="BP9">
-        <v>1015.511947976359</v>
+        <v>672.5244688585161</v>
       </c>
       <c r="BQ9">
-        <v>4864.34619236295</v>
+        <v>3221.421319445663</v>
       </c>
       <c r="BR9">
-        <v>19549.70403744965</v>
+        <v>12946.8238658607</v>
       </c>
     </row>
     <row r="10" spans="1:70">
@@ -2723,211 +2726,211 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>13.18846685683583</v>
+        <v>8.734084011149559</v>
       </c>
       <c r="C10">
-        <v>263.7693371367167</v>
+        <v>174.6816802229912</v>
       </c>
       <c r="D10">
-        <v>303.3347377072242</v>
+        <v>200.8839322564399</v>
       </c>
       <c r="E10">
-        <v>580.2925417007766</v>
+        <v>384.2996964905806</v>
       </c>
       <c r="F10">
-        <v>263.7693371367167</v>
+        <v>174.6816802229912</v>
       </c>
       <c r="G10">
-        <v>303.3347377072242</v>
+        <v>200.8839322564399</v>
       </c>
       <c r="H10">
-        <v>290.1462708503884</v>
+        <v>192.1498482452903</v>
       </c>
       <c r="I10">
-        <v>857.2503456943293</v>
+        <v>567.7154607247214</v>
       </c>
       <c r="J10">
-        <v>276.9578039935525</v>
+        <v>183.4157642341407</v>
       </c>
       <c r="K10">
-        <v>505.557896178707</v>
+        <v>334.8065537607331</v>
       </c>
       <c r="L10">
-        <v>461.5963399892542</v>
+        <v>305.6929403902346</v>
       </c>
       <c r="M10">
-        <v>1244.112040161514</v>
+        <v>823.9152583851085</v>
       </c>
       <c r="N10">
-        <v>483.5771180839806</v>
+        <v>320.2497470754839</v>
       </c>
       <c r="O10">
-        <v>483.5771180839806</v>
+        <v>320.2497470754839</v>
       </c>
       <c r="P10">
-        <v>461.5963399892542</v>
+        <v>305.6929403902346</v>
       </c>
       <c r="Q10">
-        <v>1428.750576157215</v>
+        <v>946.1924345412024</v>
       </c>
       <c r="R10">
-        <v>4110.405503713835</v>
+        <v>2722.122850141613</v>
       </c>
       <c r="S10">
-        <v>316.5232045640601</v>
+        <v>209.6180162675894</v>
       </c>
       <c r="T10">
-        <v>276.9578039935525</v>
+        <v>183.4157642341407</v>
       </c>
       <c r="U10">
-        <v>276.9578039935525</v>
+        <v>183.4157642341407</v>
       </c>
       <c r="V10">
-        <v>870.438812551165</v>
+        <v>576.4495447358709</v>
       </c>
       <c r="W10">
-        <v>290.1462708503884</v>
+        <v>192.1498482452903</v>
       </c>
       <c r="X10">
-        <v>303.3347377072242</v>
+        <v>200.8839322564399</v>
       </c>
       <c r="Y10">
-        <v>263.7693371367167</v>
+        <v>174.6816802229912</v>
       </c>
       <c r="Z10">
-        <v>857.2503456943292</v>
+        <v>567.7154607247214</v>
       </c>
       <c r="AA10">
-        <v>307.7308933261695</v>
+        <v>203.7952935934898</v>
       </c>
       <c r="AB10">
-        <v>386.8616944671845</v>
+        <v>256.1997976603871</v>
       </c>
       <c r="AC10">
-        <v>369.2770719914033</v>
+        <v>244.5543523121876</v>
       </c>
       <c r="AD10">
-        <v>1063.869659784757</v>
+        <v>704.5494435660645</v>
       </c>
       <c r="AE10">
-        <v>404.4463169429656</v>
+        <v>267.8452430085865</v>
       </c>
       <c r="AF10">
-        <v>369.2770719914033</v>
+        <v>244.5543523121876</v>
       </c>
       <c r="AG10">
-        <v>386.8616944671845</v>
+        <v>256.1997976603871</v>
       </c>
       <c r="AH10">
-        <v>1160.585083401553</v>
+        <v>768.5993929811611</v>
       </c>
       <c r="AI10">
-        <v>3952.143901431805</v>
+        <v>2617.313842007818</v>
       </c>
       <c r="AJ10">
-        <v>211.0154697093733</v>
+        <v>139.7453441783929</v>
       </c>
       <c r="AK10">
-        <v>351.6924495156223</v>
+        <v>232.9089069639883</v>
       </c>
       <c r="AL10">
-        <v>369.2770719914034</v>
+        <v>244.5543523121876</v>
       </c>
       <c r="AM10">
-        <v>931.9849912163991</v>
+        <v>617.2086034545689</v>
       </c>
       <c r="AN10">
-        <v>386.8616944671845</v>
+        <v>256.199797660387</v>
       </c>
       <c r="AO10">
-        <v>386.8616944671845</v>
+        <v>256.199797660387</v>
       </c>
       <c r="AP10">
-        <v>369.2770719914034</v>
+        <v>244.5543523121876</v>
       </c>
       <c r="AQ10">
-        <v>1143.000460925772</v>
+        <v>756.9539476329617</v>
       </c>
       <c r="AR10">
-        <v>404.4463169429656</v>
+        <v>267.8452430085865</v>
       </c>
       <c r="AS10">
-        <v>369.2770719914034</v>
+        <v>244.5543523121876</v>
       </c>
       <c r="AT10">
-        <v>386.8616944671845</v>
+        <v>256.199797660387</v>
       </c>
       <c r="AU10">
-        <v>1160.585083401553</v>
+        <v>768.5993929811611</v>
       </c>
       <c r="AV10">
-        <v>404.4463169429656</v>
+        <v>267.8452430085865</v>
       </c>
       <c r="AW10">
-        <v>351.6924495156223</v>
+        <v>232.9089069639883</v>
       </c>
       <c r="AX10">
-        <v>404.4463169429656</v>
+        <v>267.8452430085865</v>
       </c>
       <c r="AY10">
-        <v>1160.585083401553</v>
+        <v>768.5993929811611</v>
       </c>
       <c r="AZ10">
-        <v>4396.155618945278</v>
+        <v>2911.361337049852</v>
       </c>
       <c r="BA10">
-        <v>369.2770719914034</v>
+        <v>244.5543523121876</v>
       </c>
       <c r="BB10">
-        <v>351.6924495156223</v>
+        <v>232.9089069639883</v>
       </c>
       <c r="BC10">
-        <v>386.8616944671845</v>
+        <v>256.199797660387</v>
       </c>
       <c r="BD10">
-        <v>1107.83121597421</v>
+        <v>733.663056936563</v>
       </c>
       <c r="BE10">
-        <v>386.8616944671845</v>
+        <v>256.199797660387</v>
       </c>
       <c r="BF10">
-        <v>369.2770719914034</v>
+        <v>244.5543523121876</v>
       </c>
       <c r="BG10">
-        <v>386.8616944671845</v>
+        <v>256.199797660387</v>
       </c>
       <c r="BH10">
-        <v>1143.000460925772</v>
+        <v>756.9539476329617</v>
       </c>
       <c r="BI10">
-        <v>219.8077809472639</v>
+        <v>145.5680668524927</v>
       </c>
       <c r="BJ10">
-        <v>184.6385359957017</v>
+        <v>122.2771761560938</v>
       </c>
       <c r="BK10">
-        <v>193.4308472335922</v>
+        <v>128.0998988301935</v>
       </c>
       <c r="BL10">
-        <v>597.8771641765578</v>
+        <v>395.94514183878</v>
       </c>
       <c r="BM10">
-        <v>193.4308472335922</v>
+        <v>128.0998988301935</v>
       </c>
       <c r="BN10">
-        <v>184.6385359957017</v>
+        <v>122.2771761560938</v>
       </c>
       <c r="BO10">
-        <v>202.2231584714828</v>
+        <v>133.9226215042932</v>
       </c>
       <c r="BP10">
-        <v>580.2925417007767</v>
+        <v>384.2996964905806</v>
       </c>
       <c r="BQ10">
-        <v>3429.001382777317</v>
+        <v>2270.861842898885</v>
       </c>
       <c r="BR10">
-        <v>15887.70640686823</v>
+        <v>10521.65987209817</v>
       </c>
     </row>
     <row r="11" spans="1:70">
@@ -2935,211 +2938,211 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>13.18846685683583</v>
+        <v>8.734084011149559</v>
       </c>
       <c r="C11">
-        <v>263.7693371367167</v>
+        <v>174.6816802229912</v>
       </c>
       <c r="D11">
-        <v>303.3347377072242</v>
+        <v>200.8839322564399</v>
       </c>
       <c r="E11">
-        <v>580.2925417007766</v>
+        <v>384.2996964905806</v>
       </c>
       <c r="F11">
-        <v>263.7693371367167</v>
+        <v>174.6816802229912</v>
       </c>
       <c r="G11">
-        <v>303.3347377072242</v>
+        <v>200.8839322564399</v>
       </c>
       <c r="H11">
-        <v>290.1462708503884</v>
+        <v>192.1498482452903</v>
       </c>
       <c r="I11">
-        <v>857.2503456943293</v>
+        <v>567.7154607247214</v>
       </c>
       <c r="J11">
-        <v>276.9578039935525</v>
+        <v>183.4157642341407</v>
       </c>
       <c r="K11">
-        <v>455.0021065608362</v>
+        <v>301.3258983846598</v>
       </c>
       <c r="L11">
-        <v>415.4367059903287</v>
+        <v>275.1236463512112</v>
       </c>
       <c r="M11">
-        <v>1147.396616544717</v>
+        <v>759.8653089700117</v>
       </c>
       <c r="N11">
-        <v>435.2194062755826</v>
+        <v>288.2247723679355</v>
       </c>
       <c r="O11">
-        <v>435.2194062755826</v>
+        <v>288.2247723679355</v>
       </c>
       <c r="P11">
-        <v>415.4367059903287</v>
+        <v>275.1236463512112</v>
       </c>
       <c r="Q11">
-        <v>1285.875518541494</v>
+        <v>851.5731910870821</v>
       </c>
       <c r="R11">
-        <v>3870.815022481318</v>
+        <v>2563.453657272396</v>
       </c>
       <c r="S11">
-        <v>316.5232045640601</v>
+        <v>209.6180162675894</v>
       </c>
       <c r="T11">
-        <v>276.9578039935525</v>
+        <v>183.4157642341407</v>
       </c>
       <c r="U11">
-        <v>276.9578039935525</v>
+        <v>183.4157642341407</v>
       </c>
       <c r="V11">
-        <v>870.438812551165</v>
+        <v>576.4495447358709</v>
       </c>
       <c r="W11">
-        <v>290.1462708503884</v>
+        <v>192.1498482452903</v>
       </c>
       <c r="X11">
-        <v>303.3347377072242</v>
+        <v>200.8839322564399</v>
       </c>
       <c r="Y11">
-        <v>263.7693371367167</v>
+        <v>174.6816802229912</v>
       </c>
       <c r="Z11">
-        <v>857.2503456943292</v>
+        <v>567.7154607247214</v>
       </c>
       <c r="AA11">
-        <v>307.7308933261695</v>
+        <v>203.7952935934898</v>
       </c>
       <c r="AB11">
-        <v>386.8616944671845</v>
+        <v>256.1997976603871</v>
       </c>
       <c r="AC11">
-        <v>369.2770719914033</v>
+        <v>244.5543523121876</v>
       </c>
       <c r="AD11">
-        <v>1063.869659784757</v>
+        <v>704.5494435660645</v>
       </c>
       <c r="AE11">
-        <v>404.4463169429656</v>
+        <v>267.8452430085865</v>
       </c>
       <c r="AF11">
-        <v>369.2770719914033</v>
+        <v>244.5543523121876</v>
       </c>
       <c r="AG11">
-        <v>386.8616944671845</v>
+        <v>256.1997976603871</v>
       </c>
       <c r="AH11">
-        <v>1160.585083401553</v>
+        <v>768.5993929811611</v>
       </c>
       <c r="AI11">
-        <v>3952.143901431805</v>
+        <v>2617.313842007818</v>
       </c>
       <c r="AJ11">
-        <v>211.0154697093733</v>
+        <v>139.7453441783929</v>
       </c>
       <c r="AK11">
-        <v>351.6924495156223</v>
+        <v>232.9089069639883</v>
       </c>
       <c r="AL11">
-        <v>369.2770719914034</v>
+        <v>244.5543523121876</v>
       </c>
       <c r="AM11">
-        <v>931.9849912163991</v>
+        <v>617.2086034545689</v>
       </c>
       <c r="AN11">
-        <v>386.8616944671845</v>
+        <v>256.199797660387</v>
       </c>
       <c r="AO11">
-        <v>386.8616944671845</v>
+        <v>256.199797660387</v>
       </c>
       <c r="AP11">
-        <v>369.2770719914034</v>
+        <v>244.5543523121876</v>
       </c>
       <c r="AQ11">
-        <v>1143.000460925772</v>
+        <v>756.9539476329617</v>
       </c>
       <c r="AR11">
-        <v>404.4463169429656</v>
+        <v>267.8452430085865</v>
       </c>
       <c r="AS11">
-        <v>369.2770719914034</v>
+        <v>244.5543523121876</v>
       </c>
       <c r="AT11">
-        <v>386.8616944671845</v>
+        <v>256.199797660387</v>
       </c>
       <c r="AU11">
-        <v>1160.585083401553</v>
+        <v>768.5993929811611</v>
       </c>
       <c r="AV11">
-        <v>404.4463169429656</v>
+        <v>267.8452430085865</v>
       </c>
       <c r="AW11">
-        <v>351.6924495156223</v>
+        <v>232.9089069639883</v>
       </c>
       <c r="AX11">
-        <v>404.4463169429656</v>
+        <v>267.8452430085865</v>
       </c>
       <c r="AY11">
-        <v>1160.585083401553</v>
+        <v>768.5993929811611</v>
       </c>
       <c r="AZ11">
-        <v>4396.155618945278</v>
+        <v>2911.361337049852</v>
       </c>
       <c r="BA11">
-        <v>369.2770719914034</v>
+        <v>244.5543523121876</v>
       </c>
       <c r="BB11">
-        <v>351.6924495156223</v>
+        <v>232.9089069639883</v>
       </c>
       <c r="BC11">
-        <v>386.8616944671845</v>
+        <v>256.199797660387</v>
       </c>
       <c r="BD11">
-        <v>1107.83121597421</v>
+        <v>733.663056936563</v>
       </c>
       <c r="BE11">
-        <v>386.8616944671845</v>
+        <v>256.199797660387</v>
       </c>
       <c r="BF11">
-        <v>369.2770719914034</v>
+        <v>244.5543523121876</v>
       </c>
       <c r="BG11">
-        <v>386.8616944671845</v>
+        <v>256.199797660387</v>
       </c>
       <c r="BH11">
-        <v>1143.000460925772</v>
+        <v>756.9539476329617</v>
       </c>
       <c r="BI11">
-        <v>219.8077809472639</v>
+        <v>145.5680668524927</v>
       </c>
       <c r="BJ11">
-        <v>184.6385359957017</v>
+        <v>122.2771761560938</v>
       </c>
       <c r="BK11">
-        <v>193.4308472335922</v>
+        <v>128.0998988301935</v>
       </c>
       <c r="BL11">
-        <v>597.8771641765578</v>
+        <v>395.94514183878</v>
       </c>
       <c r="BM11">
-        <v>193.4308472335922</v>
+        <v>128.0998988301935</v>
       </c>
       <c r="BN11">
-        <v>184.6385359957017</v>
+        <v>122.2771761560938</v>
       </c>
       <c r="BO11">
-        <v>202.2231584714828</v>
+        <v>133.9226215042932</v>
       </c>
       <c r="BP11">
-        <v>580.2925417007767</v>
+        <v>384.2996964905806</v>
       </c>
       <c r="BQ11">
-        <v>3429.001382777317</v>
+        <v>2270.861842898885</v>
       </c>
       <c r="BR11">
-        <v>15648.11592563572</v>
+        <v>10362.99067922895</v>
       </c>
     </row>
     <row r="12" spans="1:70">
@@ -3147,211 +3150,211 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>120.786177333644</v>
+        <v>79.99084591632057</v>
       </c>
       <c r="C12">
-        <v>2415.723546672881</v>
+        <v>1599.816918326411</v>
       </c>
       <c r="D12">
-        <v>2837.430179529574</v>
+        <v>1879.092834125546</v>
       </c>
       <c r="E12">
-        <v>5373.939903536099</v>
+        <v>3558.900598368277</v>
       </c>
       <c r="F12">
-        <v>2415.723546672881</v>
+        <v>1599.816918326411</v>
       </c>
       <c r="G12">
-        <v>2818.656432992931</v>
+        <v>1866.659889399292</v>
       </c>
       <c r="H12">
-        <v>2848.528670764289</v>
+        <v>1886.442828320721</v>
       </c>
       <c r="I12">
-        <v>8082.9086504301</v>
+        <v>5352.919636046424</v>
       </c>
       <c r="J12">
-        <v>2467.270273008136</v>
+        <v>1633.953823184196</v>
       </c>
       <c r="K12">
-        <v>3506.132293452336</v>
+        <v>2321.9419161936</v>
       </c>
       <c r="L12">
-        <v>3210.36470885969</v>
+        <v>2126.069343615689</v>
       </c>
       <c r="M12">
-        <v>9183.767275320162</v>
+        <v>6081.965082993485</v>
       </c>
       <c r="N12">
-        <v>3314.881506996991</v>
+        <v>2195.285766223174</v>
       </c>
       <c r="O12">
-        <v>3314.881506996991</v>
+        <v>2195.285766223174</v>
       </c>
       <c r="P12">
-        <v>3348.843610856467</v>
+        <v>2217.777225732759</v>
       </c>
       <c r="Q12">
-        <v>9978.60662485045</v>
+        <v>6608.348758179106</v>
       </c>
       <c r="R12">
-        <v>32619.22245413682</v>
+        <v>21602.13407558729</v>
       </c>
       <c r="S12">
-        <v>3054.175065168557</v>
+        <v>2022.63249348911</v>
       </c>
       <c r="T12">
-        <v>2796.819791148006</v>
+        <v>1852.19853718411</v>
       </c>
       <c r="U12">
-        <v>2842.979425146931</v>
+        <v>1882.767831223133</v>
       </c>
       <c r="V12">
-        <v>8693.974281463492</v>
+        <v>5757.598861896353</v>
       </c>
       <c r="W12">
-        <v>2881.64397415618</v>
+        <v>1908.373492818662</v>
       </c>
       <c r="X12">
-        <v>3012.627791163279</v>
+        <v>1995.117742492238</v>
       </c>
       <c r="Y12">
-        <v>2791.126409280848</v>
+        <v>1848.428085616455</v>
       </c>
       <c r="Z12">
-        <v>8685.398174600306</v>
+        <v>5751.919320927354</v>
       </c>
       <c r="AA12">
-        <v>3890.867978234949</v>
+        <v>2576.733760420497</v>
       </c>
       <c r="AB12">
-        <v>3885.877260585572</v>
+        <v>2573.428649394419</v>
       </c>
       <c r="AC12">
-        <v>3598.019152700783</v>
+        <v>2382.794140861446</v>
       </c>
       <c r="AD12">
-        <v>11374.7643915213</v>
+        <v>7532.956550676361</v>
       </c>
       <c r="AE12">
-        <v>3897.354109476016</v>
+        <v>2581.02921157352</v>
       </c>
       <c r="AF12">
-        <v>3558.453752130275</v>
+        <v>2356.591888827997</v>
       </c>
       <c r="AG12">
-        <v>3919.136700227265</v>
+        <v>2595.454768362427</v>
       </c>
       <c r="AH12">
-        <v>11374.94456183356</v>
+        <v>7533.075868763945</v>
       </c>
       <c r="AI12">
-        <v>40129.08140941866</v>
+        <v>26575.55060226401</v>
       </c>
       <c r="AJ12">
-        <v>2345.547210050783</v>
+        <v>1553.342523212439</v>
       </c>
       <c r="AK12">
-        <v>3280.901386106291</v>
+        <v>2172.782374904829</v>
       </c>
       <c r="AL12">
-        <v>3537.265723409457</v>
+        <v>2342.560081728117</v>
       </c>
       <c r="AM12">
-        <v>9163.71431956653</v>
+        <v>6068.684979845386</v>
       </c>
       <c r="AN12">
-        <v>3947.495507375707</v>
+        <v>2614.235435348151</v>
       </c>
       <c r="AO12">
-        <v>3947.495507375707</v>
+        <v>2614.235435348151</v>
       </c>
       <c r="AP12">
-        <v>3807.629293974592</v>
+        <v>2521.608803956683</v>
       </c>
       <c r="AQ12">
-        <v>11702.62030872601</v>
+        <v>7750.079674652985</v>
       </c>
       <c r="AR12">
-        <v>4126.92712134733</v>
+        <v>2733.064318773066</v>
       </c>
       <c r="AS12">
-        <v>3814.223527403009</v>
+        <v>2525.975845962259</v>
       </c>
       <c r="AT12">
-        <v>4002.447452612523</v>
+        <v>2650.627452061274</v>
       </c>
       <c r="AU12">
-        <v>11943.59810136286</v>
+        <v>7909.667616796598</v>
       </c>
       <c r="AV12">
-        <v>4329.150279818813</v>
+        <v>2866.986940277359</v>
       </c>
       <c r="AW12">
-        <v>3764.478504190272</v>
+        <v>2493.032121980313</v>
       </c>
       <c r="AX12">
-        <v>4508.059399884905</v>
+        <v>2985.469801248281</v>
       </c>
       <c r="AY12">
-        <v>12601.68818389399</v>
+        <v>8345.488863505954</v>
       </c>
       <c r="AZ12">
-        <v>45411.62091354939</v>
+        <v>30073.92113480092</v>
       </c>
       <c r="BA12">
-        <v>4009.077720103392</v>
+        <v>2655.018357684366</v>
       </c>
       <c r="BB12">
-        <v>3715.832519882271</v>
+        <v>2460.81623833263</v>
       </c>
       <c r="BC12">
-        <v>3488.097245195926</v>
+        <v>2309.998175626441</v>
       </c>
       <c r="BD12">
-        <v>11213.00748518159</v>
+        <v>7425.832771643436</v>
       </c>
       <c r="BE12">
-        <v>3488.097245195926</v>
+        <v>2309.998175626441</v>
       </c>
       <c r="BF12">
-        <v>3329.547370414292</v>
+        <v>2204.998258552512</v>
       </c>
       <c r="BG12">
-        <v>3534.256879194851</v>
+        <v>2340.567469665465</v>
       </c>
       <c r="BH12">
-        <v>10351.90149480507</v>
+        <v>6855.563903844417</v>
       </c>
       <c r="BI12">
-        <v>2135.324489715318</v>
+        <v>1414.122178619416</v>
       </c>
       <c r="BJ12">
-        <v>1846.007002301288</v>
+        <v>1222.521193577012</v>
       </c>
       <c r="BK12">
-        <v>1933.912097648968</v>
+        <v>1280.736488509251</v>
       </c>
       <c r="BL12">
-        <v>5915.243589665573</v>
+        <v>3917.379860705678</v>
       </c>
       <c r="BM12">
-        <v>1716.302394511177</v>
+        <v>1136.624102325283</v>
       </c>
       <c r="BN12">
-        <v>1638.288649306123</v>
+        <v>1084.959370401406</v>
       </c>
       <c r="BO12">
-        <v>2005.331609425604</v>
+        <v>1328.034178427552</v>
       </c>
       <c r="BP12">
-        <v>5359.922653242904</v>
+        <v>3549.617651154241</v>
       </c>
       <c r="BQ12">
-        <v>32840.07522289514</v>
+        <v>21748.39418734778</v>
       </c>
       <c r="BR12">
-        <v>151000</v>
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -3584,211 +3587,211 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>0.06756386709444588</v>
+        <v>0.0447442828440039</v>
       </c>
       <c r="C2">
-        <v>1.351277341888918</v>
+        <v>0.8948856568800778</v>
       </c>
       <c r="D2">
-        <v>1.553968943172255</v>
+        <v>1.029118505412089</v>
       </c>
       <c r="E2">
-        <v>2.972810152155619</v>
+        <v>1.968748445136171</v>
       </c>
       <c r="F2">
-        <v>1.351277341888918</v>
+        <v>0.8948856568800778</v>
       </c>
       <c r="G2">
-        <v>1.553968943172255</v>
+        <v>1.029118505412089</v>
       </c>
       <c r="H2">
-        <v>1.486405076077809</v>
+        <v>0.9843742225680857</v>
       </c>
       <c r="I2">
-        <v>4.391651361138982</v>
+        <v>2.908378384860253</v>
       </c>
       <c r="J2">
-        <v>1.418841208983364</v>
+        <v>0.9396299397240818</v>
       </c>
       <c r="K2">
-        <v>1.553968943172255</v>
+        <v>1.029118505412089</v>
       </c>
       <c r="L2">
-        <v>1.418841208983364</v>
+        <v>0.9396299397240818</v>
       </c>
       <c r="M2">
-        <v>4.391651361138982</v>
+        <v>2.908378384860253</v>
       </c>
       <c r="N2">
-        <v>1.486405076077809</v>
+        <v>0.9843742225680857</v>
       </c>
       <c r="O2">
-        <v>1.486405076077809</v>
+        <v>0.9843742225680857</v>
       </c>
       <c r="P2">
-        <v>1.418841208983364</v>
+        <v>0.9396299397240818</v>
       </c>
       <c r="Q2">
-        <v>4.391651361138981</v>
+        <v>2.908378384860253</v>
       </c>
       <c r="R2">
-        <v>16.14776423557256</v>
+        <v>10.69388359971693</v>
       </c>
       <c r="S2">
-        <v>1.553968943172255</v>
+        <v>1.029118505412089</v>
       </c>
       <c r="T2">
-        <v>1.418841208983364</v>
+        <v>0.9396299397240818</v>
       </c>
       <c r="U2">
-        <v>1.418841208983364</v>
+        <v>0.9396299397240818</v>
       </c>
       <c r="V2">
-        <v>4.391651361138982</v>
+        <v>2.908378384860253</v>
       </c>
       <c r="W2">
-        <v>1.486405076077809</v>
+        <v>0.9843742225680857</v>
       </c>
       <c r="X2">
-        <v>1.553968943172255</v>
+        <v>1.029118505412089</v>
       </c>
       <c r="Y2">
-        <v>1.351277341888918</v>
+        <v>0.8948856568800778</v>
       </c>
       <c r="Z2">
-        <v>4.391651361138982</v>
+        <v>2.908378384860253</v>
       </c>
       <c r="AA2">
-        <v>2.797144097710059</v>
+        <v>1.852413309741761</v>
       </c>
       <c r="AB2">
-        <v>2.567426949588943</v>
+        <v>1.700282748072148</v>
       </c>
       <c r="AC2">
-        <v>1.418841208983364</v>
+        <v>0.9396299397240818</v>
       </c>
       <c r="AD2">
-        <v>6.783412256282366</v>
+        <v>4.492325997537991</v>
       </c>
       <c r="AE2">
-        <v>1.553968943172255</v>
+        <v>1.029118505412089</v>
       </c>
       <c r="AF2">
-        <v>1.418841208983364</v>
+        <v>0.9396299397240818</v>
       </c>
       <c r="AG2">
-        <v>1.486405076077809</v>
+        <v>0.9843742225680857</v>
       </c>
       <c r="AH2">
-        <v>4.459215228233428</v>
+        <v>2.953122667704257</v>
       </c>
       <c r="AI2">
-        <v>20.02593020679376</v>
+        <v>13.26220543496275</v>
       </c>
       <c r="AJ2">
-        <v>1.553968943172255</v>
+        <v>1.029118505412089</v>
       </c>
       <c r="AK2">
-        <v>1.351277341888918</v>
+        <v>0.8948856568800778</v>
       </c>
       <c r="AL2">
-        <v>1.418841208983364</v>
+        <v>0.9396299397240818</v>
       </c>
       <c r="AM2">
-        <v>4.324087494044536</v>
+        <v>2.863634102016249</v>
       </c>
       <c r="AN2">
-        <v>1.486405076077809</v>
+        <v>0.9843742225680857</v>
       </c>
       <c r="AO2">
-        <v>1.486405076077809</v>
+        <v>0.9843742225680857</v>
       </c>
       <c r="AP2">
-        <v>1.418841208983364</v>
+        <v>0.9396299397240818</v>
       </c>
       <c r="AQ2">
-        <v>4.391651361138981</v>
+        <v>2.908378384860253</v>
       </c>
       <c r="AR2">
-        <v>1.553968943172255</v>
+        <v>1.029118505412089</v>
       </c>
       <c r="AS2">
-        <v>1.418841208983364</v>
+        <v>0.9396299397240818</v>
       </c>
       <c r="AT2">
-        <v>1.486405076077809</v>
+        <v>0.9843742225680857</v>
       </c>
       <c r="AU2">
-        <v>4.459215228233428</v>
+        <v>2.953122667704257</v>
       </c>
       <c r="AV2">
-        <v>1.553968943172255</v>
+        <v>1.029118505412089</v>
       </c>
       <c r="AW2">
-        <v>1.351277341888918</v>
+        <v>0.8948856568800778</v>
       </c>
       <c r="AX2">
-        <v>1.608020036847812</v>
+        <v>1.064913931687293</v>
       </c>
       <c r="AY2">
-        <v>4.513266321908985</v>
+        <v>2.98891809397946</v>
       </c>
       <c r="AZ2">
-        <v>17.68822040532593</v>
+        <v>11.71405324856022</v>
       </c>
       <c r="BA2">
-        <v>2.675529136940057</v>
+        <v>1.771873600622554</v>
       </c>
       <c r="BB2">
-        <v>2.432299215400052</v>
+        <v>1.61079418238414</v>
       </c>
       <c r="BC2">
-        <v>1.486405076077809</v>
+        <v>0.9843742225680857</v>
       </c>
       <c r="BD2">
-        <v>6.594233428417918</v>
+        <v>4.36704200557478</v>
       </c>
       <c r="BE2">
-        <v>1.486405076077809</v>
+        <v>0.9843742225680857</v>
       </c>
       <c r="BF2">
-        <v>1.418841208983364</v>
+        <v>0.9396299397240818</v>
       </c>
       <c r="BG2">
-        <v>1.486405076077809</v>
+        <v>0.9843742225680857</v>
       </c>
       <c r="BH2">
-        <v>4.391651361138982</v>
+        <v>2.908378384860253</v>
       </c>
       <c r="BI2">
-        <v>1.553968943172255</v>
+        <v>1.029118505412089</v>
       </c>
       <c r="BJ2">
-        <v>1.418841208983364</v>
+        <v>0.9396299397240818</v>
       </c>
       <c r="BK2">
-        <v>1.486405076077809</v>
+        <v>0.9843742225680857</v>
       </c>
       <c r="BL2">
-        <v>4.459215228233428</v>
+        <v>2.953122667704257</v>
       </c>
       <c r="BM2">
-        <v>1.486405076077809</v>
+        <v>0.9843742225680857</v>
       </c>
       <c r="BN2">
-        <v>1.418841208983364</v>
+        <v>0.9396299397240818</v>
       </c>
       <c r="BO2">
-        <v>1.553968943172255</v>
+        <v>1.029118505412089</v>
       </c>
       <c r="BP2">
-        <v>4.459215228233428</v>
+        <v>2.953122667704257</v>
       </c>
       <c r="BQ2">
-        <v>19.90431524602375</v>
+        <v>13.18166572584355</v>
       </c>
       <c r="BR2">
-        <v>73.76623009371602</v>
+        <v>48.85180800908345</v>
       </c>
     </row>
     <row r="3" spans="1:70">
@@ -3796,211 +3799,211 @@
         <v>14</v>
       </c>
       <c r="B3">
-        <v>0.04729470696611211</v>
+        <v>0.03132099799080272</v>
       </c>
       <c r="C3">
-        <v>0.9458941393222422</v>
+        <v>0.6264199598160545</v>
       </c>
       <c r="D3">
-        <v>1.087778260220579</v>
+        <v>0.7203829537884626</v>
       </c>
       <c r="E3">
-        <v>2.080967106508933</v>
+        <v>1.37812391159532</v>
       </c>
       <c r="F3">
-        <v>0.9458941393222422</v>
+        <v>0.6264199598160545</v>
       </c>
       <c r="G3">
-        <v>1.087778260220579</v>
+        <v>0.7203829537884626</v>
       </c>
       <c r="H3">
-        <v>1.040483553254467</v>
+        <v>0.6890619557976599</v>
       </c>
       <c r="I3">
-        <v>3.074155952797287</v>
+        <v>2.035864869402177</v>
       </c>
       <c r="J3">
-        <v>0.851304725390018</v>
+        <v>0.563777963834449</v>
       </c>
       <c r="K3">
-        <v>0.9323813659033532</v>
+        <v>0.6174711032472537</v>
       </c>
       <c r="L3">
-        <v>0.851304725390018</v>
+        <v>0.563777963834449</v>
       </c>
       <c r="M3">
-        <v>2.634990816683389</v>
+        <v>1.745027030916152</v>
       </c>
       <c r="N3">
-        <v>0.8918430456466856</v>
+        <v>0.5906245335408514</v>
       </c>
       <c r="O3">
-        <v>0.8918430456466856</v>
+        <v>0.5906245335408514</v>
       </c>
       <c r="P3">
-        <v>0.851304725390018</v>
+        <v>0.563777963834449</v>
       </c>
       <c r="Q3">
-        <v>2.634990816683389</v>
+        <v>1.745027030916152</v>
       </c>
       <c r="R3">
-        <v>10.425104692673</v>
+        <v>6.9040428428298</v>
       </c>
       <c r="S3">
-        <v>1.553968943172255</v>
+        <v>1.029118505412089</v>
       </c>
       <c r="T3">
-        <v>1.418841208983364</v>
+        <v>0.9396299397240817</v>
       </c>
       <c r="U3">
-        <v>1.418841208983364</v>
+        <v>0.9396299397240817</v>
       </c>
       <c r="V3">
-        <v>4.391651361138982</v>
+        <v>2.908378384860253</v>
       </c>
       <c r="W3">
-        <v>1.486405076077809</v>
+        <v>0.9843742225680857</v>
       </c>
       <c r="X3">
-        <v>1.553968943172255</v>
+        <v>1.029118505412089</v>
       </c>
       <c r="Y3">
-        <v>1.351277341888918</v>
+        <v>0.8948856568800779</v>
       </c>
       <c r="Z3">
-        <v>4.391651361138981</v>
+        <v>2.908378384860253</v>
       </c>
       <c r="AA3">
-        <v>2.020159626123932</v>
+        <v>1.337854057035716</v>
       </c>
       <c r="AB3">
-        <v>1.932326598901152</v>
+        <v>1.279686489338511</v>
       </c>
       <c r="AC3">
-        <v>2.695798297068391</v>
+        <v>1.785296885475755</v>
       </c>
       <c r="AD3">
-        <v>6.648284522093475</v>
+        <v>4.402837431849983</v>
       </c>
       <c r="AE3">
-        <v>2.952540992027285</v>
+        <v>1.95532516028297</v>
       </c>
       <c r="AF3">
-        <v>2.695798297068391</v>
+        <v>1.785296885475755</v>
       </c>
       <c r="AG3">
-        <v>2.824169644547838</v>
+        <v>1.870311022879363</v>
       </c>
       <c r="AH3">
-        <v>8.472508933643514</v>
+        <v>5.610933068638088</v>
       </c>
       <c r="AI3">
-        <v>23.90409617801495</v>
+        <v>15.83052727020858</v>
       </c>
       <c r="AJ3">
-        <v>2.952540992027285</v>
+        <v>1.95532516028297</v>
       </c>
       <c r="AK3">
-        <v>2.567426949588943</v>
+        <v>1.700282748072148</v>
       </c>
       <c r="AL3">
-        <v>2.695798297068391</v>
+        <v>1.785296885475755</v>
       </c>
       <c r="AM3">
-        <v>8.215766238684619</v>
+        <v>5.440904793830874</v>
       </c>
       <c r="AN3">
-        <v>2.824169644547838</v>
+        <v>1.870311022879363</v>
       </c>
       <c r="AO3">
-        <v>2.824169644547838</v>
+        <v>1.870311022879363</v>
       </c>
       <c r="AP3">
-        <v>2.695798297068391</v>
+        <v>1.785296885475755</v>
       </c>
       <c r="AQ3">
-        <v>8.344137586164067</v>
+        <v>5.525918931234481</v>
       </c>
       <c r="AR3">
-        <v>2.952540992027285</v>
+        <v>1.95532516028297</v>
       </c>
       <c r="AS3">
-        <v>2.695798297068391</v>
+        <v>1.785296885475755</v>
       </c>
       <c r="AT3">
-        <v>2.824169644547838</v>
+        <v>1.870311022879363</v>
       </c>
       <c r="AU3">
-        <v>8.472508933643514</v>
+        <v>5.610933068638088</v>
       </c>
       <c r="AV3">
-        <v>2.952540992027285</v>
+        <v>1.95532516028297</v>
       </c>
       <c r="AW3">
-        <v>2.567426949588943</v>
+        <v>1.700282748072148</v>
       </c>
       <c r="AX3">
-        <v>2.952540992027285</v>
+        <v>1.95532516028297</v>
       </c>
       <c r="AY3">
-        <v>8.472508933643512</v>
+        <v>5.610933068638088</v>
       </c>
       <c r="AZ3">
-        <v>33.50492169213571</v>
+        <v>22.18868986234153</v>
       </c>
       <c r="BA3">
-        <v>2.229607614116714</v>
+        <v>1.476561333852128</v>
       </c>
       <c r="BB3">
-        <v>2.026916012833377</v>
+        <v>1.342328485320117</v>
       </c>
       <c r="BC3">
-        <v>2.229607614116714</v>
+        <v>1.476561333852128</v>
       </c>
       <c r="BD3">
-        <v>6.486131241066806</v>
+        <v>4.295451153024374</v>
       </c>
       <c r="BE3">
-        <v>2.229607614116714</v>
+        <v>1.476561333852128</v>
       </c>
       <c r="BF3">
-        <v>2.128261813475045</v>
+        <v>1.409444909586123</v>
       </c>
       <c r="BG3">
-        <v>2.229607614116714</v>
+        <v>1.476561333852128</v>
       </c>
       <c r="BH3">
-        <v>6.587477041708474</v>
+        <v>4.362567577290379</v>
       </c>
       <c r="BI3">
-        <v>1.479648689368365</v>
+        <v>0.9798997942836853</v>
       </c>
       <c r="BJ3">
-        <v>1.276957088085027</v>
+        <v>0.8456669457516736</v>
       </c>
       <c r="BK3">
-        <v>1.337764568470029</v>
+        <v>0.8859368003112772</v>
       </c>
       <c r="BL3">
-        <v>4.09437034592342</v>
+        <v>2.711503540346636</v>
       </c>
       <c r="BM3">
-        <v>0.8918430456466856</v>
+        <v>0.5906245335408514</v>
       </c>
       <c r="BN3">
-        <v>0.851304725390018</v>
+        <v>0.563777963834449</v>
       </c>
       <c r="BO3">
-        <v>0.9323813659033532</v>
+        <v>0.6174711032472537</v>
       </c>
       <c r="BP3">
-        <v>2.675529136940057</v>
+        <v>1.771873600622554</v>
       </c>
       <c r="BQ3">
-        <v>19.84350776563876</v>
+        <v>13.14139587128394</v>
       </c>
       <c r="BR3">
-        <v>87.67763032846241</v>
+        <v>58.06465584666385</v>
       </c>
     </row>
     <row r="4" spans="1:70">
@@ -4008,211 +4011,211 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1216149607700026</v>
+        <v>0.08053970911920701</v>
       </c>
       <c r="C4">
-        <v>2.432299215400051</v>
+        <v>1.61079418238414</v>
       </c>
       <c r="D4">
-        <v>3.161988980020067</v>
+        <v>2.094032437099382</v>
       </c>
       <c r="E4">
-        <v>5.715903156190121</v>
+        <v>3.785366328602729</v>
       </c>
       <c r="F4">
-        <v>2.432299215400051</v>
+        <v>1.61079418238414</v>
       </c>
       <c r="G4">
-        <v>2.891733511642283</v>
+        <v>1.915055305723367</v>
       </c>
       <c r="H4">
-        <v>3.851140424383415</v>
+        <v>2.550424122108222</v>
       </c>
       <c r="I4">
-        <v>9.175173151425749</v>
+        <v>6.076273610215729</v>
       </c>
       <c r="J4">
-        <v>2.553914176170054</v>
+        <v>1.691333891503347</v>
       </c>
       <c r="K4">
-        <v>3.513321088911186</v>
+        <v>2.326702707888202</v>
       </c>
       <c r="L4">
-        <v>3.405218901560072</v>
+        <v>2.255111855337796</v>
       </c>
       <c r="M4">
-        <v>9.472454166641313</v>
+        <v>6.273148454729345</v>
       </c>
       <c r="N4">
-        <v>3.27009116737118</v>
+        <v>2.165623289649789</v>
       </c>
       <c r="O4">
-        <v>3.27009116737118</v>
+        <v>2.165623289649789</v>
       </c>
       <c r="P4">
-        <v>4.256523626950091</v>
+        <v>2.818889819172246</v>
       </c>
       <c r="Q4">
-        <v>10.79670596169245</v>
+        <v>7.150136398471822</v>
       </c>
       <c r="R4">
-        <v>35.16023643594963</v>
+        <v>23.28492479201963</v>
       </c>
       <c r="S4">
-        <v>3.040374019250064</v>
+        <v>2.013492727980175</v>
       </c>
       <c r="T4">
-        <v>2.837682417966727</v>
+        <v>1.879259879448163</v>
       </c>
       <c r="U4">
-        <v>3.1214506597634</v>
+        <v>2.06718586739298</v>
       </c>
       <c r="V4">
-        <v>8.999507096980192</v>
+        <v>5.959938474821318</v>
       </c>
       <c r="W4">
-        <v>2.972810152155618</v>
+        <v>1.968748445136171</v>
       </c>
       <c r="X4">
-        <v>3.10793788634451</v>
+        <v>2.058237010824179</v>
       </c>
       <c r="Y4">
-        <v>3.756551010451191</v>
+        <v>2.487782126126616</v>
       </c>
       <c r="Z4">
-        <v>9.837299048951319</v>
+        <v>6.514767582086966</v>
       </c>
       <c r="AA4">
-        <v>5.675364835933453</v>
+        <v>3.758519758896327</v>
       </c>
       <c r="AB4">
-        <v>5.134853899177886</v>
+        <v>3.400565496144296</v>
       </c>
       <c r="AC4">
-        <v>3.080912339506732</v>
+        <v>2.040339297686577</v>
       </c>
       <c r="AD4">
-        <v>13.89113107461807</v>
+        <v>9.199424552727201</v>
       </c>
       <c r="AE4">
-        <v>3.10793788634451</v>
+        <v>2.058237010824179</v>
       </c>
       <c r="AF4">
-        <v>2.837682417966727</v>
+        <v>1.879259879448163</v>
       </c>
       <c r="AG4">
-        <v>4.148421439598978</v>
+        <v>2.747298966621839</v>
       </c>
       <c r="AH4">
-        <v>10.09404174391021</v>
+        <v>6.684795856894182</v>
       </c>
       <c r="AI4">
-        <v>42.8219789644598</v>
+        <v>28.35892646652967</v>
       </c>
       <c r="AJ4">
-        <v>0.9053558190655747</v>
+        <v>0.5995733901096522</v>
       </c>
       <c r="AK4">
-        <v>2.972810152155618</v>
+        <v>1.968748445136171</v>
       </c>
       <c r="AL4">
-        <v>3.688987143356745</v>
+        <v>2.443037843282613</v>
       </c>
       <c r="AM4">
-        <v>7.567153114577938</v>
+        <v>5.011359678528436</v>
       </c>
       <c r="AN4">
-        <v>3.27009116737118</v>
+        <v>2.165623289649789</v>
       </c>
       <c r="AO4">
-        <v>3.27009116737118</v>
+        <v>2.165623289649789</v>
       </c>
       <c r="AP4">
-        <v>3.364680581303405</v>
+        <v>2.228265285631394</v>
       </c>
       <c r="AQ4">
-        <v>9.904862916045765</v>
+        <v>6.559511864930971</v>
       </c>
       <c r="AR4">
-        <v>3.418731674978961</v>
+        <v>2.264060711906597</v>
       </c>
       <c r="AS4">
-        <v>3.121450659763399</v>
+        <v>2.06718586739298</v>
       </c>
       <c r="AT4">
-        <v>3.310629487627848</v>
+        <v>2.192469859356191</v>
       </c>
       <c r="AU4">
-        <v>9.850811822370208</v>
+        <v>6.523716438655768</v>
       </c>
       <c r="AV4">
-        <v>4.351113040882314</v>
+        <v>2.88153181515385</v>
       </c>
       <c r="AW4">
-        <v>3.783576557288969</v>
+        <v>2.505679839264218</v>
       </c>
       <c r="AX4">
-        <v>5.391596594136781</v>
+        <v>3.570593770951511</v>
       </c>
       <c r="AY4">
-        <v>13.52628619230806</v>
+        <v>8.95780542536958</v>
       </c>
       <c r="AZ4">
-        <v>40.84911404530197</v>
+        <v>27.05239340748475</v>
       </c>
       <c r="BA4">
-        <v>5.283494406785668</v>
+        <v>3.499002918401104</v>
       </c>
       <c r="BB4">
-        <v>4.864598430800103</v>
+        <v>3.22158836476828</v>
       </c>
       <c r="BC4">
-        <v>2.972810152155618</v>
+        <v>1.968748445136171</v>
       </c>
       <c r="BD4">
-        <v>13.12090298974139</v>
+        <v>8.689339728305555</v>
       </c>
       <c r="BE4">
-        <v>2.972810152155618</v>
+        <v>1.968748445136171</v>
       </c>
       <c r="BF4">
-        <v>2.837682417966727</v>
+        <v>1.879259879448163</v>
       </c>
       <c r="BG4">
-        <v>3.256578393952291</v>
+        <v>2.156674433080987</v>
       </c>
       <c r="BH4">
-        <v>9.067070964074636</v>
+        <v>6.004682757665321</v>
       </c>
       <c r="BI4">
-        <v>0.7296897646200154</v>
+        <v>0.4832382547152421</v>
       </c>
       <c r="BJ4">
-        <v>0.5675364835933454</v>
+        <v>0.3758519758896327</v>
       </c>
       <c r="BK4">
-        <v>0.5945620304311238</v>
+        <v>0.3937496890272342</v>
       </c>
       <c r="BL4">
-        <v>1.891788278644484</v>
+        <v>1.252839919632109</v>
       </c>
       <c r="BM4">
-        <v>0.5945620304311238</v>
+        <v>0.3937496890272342</v>
       </c>
       <c r="BN4">
-        <v>0.5675364835933454</v>
+        <v>0.3758519758896327</v>
       </c>
       <c r="BO4">
-        <v>1.918813825482263</v>
+        <v>1.270737632769711</v>
       </c>
       <c r="BP4">
-        <v>3.080912339506732</v>
+        <v>2.040339297686578</v>
       </c>
       <c r="BQ4">
-        <v>27.16067457196725</v>
+        <v>17.98720170328956</v>
       </c>
       <c r="BR4">
-        <v>145.9920040176787</v>
+        <v>96.6834463693236</v>
       </c>
     </row>
     <row r="5" spans="1:70">
@@ -4220,196 +4223,196 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.04053832025666752</v>
+        <v>0.02684656970640234</v>
       </c>
       <c r="C5">
-        <v>0.8107664051333505</v>
+        <v>0.5369313941280468</v>
       </c>
       <c r="D5">
-        <v>0.9323813659033532</v>
+        <v>0.6174711032472537</v>
       </c>
       <c r="E5">
-        <v>1.783686091293371</v>
+        <v>1.181249067081703</v>
       </c>
       <c r="F5">
-        <v>0.8107664051333505</v>
+        <v>0.5369313941280468</v>
       </c>
       <c r="G5">
-        <v>0.9729196861600207</v>
+        <v>0.6443176729536562</v>
       </c>
       <c r="H5">
-        <v>0.8918430456466856</v>
+        <v>0.5906245335408514</v>
       </c>
       <c r="I5">
-        <v>2.675529136940057</v>
+        <v>1.771873600622555</v>
       </c>
       <c r="J5">
-        <v>0.851304725390018</v>
+        <v>0.563777963834449</v>
       </c>
       <c r="K5">
-        <v>2.526888629332276</v>
+        <v>1.673436178365746</v>
       </c>
       <c r="L5">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="M5">
-        <v>5.648339289095675</v>
+        <v>3.740622045758726</v>
       </c>
       <c r="N5">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="O5">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="P5">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="Q5">
-        <v>7.026642177822372</v>
+        <v>4.653405415776406</v>
       </c>
       <c r="R5">
-        <v>17.13419669515147</v>
+        <v>11.34715012923939</v>
       </c>
       <c r="S5">
-        <v>1.486405076077809</v>
+        <v>0.9843742225680857</v>
       </c>
       <c r="T5">
-        <v>1.418841208983364</v>
+        <v>0.9396299397240818</v>
       </c>
       <c r="U5">
-        <v>1.418841208983364</v>
+        <v>0.9396299397240818</v>
       </c>
       <c r="V5">
-        <v>4.324087494044536</v>
+        <v>2.863634102016249</v>
       </c>
       <c r="W5">
-        <v>1.486405076077809</v>
+        <v>0.9843742225680857</v>
       </c>
       <c r="X5">
-        <v>1.553968943172255</v>
+        <v>1.029118505412089</v>
       </c>
       <c r="Y5">
-        <v>1.351277341888918</v>
+        <v>0.8948856568800778</v>
       </c>
       <c r="Z5">
-        <v>4.391651361138982</v>
+        <v>2.908378384860253</v>
       </c>
       <c r="AA5">
-        <v>1.553968943172255</v>
+        <v>1.029118505412089</v>
       </c>
       <c r="AB5">
-        <v>1.486405076077809</v>
+        <v>0.9843742225680857</v>
       </c>
       <c r="AC5">
-        <v>1.418841208983364</v>
+        <v>0.9396299397240818</v>
       </c>
       <c r="AD5">
-        <v>4.459215228233428</v>
+        <v>2.953122667704257</v>
       </c>
       <c r="AE5">
-        <v>1.553968943172255</v>
+        <v>1.029118505412089</v>
       </c>
       <c r="AF5">
-        <v>1.418841208983364</v>
+        <v>0.9396299397240818</v>
       </c>
       <c r="AG5">
-        <v>1.486405076077809</v>
+        <v>0.9843742225680857</v>
       </c>
       <c r="AH5">
-        <v>4.459215228233428</v>
+        <v>2.953122667704257</v>
       </c>
       <c r="AI5">
-        <v>17.63416931165037</v>
+        <v>11.67825782228502</v>
       </c>
       <c r="AJ5">
-        <v>0.0540510936755567</v>
+        <v>0.03579542627520312</v>
       </c>
       <c r="AK5">
-        <v>0.5405109367555671</v>
+        <v>0.3579542627520312</v>
       </c>
       <c r="AL5">
-        <v>0.5675364835933454</v>
+        <v>0.3758519758896327</v>
       </c>
       <c r="AM5">
-        <v>1.162098514024469</v>
+        <v>0.7696016649168669</v>
       </c>
       <c r="AN5">
-        <v>0.5945620304311238</v>
+        <v>0.3937496890272342</v>
       </c>
       <c r="AO5">
-        <v>0.5945620304311238</v>
+        <v>0.3937496890272342</v>
       </c>
       <c r="AP5">
-        <v>0.5675364835933454</v>
+        <v>0.3758519758896327</v>
       </c>
       <c r="AQ5">
-        <v>1.756660544455593</v>
+        <v>1.163351353944101</v>
       </c>
       <c r="AR5">
-        <v>0.621587577268902</v>
+        <v>0.4116474021648358</v>
       </c>
       <c r="AS5">
-        <v>0.5675364835933454</v>
+        <v>0.3758519758896327</v>
       </c>
       <c r="AT5">
-        <v>0.5945620304311238</v>
+        <v>0.3937496890272342</v>
       </c>
       <c r="AU5">
-        <v>1.783686091293371</v>
+        <v>1.181249067081703</v>
       </c>
       <c r="AV5">
-        <v>0.621587577268902</v>
+        <v>0.4116474021648358</v>
       </c>
       <c r="AW5">
-        <v>0.5405109367555671</v>
+        <v>0.3579542627520312</v>
       </c>
       <c r="AX5">
-        <v>0.621587577268902</v>
+        <v>0.4116474021648358</v>
       </c>
       <c r="AY5">
-        <v>1.783686091293371</v>
+        <v>1.181249067081703</v>
       </c>
       <c r="AZ5">
-        <v>6.486131241066804</v>
+        <v>4.295451153024374</v>
       </c>
       <c r="BA5">
-        <v>0.5675364835933454</v>
+        <v>0.3758519758896327</v>
       </c>
       <c r="BB5">
-        <v>0.5405109367555671</v>
+        <v>0.3579542627520312</v>
       </c>
       <c r="BC5">
-        <v>0.5945620304311238</v>
+        <v>0.3937496890272342</v>
       </c>
       <c r="BD5">
-        <v>1.702609450780036</v>
+        <v>1.127555927668898</v>
       </c>
       <c r="BE5">
-        <v>0.5945620304311238</v>
+        <v>0.3937496890272342</v>
       </c>
       <c r="BF5">
-        <v>0.5675364835933454</v>
+        <v>0.3758519758896327</v>
       </c>
       <c r="BG5">
-        <v>0.5945620304311238</v>
+        <v>0.3937496890272342</v>
       </c>
       <c r="BH5">
-        <v>1.756660544455593</v>
+        <v>1.163351353944101</v>
       </c>
       <c r="BI5">
-        <v>0.02702554683777835</v>
+        <v>0.01789771313760156</v>
       </c>
       <c r="BL5">
-        <v>0.02702554683777835</v>
+        <v>0.01789771313760156</v>
       </c>
       <c r="BP5">
         <v>0</v>
       </c>
       <c r="BQ5">
-        <v>3.486295542073408</v>
+        <v>2.308804994750601</v>
       </c>
       <c r="BR5">
-        <v>44.74079278994206</v>
+        <v>29.62966409929938</v>
       </c>
     </row>
     <row r="6" spans="1:70">
@@ -4417,211 +4420,211 @@
         <v>13</v>
       </c>
       <c r="B6">
-        <v>0.04729470696611211</v>
+        <v>0.03132099799080272</v>
       </c>
       <c r="C6">
-        <v>0.9458941393222422</v>
+        <v>0.6264199598160545</v>
       </c>
       <c r="D6">
-        <v>1.087778260220579</v>
+        <v>0.7203829537884626</v>
       </c>
       <c r="E6">
-        <v>2.080967106508933</v>
+        <v>1.37812391159532</v>
       </c>
       <c r="F6">
-        <v>0.9458941393222422</v>
+        <v>0.6264199598160545</v>
       </c>
       <c r="G6">
-        <v>1.087778260220579</v>
+        <v>0.7203829537884626</v>
       </c>
       <c r="H6">
-        <v>1.040483553254467</v>
+        <v>0.6890619557976599</v>
       </c>
       <c r="I6">
-        <v>3.074155952797287</v>
+        <v>2.035864869402177</v>
       </c>
       <c r="J6">
-        <v>0.851304725390018</v>
+        <v>0.563777963834449</v>
       </c>
       <c r="K6">
-        <v>0.9323813659033532</v>
+        <v>0.6174711032472537</v>
       </c>
       <c r="L6">
-        <v>0.851304725390018</v>
+        <v>0.563777963834449</v>
       </c>
       <c r="M6">
-        <v>2.634990816683389</v>
+        <v>1.745027030916152</v>
       </c>
       <c r="N6">
-        <v>0.8918430456466856</v>
+        <v>0.5906245335408514</v>
       </c>
       <c r="O6">
-        <v>0.8918430456466856</v>
+        <v>0.5906245335408514</v>
       </c>
       <c r="P6">
-        <v>0.851304725390018</v>
+        <v>0.563777963834449</v>
       </c>
       <c r="Q6">
-        <v>2.634990816683389</v>
+        <v>1.745027030916152</v>
       </c>
       <c r="R6">
-        <v>10.425104692673</v>
+        <v>6.9040428428298</v>
       </c>
       <c r="S6">
-        <v>1.709365837489481</v>
+        <v>1.132030355953299</v>
       </c>
       <c r="T6">
-        <v>1.5607253298817</v>
+        <v>1.03359293369649</v>
       </c>
       <c r="U6">
-        <v>1.5607253298817</v>
+        <v>1.03359293369649</v>
       </c>
       <c r="V6">
-        <v>4.83081649725288</v>
+        <v>3.199216223346279</v>
       </c>
       <c r="W6">
-        <v>1.63504558368559</v>
+        <v>1.082811644824894</v>
       </c>
       <c r="X6">
-        <v>1.709365837489481</v>
+        <v>1.132030355953299</v>
       </c>
       <c r="Y6">
-        <v>1.486405076077809</v>
+        <v>0.9843742225680857</v>
       </c>
       <c r="Z6">
-        <v>4.83081649725288</v>
+        <v>3.199216223346279</v>
       </c>
       <c r="AA6">
-        <v>2.175556520441158</v>
+        <v>1.440765907576925</v>
       </c>
       <c r="AB6">
-        <v>2.080967106508933</v>
+        <v>1.37812391159532</v>
       </c>
       <c r="AC6">
-        <v>2.837682417966727</v>
+        <v>1.879259879448164</v>
       </c>
       <c r="AD6">
-        <v>7.094206044916818</v>
+        <v>4.698149698620409</v>
       </c>
       <c r="AE6">
-        <v>3.10793788634451</v>
+        <v>2.058237010824179</v>
       </c>
       <c r="AF6">
-        <v>2.837682417966727</v>
+        <v>1.879259879448164</v>
       </c>
       <c r="AG6">
-        <v>2.972810152155618</v>
+        <v>1.968748445136171</v>
       </c>
       <c r="AH6">
-        <v>8.918430456466856</v>
+        <v>5.906245335408514</v>
       </c>
       <c r="AI6">
-        <v>25.67426949588943</v>
+        <v>17.00282748072148</v>
       </c>
       <c r="AJ6">
-        <v>3.10793788634451</v>
+        <v>2.058237010824179</v>
       </c>
       <c r="AK6">
-        <v>2.702554683777835</v>
+        <v>1.789771313760156</v>
       </c>
       <c r="AL6">
-        <v>2.837682417966727</v>
+        <v>1.879259879448164</v>
       </c>
       <c r="AM6">
-        <v>8.648174988089073</v>
+        <v>5.727268204032498</v>
       </c>
       <c r="AN6">
-        <v>2.972810152155618</v>
+        <v>1.968748445136171</v>
       </c>
       <c r="AO6">
-        <v>2.972810152155618</v>
+        <v>1.968748445136171</v>
       </c>
       <c r="AP6">
-        <v>2.837682417966727</v>
+        <v>1.879259879448164</v>
       </c>
       <c r="AQ6">
-        <v>8.783302722277963</v>
+        <v>5.816756769720507</v>
       </c>
       <c r="AR6">
-        <v>3.10793788634451</v>
+        <v>2.058237010824179</v>
       </c>
       <c r="AS6">
-        <v>2.837682417966727</v>
+        <v>1.879259879448164</v>
       </c>
       <c r="AT6">
-        <v>2.972810152155618</v>
+        <v>1.968748445136171</v>
       </c>
       <c r="AU6">
-        <v>8.918430456466856</v>
+        <v>5.906245335408514</v>
       </c>
       <c r="AV6">
-        <v>3.10793788634451</v>
+        <v>2.058237010824179</v>
       </c>
       <c r="AW6">
-        <v>2.702554683777835</v>
+        <v>1.789771313760156</v>
       </c>
       <c r="AX6">
-        <v>3.10793788634451</v>
+        <v>2.058237010824179</v>
       </c>
       <c r="AY6">
-        <v>8.918430456466856</v>
+        <v>5.906245335408514</v>
       </c>
       <c r="AZ6">
-        <v>35.26833862330074</v>
+        <v>23.35651564457003</v>
       </c>
       <c r="BA6">
-        <v>2.229607614116714</v>
+        <v>1.476561333852128</v>
       </c>
       <c r="BB6">
-        <v>2.026916012833377</v>
+        <v>1.342328485320117</v>
       </c>
       <c r="BC6">
-        <v>2.229607614116714</v>
+        <v>1.476561333852128</v>
       </c>
       <c r="BD6">
-        <v>6.486131241066806</v>
+        <v>4.295451153024374</v>
       </c>
       <c r="BE6">
-        <v>2.229607614116714</v>
+        <v>1.476561333852128</v>
       </c>
       <c r="BF6">
-        <v>2.128261813475045</v>
+        <v>1.409444909586123</v>
       </c>
       <c r="BG6">
-        <v>2.229607614116714</v>
+        <v>1.476561333852128</v>
       </c>
       <c r="BH6">
-        <v>6.587477041708474</v>
+        <v>4.362567577290379</v>
       </c>
       <c r="BI6">
-        <v>1.479648689368365</v>
+        <v>0.9798997942836853</v>
       </c>
       <c r="BJ6">
-        <v>1.276957088085027</v>
+        <v>0.8456669457516736</v>
       </c>
       <c r="BK6">
-        <v>1.337764568470029</v>
+        <v>0.8859368003112772</v>
       </c>
       <c r="BL6">
-        <v>4.09437034592342</v>
+        <v>2.711503540346636</v>
       </c>
       <c r="BM6">
-        <v>0.8918430456466856</v>
+        <v>0.5906245335408514</v>
       </c>
       <c r="BN6">
-        <v>0.851304725390018</v>
+        <v>0.563777963834449</v>
       </c>
       <c r="BO6">
-        <v>0.9323813659033532</v>
+        <v>0.6174711032472537</v>
       </c>
       <c r="BP6">
-        <v>2.675529136940057</v>
+        <v>1.771873600622554</v>
       </c>
       <c r="BQ6">
-        <v>19.84350776563876</v>
+        <v>13.14139587128394</v>
       </c>
       <c r="BR6">
-        <v>91.21122057750193</v>
+        <v>60.40478183940525</v>
       </c>
     </row>
     <row r="7" spans="1:70">
@@ -4629,211 +4632,211 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.1081021873511134</v>
+        <v>0.07159085255040623</v>
       </c>
       <c r="C7">
-        <v>2.162043747022268</v>
+        <v>1.431817051008125</v>
       </c>
       <c r="D7">
-        <v>2.486350309075609</v>
+        <v>1.646589608659343</v>
       </c>
       <c r="E7">
-        <v>4.75649624344899</v>
+        <v>3.149997512217874</v>
       </c>
       <c r="F7">
-        <v>2.162043747022268</v>
+        <v>1.431817051008125</v>
       </c>
       <c r="G7">
-        <v>2.526888629332276</v>
+        <v>1.673436178365746</v>
       </c>
       <c r="H7">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="I7">
-        <v>7.06718049807904</v>
+        <v>4.680251985482808</v>
       </c>
       <c r="J7">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="K7">
-        <v>3.148476206601178</v>
+        <v>2.085083580530581</v>
       </c>
       <c r="L7">
-        <v>2.837682417966727</v>
+        <v>1.879259879448163</v>
       </c>
       <c r="M7">
-        <v>8.256304558941286</v>
+        <v>5.467751363537276</v>
       </c>
       <c r="N7">
-        <v>2.972810152155618</v>
+        <v>1.968748445136171</v>
       </c>
       <c r="O7">
-        <v>2.972810152155618</v>
+        <v>1.968748445136171</v>
       </c>
       <c r="P7">
-        <v>2.837682417966727</v>
+        <v>1.879259879448163</v>
       </c>
       <c r="Q7">
-        <v>8.783302722277963</v>
+        <v>5.816756769720506</v>
       </c>
       <c r="R7">
-        <v>28.86328402274727</v>
+        <v>19.11475763095847</v>
       </c>
       <c r="S7">
-        <v>1.486405076077809</v>
+        <v>0.9843742225680857</v>
       </c>
       <c r="T7">
-        <v>1.418841208983364</v>
+        <v>0.9396299397240818</v>
       </c>
       <c r="U7">
-        <v>1.418841208983364</v>
+        <v>0.9396299397240818</v>
       </c>
       <c r="V7">
-        <v>4.324087494044536</v>
+        <v>2.863634102016249</v>
       </c>
       <c r="W7">
-        <v>1.486405076077809</v>
+        <v>0.9843742225680857</v>
       </c>
       <c r="X7">
-        <v>1.553968943172255</v>
+        <v>1.029118505412089</v>
       </c>
       <c r="Y7">
-        <v>1.351277341888918</v>
+        <v>0.8948856568800778</v>
       </c>
       <c r="Z7">
-        <v>4.391651361138982</v>
+        <v>2.908378384860253</v>
       </c>
       <c r="AA7">
-        <v>1.553968943172255</v>
+        <v>1.029118505412089</v>
       </c>
       <c r="AB7">
-        <v>1.486405076077809</v>
+        <v>0.9843742225680857</v>
       </c>
       <c r="AC7">
-        <v>1.418841208983364</v>
+        <v>0.9396299397240818</v>
       </c>
       <c r="AD7">
-        <v>4.459215228233428</v>
+        <v>2.953122667704257</v>
       </c>
       <c r="AE7">
-        <v>1.553968943172255</v>
+        <v>1.029118505412089</v>
       </c>
       <c r="AF7">
-        <v>1.418841208983364</v>
+        <v>0.9396299397240818</v>
       </c>
       <c r="AG7">
-        <v>1.486405076077809</v>
+        <v>0.9843742225680857</v>
       </c>
       <c r="AH7">
-        <v>4.459215228233428</v>
+        <v>2.953122667704257</v>
       </c>
       <c r="AI7">
-        <v>17.63416931165037</v>
+        <v>11.67825782228502</v>
       </c>
       <c r="AJ7">
-        <v>0.1621532810266701</v>
+        <v>0.1073862788256093</v>
       </c>
       <c r="AK7">
-        <v>1.621532810266701</v>
+        <v>1.073862788256094</v>
       </c>
       <c r="AL7">
-        <v>1.702609450780036</v>
+        <v>1.127555927668898</v>
       </c>
       <c r="AM7">
-        <v>3.486295542073407</v>
+        <v>2.308804994750601</v>
       </c>
       <c r="AN7">
-        <v>2.675529136940057</v>
+        <v>1.771873600622554</v>
       </c>
       <c r="AO7">
-        <v>2.675529136940057</v>
+        <v>1.771873600622554</v>
       </c>
       <c r="AP7">
-        <v>2.553914176170054</v>
+        <v>1.691333891503347</v>
       </c>
       <c r="AQ7">
-        <v>7.904972450050169</v>
+        <v>5.235081092748456</v>
       </c>
       <c r="AR7">
-        <v>2.797144097710059</v>
+        <v>1.852413309741761</v>
       </c>
       <c r="AS7">
-        <v>2.837682417966727</v>
+        <v>1.879259879448163</v>
       </c>
       <c r="AT7">
-        <v>2.972810152155618</v>
+        <v>1.968748445136171</v>
       </c>
       <c r="AU7">
-        <v>8.607636667832406</v>
+        <v>5.700421634326096</v>
       </c>
       <c r="AV7">
-        <v>3.10793788634451</v>
+        <v>2.058237010824179</v>
       </c>
       <c r="AW7">
-        <v>2.702554683777835</v>
+        <v>1.789771313760156</v>
       </c>
       <c r="AX7">
-        <v>3.10793788634451</v>
+        <v>2.058237010824179</v>
       </c>
       <c r="AY7">
-        <v>8.918430456466856</v>
+        <v>5.906245335408514</v>
       </c>
       <c r="AZ7">
-        <v>28.91733511642283</v>
+        <v>19.15055305723367</v>
       </c>
       <c r="BA7">
-        <v>2.29717148121116</v>
+        <v>1.521305616696132</v>
       </c>
       <c r="BB7">
-        <v>2.162043747022268</v>
+        <v>1.431817051008125</v>
       </c>
       <c r="BC7">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="BD7">
-        <v>6.837463349957924</v>
+        <v>4.528121423813194</v>
       </c>
       <c r="BE7">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="BF7">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="BG7">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="BH7">
-        <v>7.026642177822371</v>
+        <v>4.653405415776405</v>
       </c>
       <c r="BI7">
-        <v>1.594507263428923</v>
+        <v>1.055965075118492</v>
       </c>
       <c r="BJ7">
-        <v>1.418841208983364</v>
+        <v>0.9396299397240817</v>
       </c>
       <c r="BK7">
-        <v>1.486405076077809</v>
+        <v>0.9843742225680857</v>
       </c>
       <c r="BL7">
-        <v>4.499753548490095</v>
+        <v>2.979969237410659</v>
       </c>
       <c r="BM7">
-        <v>1.486405076077809</v>
+        <v>0.9843742225680857</v>
       </c>
       <c r="BN7">
-        <v>1.418841208983364</v>
+        <v>0.9396299397240817</v>
       </c>
       <c r="BO7">
-        <v>1.553968943172255</v>
+        <v>1.029118505412089</v>
       </c>
       <c r="BP7">
-        <v>4.459215228233428</v>
+        <v>2.953122667704257</v>
       </c>
       <c r="BQ7">
-        <v>22.82307430450381</v>
+        <v>15.11461874470452</v>
       </c>
       <c r="BR7">
-        <v>98.2378627553243</v>
+        <v>65.05818725518166</v>
       </c>
     </row>
     <row r="8" spans="1:70">
@@ -4841,211 +4844,211 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04053832025666752</v>
+        <v>0.02684656970640234</v>
       </c>
       <c r="C8">
-        <v>0.8107664051333505</v>
+        <v>0.5369313941280468</v>
       </c>
       <c r="D8">
-        <v>0.9323813659033532</v>
+        <v>0.6174711032472537</v>
       </c>
       <c r="E8">
-        <v>1.783686091293371</v>
+        <v>1.181249067081703</v>
       </c>
       <c r="F8">
-        <v>0.8107664051333505</v>
+        <v>0.5369313941280468</v>
       </c>
       <c r="G8">
-        <v>0.9323813659033532</v>
+        <v>0.6174711032472537</v>
       </c>
       <c r="H8">
-        <v>0.8918430456466856</v>
+        <v>0.5906245335408514</v>
       </c>
       <c r="I8">
-        <v>2.63499081668339</v>
+        <v>1.745027030916152</v>
       </c>
       <c r="J8">
-        <v>0.7094206044916818</v>
+        <v>0.4698149698620409</v>
       </c>
       <c r="K8">
-        <v>0.7769844715861276</v>
+        <v>0.5145592527060447</v>
       </c>
       <c r="L8">
-        <v>0.7094206044916818</v>
+        <v>0.4698149698620409</v>
       </c>
       <c r="M8">
-        <v>2.195825680569491</v>
+        <v>1.454189192430126</v>
       </c>
       <c r="N8">
-        <v>0.7432025380389046</v>
+        <v>0.4921871112840429</v>
       </c>
       <c r="O8">
-        <v>0.7432025380389046</v>
+        <v>0.4921871112840429</v>
       </c>
       <c r="P8">
-        <v>0.7094206044916818</v>
+        <v>0.4698149698620409</v>
       </c>
       <c r="Q8">
-        <v>2.195825680569491</v>
+        <v>1.454189192430127</v>
       </c>
       <c r="R8">
-        <v>8.81032826911574</v>
+        <v>5.834654482858108</v>
       </c>
       <c r="S8">
-        <v>1.39857204885503</v>
+        <v>0.9262066548708806</v>
       </c>
       <c r="T8">
-        <v>1.276957088085027</v>
+        <v>0.8456669457516736</v>
       </c>
       <c r="U8">
-        <v>1.276957088085027</v>
+        <v>0.8456669457516736</v>
       </c>
       <c r="V8">
-        <v>3.952486225025084</v>
+        <v>2.617540546374228</v>
       </c>
       <c r="W8">
-        <v>1.337764568470028</v>
+        <v>0.8859368003112772</v>
       </c>
       <c r="X8">
-        <v>1.39857204885503</v>
+        <v>0.9262066548708806</v>
       </c>
       <c r="Y8">
-        <v>1.216149607700026</v>
+        <v>0.80539709119207</v>
       </c>
       <c r="Z8">
-        <v>3.952486225025084</v>
+        <v>2.617540546374228</v>
       </c>
       <c r="AA8">
-        <v>1.864762731806706</v>
+        <v>1.234942206494507</v>
       </c>
       <c r="AB8">
-        <v>1.783686091293371</v>
+        <v>1.181249067081703</v>
       </c>
       <c r="AC8">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="AD8">
-        <v>5.918594757473459</v>
+        <v>3.91959917713474</v>
       </c>
       <c r="AE8">
-        <v>2.486350309075608</v>
+        <v>1.646589608659343</v>
       </c>
       <c r="AF8">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="AG8">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="AH8">
-        <v>7.134744365173484</v>
+        <v>4.724996268326811</v>
       </c>
       <c r="AI8">
-        <v>20.95831157269711</v>
+        <v>13.87967653821001</v>
       </c>
       <c r="AJ8">
-        <v>2.486350309075608</v>
+        <v>1.646589608659343</v>
       </c>
       <c r="AK8">
-        <v>2.162043747022268</v>
+        <v>1.431817051008125</v>
       </c>
       <c r="AL8">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="AM8">
-        <v>6.918539990471258</v>
+        <v>4.581814563225999</v>
       </c>
       <c r="AN8">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="AO8">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="AP8">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="AQ8">
-        <v>7.026642177822372</v>
+        <v>4.653405415776405</v>
       </c>
       <c r="AR8">
-        <v>2.486350309075608</v>
+        <v>1.646589608659343</v>
       </c>
       <c r="AS8">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="AT8">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="AU8">
-        <v>7.134744365173484</v>
+        <v>4.724996268326811</v>
       </c>
       <c r="AV8">
-        <v>2.486350309075608</v>
+        <v>1.646589608659343</v>
       </c>
       <c r="AW8">
-        <v>2.162043747022268</v>
+        <v>1.431817051008125</v>
       </c>
       <c r="AX8">
-        <v>2.486350309075608</v>
+        <v>1.646589608659343</v>
       </c>
       <c r="AY8">
-        <v>7.134744365173484</v>
+        <v>4.724996268326811</v>
       </c>
       <c r="AZ8">
-        <v>28.2146708986406</v>
+        <v>18.68521251565603</v>
       </c>
       <c r="BA8">
-        <v>1.783686091293371</v>
+        <v>1.181249067081703</v>
       </c>
       <c r="BB8">
-        <v>1.621532810266701</v>
+        <v>1.073862788256094</v>
       </c>
       <c r="BC8">
-        <v>1.783686091293371</v>
+        <v>1.181249067081703</v>
       </c>
       <c r="BD8">
-        <v>5.188904992853444</v>
+        <v>3.4363609224195</v>
       </c>
       <c r="BE8">
-        <v>1.783686091293371</v>
+        <v>1.181249067081703</v>
       </c>
       <c r="BF8">
-        <v>1.702609450780036</v>
+        <v>1.127555927668898</v>
       </c>
       <c r="BG8">
-        <v>1.783686091293371</v>
+        <v>1.181249067081703</v>
       </c>
       <c r="BH8">
-        <v>5.269981633366778</v>
+        <v>3.490054061832303</v>
       </c>
       <c r="BI8">
-        <v>1.155342127315025</v>
+        <v>0.7651272366324666</v>
       </c>
       <c r="BJ8">
-        <v>0.9931888462883545</v>
+        <v>0.6577409578068573</v>
       </c>
       <c r="BK8">
-        <v>1.040483553254467</v>
+        <v>0.6890619557976599</v>
       </c>
       <c r="BL8">
-        <v>3.189014526857846</v>
+        <v>2.111930150236984</v>
       </c>
       <c r="BM8">
-        <v>0.5945620304311238</v>
+        <v>0.3937496890272342</v>
       </c>
       <c r="BN8">
-        <v>0.5675364835933454</v>
+        <v>0.3758519758896327</v>
       </c>
       <c r="BO8">
-        <v>0.621587577268902</v>
+        <v>0.4116474021648358</v>
       </c>
       <c r="BP8">
-        <v>1.783686091293371</v>
+        <v>1.181249067081703</v>
       </c>
       <c r="BQ8">
-        <v>15.43158724437144</v>
+        <v>10.21959420157049</v>
       </c>
       <c r="BR8">
-        <v>73.41489798482489</v>
+        <v>48.61913773829463</v>
       </c>
     </row>
     <row r="9" spans="1:70">
@@ -5053,211 +5056,211 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.1081021873511134</v>
+        <v>0.07159085255040623</v>
       </c>
       <c r="C9">
-        <v>2.162043747022268</v>
+        <v>1.431817051008125</v>
       </c>
       <c r="D9">
-        <v>2.486350309075608</v>
+        <v>1.646589608659343</v>
       </c>
       <c r="E9">
-        <v>4.756496243448989</v>
+        <v>3.149997512217874</v>
       </c>
       <c r="F9">
-        <v>2.162043747022268</v>
+        <v>1.431817051008125</v>
       </c>
       <c r="G9">
-        <v>2.567426949588943</v>
+        <v>1.700282748072148</v>
       </c>
       <c r="H9">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="I9">
-        <v>7.107718818335707</v>
+        <v>4.707098555189209</v>
       </c>
       <c r="J9">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="K9">
-        <v>2.567426949588943</v>
+        <v>1.700282748072148</v>
       </c>
       <c r="L9">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="M9">
-        <v>7.107718818335707</v>
+        <v>4.707098555189209</v>
       </c>
       <c r="N9">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="O9">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="P9">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="Q9">
-        <v>7.026642177822372</v>
+        <v>4.653405415776405</v>
       </c>
       <c r="R9">
-        <v>25.99857605794278</v>
+        <v>17.2176000383727</v>
       </c>
       <c r="S9">
-        <v>2.770118550872281</v>
+        <v>1.83451559660416</v>
       </c>
       <c r="T9">
-        <v>2.553914176170054</v>
+        <v>1.691333891503347</v>
       </c>
       <c r="U9">
-        <v>2.553914176170054</v>
+        <v>1.691333891503347</v>
       </c>
       <c r="V9">
-        <v>7.87794690321239</v>
+        <v>5.217183379610854</v>
       </c>
       <c r="W9">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="X9">
-        <v>2.486350309075609</v>
+        <v>1.646589608659343</v>
       </c>
       <c r="Y9">
-        <v>2.162043747022268</v>
+        <v>1.431817051008125</v>
       </c>
       <c r="Z9">
-        <v>7.026642177822373</v>
+        <v>4.653405415776405</v>
       </c>
       <c r="AA9">
-        <v>2.499863082494497</v>
+        <v>1.655538465228144</v>
       </c>
       <c r="AB9">
-        <v>2.675529136940057</v>
+        <v>1.771873600622554</v>
       </c>
       <c r="AC9">
-        <v>2.553914176170054</v>
+        <v>1.691333891503347</v>
       </c>
       <c r="AD9">
-        <v>7.729306395604609</v>
+        <v>5.118745957354045</v>
       </c>
       <c r="AE9">
-        <v>2.797144097710059</v>
+        <v>1.852413309741761</v>
       </c>
       <c r="AF9">
-        <v>2.553914176170054</v>
+        <v>1.691333891503347</v>
       </c>
       <c r="AG9">
-        <v>2.675529136940057</v>
+        <v>1.771873600622554</v>
       </c>
       <c r="AH9">
-        <v>8.02658741082017</v>
+        <v>5.315620801867663</v>
       </c>
       <c r="AI9">
-        <v>30.66048288745954</v>
+        <v>20.30495555460897</v>
       </c>
       <c r="AJ9">
-        <v>0.459434296242232</v>
+        <v>0.3042611233392265</v>
       </c>
       <c r="AK9">
-        <v>1.891788278644484</v>
+        <v>1.252839919632109</v>
       </c>
       <c r="AL9">
-        <v>1.986377692576709</v>
+        <v>1.315481915613715</v>
       </c>
       <c r="AM9">
-        <v>4.337600267463426</v>
+        <v>2.87258295858505</v>
       </c>
       <c r="AN9">
-        <v>3.27009116737118</v>
+        <v>2.165623289649789</v>
       </c>
       <c r="AO9">
-        <v>3.27009116737118</v>
+        <v>2.165623289649789</v>
       </c>
       <c r="AP9">
-        <v>3.121450659763399</v>
+        <v>2.06718586739298</v>
       </c>
       <c r="AQ9">
-        <v>9.66163299450576</v>
+        <v>6.398432446692557</v>
       </c>
       <c r="AR9">
-        <v>3.418731674978961</v>
+        <v>2.264060711906597</v>
       </c>
       <c r="AS9">
-        <v>3.121450659763399</v>
+        <v>2.06718586739298</v>
       </c>
       <c r="AT9">
-        <v>3.27009116737118</v>
+        <v>2.165623289649789</v>
       </c>
       <c r="AU9">
-        <v>9.810273502113541</v>
+        <v>6.496869868949366</v>
       </c>
       <c r="AV9">
-        <v>3.418731674978961</v>
+        <v>2.264060711906597</v>
       </c>
       <c r="AW9">
-        <v>2.972810152155618</v>
+        <v>1.968748445136171</v>
       </c>
       <c r="AX9">
-        <v>3.418731674978961</v>
+        <v>2.264060711906597</v>
       </c>
       <c r="AY9">
-        <v>9.810273502113541</v>
+        <v>6.496869868949366</v>
       </c>
       <c r="AZ9">
-        <v>33.61978026619627</v>
+        <v>22.26475514317634</v>
       </c>
       <c r="BA9">
-        <v>2.878220738223394</v>
+        <v>1.906106449154566</v>
       </c>
       <c r="BB9">
-        <v>2.702554683777835</v>
+        <v>1.789771313760156</v>
       </c>
       <c r="BC9">
-        <v>2.972810152155618</v>
+        <v>1.968748445136171</v>
       </c>
       <c r="BD9">
-        <v>8.553585574156848</v>
+        <v>5.664626208050893</v>
       </c>
       <c r="BE9">
-        <v>2.972810152155618</v>
+        <v>1.968748445136171</v>
       </c>
       <c r="BF9">
-        <v>2.837682417966727</v>
+        <v>1.879259879448163</v>
       </c>
       <c r="BG9">
-        <v>2.972810152155618</v>
+        <v>1.968748445136171</v>
       </c>
       <c r="BH9">
-        <v>8.783302722277964</v>
+        <v>5.816756769720506</v>
       </c>
       <c r="BI9">
-        <v>2.256633160954492</v>
+        <v>1.49445904698973</v>
       </c>
       <c r="BJ9">
-        <v>1.986377692576709</v>
+        <v>1.315481915613715</v>
       </c>
       <c r="BK9">
-        <v>2.080967106508933</v>
+        <v>1.37812391159532</v>
       </c>
       <c r="BL9">
-        <v>6.323977960040135</v>
+        <v>4.188064874198765</v>
       </c>
       <c r="BM9">
-        <v>2.080967106508933</v>
+        <v>1.37812391159532</v>
       </c>
       <c r="BN9">
-        <v>1.986377692576709</v>
+        <v>1.315481915613715</v>
       </c>
       <c r="BO9">
-        <v>2.175556520441157</v>
+        <v>1.440765907576925</v>
       </c>
       <c r="BP9">
-        <v>6.242901319526799</v>
+        <v>4.13437173478596</v>
       </c>
       <c r="BQ9">
-        <v>29.90376757600174</v>
+        <v>19.80381958675612</v>
       </c>
       <c r="BR9">
-        <v>120.1826067876003</v>
+        <v>79.59113032291413</v>
       </c>
     </row>
     <row r="10" spans="1:70">
@@ -5265,211 +5268,211 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.08107664051333505</v>
+        <v>0.05369313941280467</v>
       </c>
       <c r="C10">
-        <v>1.621532810266701</v>
+        <v>1.073862788256094</v>
       </c>
       <c r="D10">
-        <v>1.864762731806706</v>
+        <v>1.234942206494507</v>
       </c>
       <c r="E10">
-        <v>3.567372182586742</v>
+        <v>2.362498134163406</v>
       </c>
       <c r="F10">
-        <v>1.621532810266701</v>
+        <v>1.073862788256094</v>
       </c>
       <c r="G10">
-        <v>1.864762731806706</v>
+        <v>1.234942206494507</v>
       </c>
       <c r="H10">
-        <v>1.783686091293371</v>
+        <v>1.181249067081703</v>
       </c>
       <c r="I10">
-        <v>5.269981633366779</v>
+        <v>3.490054061832304</v>
       </c>
       <c r="J10">
-        <v>1.702609450780036</v>
+        <v>1.127555927668898</v>
       </c>
       <c r="K10">
-        <v>3.10793788634451</v>
+        <v>2.058237010824179</v>
       </c>
       <c r="L10">
-        <v>2.837682417966727</v>
+        <v>1.879259879448163</v>
       </c>
       <c r="M10">
-        <v>7.648229755091273</v>
+        <v>5.065052817941241</v>
       </c>
       <c r="N10">
-        <v>2.972810152155618</v>
+        <v>1.968748445136171</v>
       </c>
       <c r="O10">
-        <v>2.972810152155618</v>
+        <v>1.968748445136171</v>
       </c>
       <c r="P10">
-        <v>2.837682417966727</v>
+        <v>1.879259879448163</v>
       </c>
       <c r="Q10">
-        <v>8.783302722277963</v>
+        <v>5.816756769720506</v>
       </c>
       <c r="R10">
-        <v>25.26888629332275</v>
+        <v>16.73436178365746</v>
       </c>
       <c r="S10">
-        <v>1.945839372320041</v>
+        <v>1.288635345907312</v>
       </c>
       <c r="T10">
-        <v>1.702609450780036</v>
+        <v>1.127555927668898</v>
       </c>
       <c r="U10">
-        <v>1.702609450780036</v>
+        <v>1.127555927668898</v>
       </c>
       <c r="V10">
-        <v>5.351058273880113</v>
+        <v>3.543747201245108</v>
       </c>
       <c r="W10">
-        <v>1.783686091293371</v>
+        <v>1.181249067081703</v>
       </c>
       <c r="X10">
-        <v>1.864762731806706</v>
+        <v>1.234942206494507</v>
       </c>
       <c r="Y10">
-        <v>1.621532810266701</v>
+        <v>1.073862788256094</v>
       </c>
       <c r="Z10">
-        <v>5.269981633366779</v>
+        <v>3.490054061832303</v>
       </c>
       <c r="AA10">
-        <v>1.891788278644485</v>
+        <v>1.252839919632109</v>
       </c>
       <c r="AB10">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="AC10">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="AD10">
-        <v>6.540182334742362</v>
+        <v>4.331246579299576</v>
       </c>
       <c r="AE10">
-        <v>2.486350309075608</v>
+        <v>1.646589608659343</v>
       </c>
       <c r="AF10">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="AG10">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="AH10">
-        <v>7.134744365173484</v>
+        <v>4.724996268326811</v>
       </c>
       <c r="AI10">
-        <v>24.29596660716274</v>
+        <v>16.0900441107038</v>
       </c>
       <c r="AJ10">
-        <v>1.297226248213361</v>
+        <v>0.8590902306048747</v>
       </c>
       <c r="AK10">
-        <v>2.162043747022268</v>
+        <v>1.431817051008125</v>
       </c>
       <c r="AL10">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="AM10">
-        <v>5.729415929609011</v>
+        <v>3.79431518517153</v>
       </c>
       <c r="AN10">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="AO10">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="AP10">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="AQ10">
-        <v>7.026642177822372</v>
+        <v>4.653405415776405</v>
       </c>
       <c r="AR10">
-        <v>2.486350309075608</v>
+        <v>1.646589608659343</v>
       </c>
       <c r="AS10">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="AT10">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="AU10">
-        <v>7.134744365173484</v>
+        <v>4.724996268326811</v>
       </c>
       <c r="AV10">
-        <v>2.486350309075608</v>
+        <v>1.646589608659343</v>
       </c>
       <c r="AW10">
-        <v>2.162043747022268</v>
+        <v>1.431817051008125</v>
       </c>
       <c r="AX10">
-        <v>2.486350309075608</v>
+        <v>1.646589608659343</v>
       </c>
       <c r="AY10">
-        <v>7.134744365173484</v>
+        <v>4.724996268326811</v>
       </c>
       <c r="AZ10">
-        <v>27.02554683777835</v>
+        <v>17.89771313760156</v>
       </c>
       <c r="BA10">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="BB10">
-        <v>2.162043747022268</v>
+        <v>1.431817051008125</v>
       </c>
       <c r="BC10">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="BD10">
-        <v>6.810437803120145</v>
+        <v>4.510223710675592</v>
       </c>
       <c r="BE10">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="BF10">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="BG10">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="BH10">
-        <v>7.026642177822371</v>
+        <v>4.653405415776405</v>
       </c>
       <c r="BI10">
-        <v>1.351277341888917</v>
+        <v>0.8948856568800778</v>
       </c>
       <c r="BJ10">
-        <v>1.135072967186691</v>
+        <v>0.7517039517792653</v>
       </c>
       <c r="BK10">
-        <v>1.189124060862248</v>
+        <v>0.7874993780544685</v>
       </c>
       <c r="BL10">
-        <v>3.675474369937856</v>
+        <v>2.434088986713812</v>
       </c>
       <c r="BM10">
-        <v>1.189124060862248</v>
+        <v>0.7874993780544685</v>
       </c>
       <c r="BN10">
-        <v>1.135072967186691</v>
+        <v>0.7517039517792653</v>
       </c>
       <c r="BO10">
-        <v>1.243175154537804</v>
+        <v>0.8232948043296716</v>
       </c>
       <c r="BP10">
-        <v>3.567372182586742</v>
+        <v>2.362498134163405</v>
       </c>
       <c r="BQ10">
-        <v>21.07992653346712</v>
+        <v>13.96021624732921</v>
       </c>
       <c r="BR10">
-        <v>97.67032627173096</v>
+        <v>64.68233527929203</v>
       </c>
     </row>
     <row r="11" spans="1:70">
@@ -5477,211 +5480,211 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.08107664051333505</v>
+        <v>0.05369313941280467</v>
       </c>
       <c r="C11">
-        <v>1.621532810266701</v>
+        <v>1.073862788256094</v>
       </c>
       <c r="D11">
-        <v>1.864762731806706</v>
+        <v>1.234942206494507</v>
       </c>
       <c r="E11">
-        <v>3.567372182586742</v>
+        <v>2.362498134163406</v>
       </c>
       <c r="F11">
-        <v>1.621532810266701</v>
+        <v>1.073862788256094</v>
       </c>
       <c r="G11">
-        <v>1.864762731806706</v>
+        <v>1.234942206494507</v>
       </c>
       <c r="H11">
-        <v>1.783686091293371</v>
+        <v>1.181249067081703</v>
       </c>
       <c r="I11">
-        <v>5.269981633366779</v>
+        <v>3.490054061832304</v>
       </c>
       <c r="J11">
-        <v>1.702609450780036</v>
+        <v>1.127555927668898</v>
       </c>
       <c r="K11">
-        <v>2.797144097710059</v>
+        <v>1.852413309741761</v>
       </c>
       <c r="L11">
-        <v>2.553914176170054</v>
+        <v>1.691333891503347</v>
       </c>
       <c r="M11">
-        <v>7.05366772466015</v>
+        <v>4.671303128914007</v>
       </c>
       <c r="N11">
-        <v>2.675529136940057</v>
+        <v>1.771873600622554</v>
       </c>
       <c r="O11">
-        <v>2.675529136940057</v>
+        <v>1.771873600622554</v>
       </c>
       <c r="P11">
-        <v>2.553914176170054</v>
+        <v>1.691333891503347</v>
       </c>
       <c r="Q11">
-        <v>7.904972450050169</v>
+        <v>5.235081092748456</v>
       </c>
       <c r="R11">
-        <v>23.79599399066384</v>
+        <v>15.75893641765817</v>
       </c>
       <c r="S11">
-        <v>1.945839372320041</v>
+        <v>1.288635345907312</v>
       </c>
       <c r="T11">
-        <v>1.702609450780036</v>
+        <v>1.127555927668898</v>
       </c>
       <c r="U11">
-        <v>1.702609450780036</v>
+        <v>1.127555927668898</v>
       </c>
       <c r="V11">
-        <v>5.351058273880113</v>
+        <v>3.543747201245108</v>
       </c>
       <c r="W11">
-        <v>1.783686091293371</v>
+        <v>1.181249067081703</v>
       </c>
       <c r="X11">
-        <v>1.864762731806706</v>
+        <v>1.234942206494507</v>
       </c>
       <c r="Y11">
-        <v>1.621532810266701</v>
+        <v>1.073862788256094</v>
       </c>
       <c r="Z11">
-        <v>5.269981633366779</v>
+        <v>3.490054061832303</v>
       </c>
       <c r="AA11">
-        <v>1.891788278644485</v>
+        <v>1.252839919632109</v>
       </c>
       <c r="AB11">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="AC11">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="AD11">
-        <v>6.540182334742362</v>
+        <v>4.331246579299576</v>
       </c>
       <c r="AE11">
-        <v>2.486350309075608</v>
+        <v>1.646589608659343</v>
       </c>
       <c r="AF11">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="AG11">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="AH11">
-        <v>7.134744365173484</v>
+        <v>4.724996268326811</v>
       </c>
       <c r="AI11">
-        <v>24.29596660716274</v>
+        <v>16.0900441107038</v>
       </c>
       <c r="AJ11">
-        <v>1.297226248213361</v>
+        <v>0.8590902306048747</v>
       </c>
       <c r="AK11">
-        <v>2.162043747022268</v>
+        <v>1.431817051008125</v>
       </c>
       <c r="AL11">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="AM11">
-        <v>5.729415929609011</v>
+        <v>3.79431518517153</v>
       </c>
       <c r="AN11">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="AO11">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="AP11">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="AQ11">
-        <v>7.026642177822372</v>
+        <v>4.653405415776405</v>
       </c>
       <c r="AR11">
-        <v>2.486350309075608</v>
+        <v>1.646589608659343</v>
       </c>
       <c r="AS11">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="AT11">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="AU11">
-        <v>7.134744365173484</v>
+        <v>4.724996268326811</v>
       </c>
       <c r="AV11">
-        <v>2.486350309075608</v>
+        <v>1.646589608659343</v>
       </c>
       <c r="AW11">
-        <v>2.162043747022268</v>
+        <v>1.431817051008125</v>
       </c>
       <c r="AX11">
-        <v>2.486350309075608</v>
+        <v>1.646589608659343</v>
       </c>
       <c r="AY11">
-        <v>7.134744365173484</v>
+        <v>4.724996268326811</v>
       </c>
       <c r="AZ11">
-        <v>27.02554683777835</v>
+        <v>17.89771313760156</v>
       </c>
       <c r="BA11">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="BB11">
-        <v>2.162043747022268</v>
+        <v>1.431817051008125</v>
       </c>
       <c r="BC11">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="BD11">
-        <v>6.810437803120145</v>
+        <v>4.510223710675592</v>
       </c>
       <c r="BE11">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="BF11">
-        <v>2.270145934373382</v>
+        <v>1.503407903558531</v>
       </c>
       <c r="BG11">
-        <v>2.378248121724495</v>
+        <v>1.574998756108937</v>
       </c>
       <c r="BH11">
-        <v>7.026642177822371</v>
+        <v>4.653405415776405</v>
       </c>
       <c r="BI11">
-        <v>1.351277341888917</v>
+        <v>0.8948856568800778</v>
       </c>
       <c r="BJ11">
-        <v>1.135072967186691</v>
+        <v>0.7517039517792653</v>
       </c>
       <c r="BK11">
-        <v>1.189124060862248</v>
+        <v>0.7874993780544685</v>
       </c>
       <c r="BL11">
-        <v>3.675474369937856</v>
+        <v>2.434088986713812</v>
       </c>
       <c r="BM11">
-        <v>1.189124060862248</v>
+        <v>0.7874993780544685</v>
       </c>
       <c r="BN11">
-        <v>1.135072967186691</v>
+        <v>0.7517039517792653</v>
       </c>
       <c r="BO11">
-        <v>1.243175154537804</v>
+        <v>0.8232948043296716</v>
       </c>
       <c r="BP11">
-        <v>3.567372182586742</v>
+        <v>2.362498134163405</v>
       </c>
       <c r="BQ11">
-        <v>21.07992653346712</v>
+        <v>13.96021624732921</v>
       </c>
       <c r="BR11">
-        <v>96.19743396907204</v>
+        <v>63.70690991329274</v>
       </c>
     </row>
     <row r="12" spans="1:70">
@@ -5689,211 +5692,211 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7432025380389047</v>
+        <v>0.4921871112840429</v>
       </c>
       <c r="C12">
-        <v>14.86405076077809</v>
+        <v>9.843742225680856</v>
       </c>
       <c r="D12">
-        <v>17.45850325720481</v>
+        <v>11.56192268689061</v>
       </c>
       <c r="E12">
-        <v>33.06575655602181</v>
+        <v>21.89785202385551</v>
       </c>
       <c r="F12">
-        <v>14.86405076077809</v>
+        <v>9.843742225680856</v>
       </c>
       <c r="G12">
-        <v>17.3504010698537</v>
+        <v>11.4903318343402</v>
       </c>
       <c r="H12">
-        <v>17.52606712429926</v>
+        <v>11.60666696973461</v>
       </c>
       <c r="I12">
-        <v>49.74051895493105</v>
+        <v>32.94074102975567</v>
       </c>
       <c r="J12">
-        <v>15.18160093612199</v>
+        <v>10.05404035504767</v>
       </c>
       <c r="K12">
-        <v>21.85691100505324</v>
+        <v>14.47477550003526</v>
       </c>
       <c r="L12">
-        <v>20.00566104666542</v>
+        <v>13.24878215010955</v>
       </c>
       <c r="M12">
-        <v>57.04417298784065</v>
+        <v>37.77759800519249</v>
       </c>
       <c r="N12">
-        <v>20.66103055748155</v>
+        <v>13.68280169369639</v>
       </c>
       <c r="O12">
-        <v>20.66103055748155</v>
+        <v>13.68280169369639</v>
       </c>
       <c r="P12">
-        <v>20.85696577205545</v>
+        <v>13.812560113944</v>
       </c>
       <c r="Q12">
-        <v>62.17902688701854</v>
+        <v>41.17816350133678</v>
       </c>
       <c r="R12">
-        <v>202.0294753858121</v>
+        <v>133.7943545601404</v>
       </c>
       <c r="S12">
-        <v>18.89085723960707</v>
+        <v>12.51050148318349</v>
       </c>
       <c r="T12">
-        <v>17.30986274959703</v>
+        <v>11.4634852646338</v>
       </c>
       <c r="U12">
-        <v>17.59363099139371</v>
+        <v>11.65141125257861</v>
       </c>
       <c r="V12">
-        <v>53.79435098059781</v>
+        <v>35.6253980003959</v>
       </c>
       <c r="W12">
-        <v>17.83686091293371</v>
+        <v>11.81249067081703</v>
       </c>
       <c r="X12">
-        <v>18.64762731806706</v>
+        <v>12.34942206494507</v>
       </c>
       <c r="Y12">
-        <v>17.26932442934037</v>
+        <v>11.43663869492739</v>
       </c>
       <c r="Z12">
-        <v>53.75381266034114</v>
+        <v>35.5985514306895</v>
       </c>
       <c r="AA12">
-        <v>23.92436533814328</v>
+        <v>15.84395055506178</v>
       </c>
       <c r="AB12">
-        <v>23.90409617801495</v>
+        <v>15.83052727020858</v>
       </c>
       <c r="AC12">
-        <v>22.23526866078214</v>
+        <v>14.72534348396168</v>
       </c>
       <c r="AD12">
-        <v>70.06373017694037</v>
+        <v>46.39982130923204</v>
       </c>
       <c r="AE12">
-        <v>24.08651861916995</v>
+        <v>15.95133683388739</v>
       </c>
       <c r="AF12">
-        <v>21.99203873924213</v>
+        <v>14.56426406572327</v>
       </c>
       <c r="AG12">
-        <v>24.21488996664941</v>
+        <v>16.036350971291</v>
       </c>
       <c r="AH12">
-        <v>70.29344732506149</v>
+        <v>46.55195187090165</v>
       </c>
       <c r="AI12">
-        <v>247.9053411429408</v>
+        <v>164.1757226112191</v>
       </c>
       <c r="AJ12">
-        <v>14.27624511705642</v>
+        <v>9.454466964938021</v>
       </c>
       <c r="AK12">
-        <v>20.13403239414487</v>
+        <v>13.33379628751316</v>
       </c>
       <c r="AL12">
-        <v>21.70827049744546</v>
+        <v>14.37633807777845</v>
       </c>
       <c r="AM12">
-        <v>56.11854800864675</v>
+        <v>37.16460133022963</v>
       </c>
       <c r="AN12">
-        <v>24.22840274006829</v>
+        <v>16.0452998278598</v>
       </c>
       <c r="AO12">
-        <v>24.22840274006829</v>
+        <v>16.0452998278598</v>
       </c>
       <c r="AP12">
-        <v>23.37034162796883</v>
+        <v>15.47704743574094</v>
       </c>
       <c r="AQ12">
-        <v>71.82714710810541</v>
+        <v>47.56764709146054</v>
       </c>
       <c r="AR12">
-        <v>25.32969377370776</v>
+        <v>16.77463163821706</v>
       </c>
       <c r="AS12">
-        <v>23.4108799482255</v>
+        <v>15.50389400544735</v>
       </c>
       <c r="AT12">
-        <v>24.56622207554052</v>
+        <v>16.26902124207982</v>
       </c>
       <c r="AU12">
-        <v>73.30679579747378</v>
+        <v>48.54754688574423</v>
       </c>
       <c r="AV12">
-        <v>26.57286892824556</v>
+        <v>17.59792644254673</v>
       </c>
       <c r="AW12">
-        <v>23.10684254630049</v>
+        <v>15.30254473264933</v>
       </c>
       <c r="AX12">
-        <v>27.66740357517558</v>
+        <v>18.3227838246196</v>
       </c>
       <c r="AY12">
-        <v>77.34711504972164</v>
+        <v>51.22325499981565</v>
       </c>
       <c r="AZ12">
-        <v>278.5996059639476</v>
+        <v>184.50305030725</v>
       </c>
       <c r="BA12">
-        <v>24.48514543502719</v>
+        <v>16.21532810266701</v>
       </c>
       <c r="BB12">
-        <v>22.70145934373381</v>
+        <v>15.03407903558531</v>
       </c>
       <c r="BC12">
-        <v>21.40423309552046</v>
+        <v>14.17498880498043</v>
       </c>
       <c r="BD12">
-        <v>68.59083787428146</v>
+        <v>45.42439594323275</v>
       </c>
       <c r="BE12">
-        <v>21.40423309552046</v>
+        <v>14.17498880498043</v>
       </c>
       <c r="BF12">
-        <v>20.43131340936043</v>
+        <v>13.53067113202678</v>
       </c>
       <c r="BG12">
-        <v>21.68800133731713</v>
+        <v>14.36291479292525</v>
       </c>
       <c r="BH12">
-        <v>63.52354784219803</v>
+        <v>42.06857472993246</v>
       </c>
       <c r="BI12">
-        <v>12.97901886884305</v>
+        <v>8.595376734333147</v>
       </c>
       <c r="BJ12">
-        <v>11.20884555096857</v>
+        <v>7.423076523820246</v>
       </c>
       <c r="BK12">
-        <v>11.74260010101469</v>
+        <v>7.776556358287876</v>
       </c>
       <c r="BL12">
-        <v>35.93046452082632</v>
+        <v>23.79500961644127</v>
       </c>
       <c r="BM12">
-        <v>10.40483553254467</v>
+        <v>6.890619557976599</v>
       </c>
       <c r="BN12">
-        <v>9.931888462883546</v>
+        <v>6.577409578068572</v>
       </c>
       <c r="BO12">
-        <v>12.17500885041915</v>
+        <v>8.062919768489502</v>
       </c>
       <c r="BP12">
-        <v>32.51173284584736</v>
+        <v>21.53094890453468</v>
       </c>
       <c r="BQ12">
-        <v>200.5565830831531</v>
+        <v>132.8189291941412</v>
       </c>
       <c r="BR12">
-        <v>929.0910055758536</v>
+        <v>615.2920566727507</v>
       </c>
     </row>
   </sheetData>
@@ -5903,7 +5906,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BR5"/>
+  <dimension ref="A1:BR6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6123,211 +6126,211 @@
         <v>52</v>
       </c>
       <c r="B2">
-        <v>120.786177333644</v>
+        <v>79.99084591632057</v>
       </c>
       <c r="C2">
-        <v>2415.723546672881</v>
+        <v>1599.816918326411</v>
       </c>
       <c r="D2">
-        <v>2837.430179529574</v>
+        <v>1879.092834125546</v>
       </c>
       <c r="E2">
-        <v>5373.939903536099</v>
+        <v>3558.900598368277</v>
       </c>
       <c r="F2">
-        <v>2415.723546672881</v>
+        <v>1599.816918326411</v>
       </c>
       <c r="G2">
-        <v>2818.656432992931</v>
+        <v>1866.659889399292</v>
       </c>
       <c r="H2">
-        <v>2848.528670764289</v>
+        <v>1886.442828320721</v>
       </c>
       <c r="I2">
-        <v>8082.9086504301</v>
+        <v>5352.919636046424</v>
       </c>
       <c r="J2">
-        <v>2467.270273008136</v>
+        <v>1633.953823184196</v>
       </c>
       <c r="K2">
-        <v>3506.132293452336</v>
+        <v>2321.9419161936</v>
       </c>
       <c r="L2">
-        <v>3210.36470885969</v>
+        <v>2126.069343615689</v>
       </c>
       <c r="M2">
-        <v>9183.767275320162</v>
+        <v>6081.965082993485</v>
       </c>
       <c r="N2">
-        <v>3314.881506996991</v>
+        <v>2195.285766223174</v>
       </c>
       <c r="O2">
-        <v>3314.881506996991</v>
+        <v>2195.285766223174</v>
       </c>
       <c r="P2">
-        <v>3348.843610856467</v>
+        <v>2217.777225732759</v>
       </c>
       <c r="Q2">
-        <v>9978.60662485045</v>
+        <v>6608.348758179106</v>
       </c>
       <c r="R2">
-        <v>32619.22245413682</v>
+        <v>21602.13407558729</v>
       </c>
       <c r="S2">
-        <v>3054.175065168557</v>
+        <v>2022.63249348911</v>
       </c>
       <c r="T2">
-        <v>2796.819791148006</v>
+        <v>1852.19853718411</v>
       </c>
       <c r="U2">
-        <v>2842.979425146931</v>
+        <v>1882.767831223133</v>
       </c>
       <c r="V2">
-        <v>8693.974281463492</v>
+        <v>5757.598861896353</v>
       </c>
       <c r="W2">
-        <v>2881.64397415618</v>
+        <v>1908.373492818662</v>
       </c>
       <c r="X2">
-        <v>3012.627791163279</v>
+        <v>1995.117742492238</v>
       </c>
       <c r="Y2">
-        <v>2791.126409280848</v>
+        <v>1848.428085616455</v>
       </c>
       <c r="Z2">
-        <v>8685.398174600306</v>
+        <v>5751.919320927354</v>
       </c>
       <c r="AA2">
-        <v>3890.867978234949</v>
+        <v>2576.733760420497</v>
       </c>
       <c r="AB2">
-        <v>3885.877260585572</v>
+        <v>2573.428649394419</v>
       </c>
       <c r="AC2">
-        <v>3598.019152700783</v>
+        <v>2382.794140861446</v>
       </c>
       <c r="AD2">
-        <v>11374.7643915213</v>
+        <v>7532.956550676361</v>
       </c>
       <c r="AE2">
-        <v>3897.354109476016</v>
+        <v>2581.02921157352</v>
       </c>
       <c r="AF2">
-        <v>3558.453752130275</v>
+        <v>2356.591888827997</v>
       </c>
       <c r="AG2">
-        <v>3919.136700227265</v>
+        <v>2595.454768362427</v>
       </c>
       <c r="AH2">
-        <v>11374.94456183356</v>
+        <v>7533.075868763945</v>
       </c>
       <c r="AI2">
-        <v>40129.08140941866</v>
+        <v>26575.55060226401</v>
       </c>
       <c r="AJ2">
-        <v>2345.547210050783</v>
+        <v>1553.342523212439</v>
       </c>
       <c r="AK2">
-        <v>3280.901386106291</v>
+        <v>2172.782374904829</v>
       </c>
       <c r="AL2">
-        <v>3537.265723409457</v>
+        <v>2342.560081728117</v>
       </c>
       <c r="AM2">
-        <v>9163.71431956653</v>
+        <v>6068.684979845386</v>
       </c>
       <c r="AN2">
-        <v>3947.495507375707</v>
+        <v>2614.235435348151</v>
       </c>
       <c r="AO2">
-        <v>3947.495507375707</v>
+        <v>2614.235435348151</v>
       </c>
       <c r="AP2">
-        <v>3807.629293974592</v>
+        <v>2521.608803956683</v>
       </c>
       <c r="AQ2">
-        <v>11702.62030872601</v>
+        <v>7750.079674652985</v>
       </c>
       <c r="AR2">
-        <v>4126.92712134733</v>
+        <v>2733.064318773066</v>
       </c>
       <c r="AS2">
-        <v>3814.223527403009</v>
+        <v>2525.975845962259</v>
       </c>
       <c r="AT2">
-        <v>4002.447452612523</v>
+        <v>2650.627452061274</v>
       </c>
       <c r="AU2">
-        <v>11943.59810136286</v>
+        <v>7909.667616796598</v>
       </c>
       <c r="AV2">
-        <v>4329.150279818813</v>
+        <v>2866.986940277359</v>
       </c>
       <c r="AW2">
-        <v>3764.478504190272</v>
+        <v>2493.032121980313</v>
       </c>
       <c r="AX2">
-        <v>4508.059399884905</v>
+        <v>2985.469801248281</v>
       </c>
       <c r="AY2">
-        <v>12601.68818389399</v>
+        <v>8345.488863505954</v>
       </c>
       <c r="AZ2">
-        <v>45411.62091354939</v>
+        <v>30073.92113480092</v>
       </c>
       <c r="BA2">
-        <v>4009.077720103392</v>
+        <v>2655.018357684366</v>
       </c>
       <c r="BB2">
-        <v>3715.832519882271</v>
+        <v>2460.81623833263</v>
       </c>
       <c r="BC2">
-        <v>3488.097245195926</v>
+        <v>2309.998175626441</v>
       </c>
       <c r="BD2">
-        <v>11213.00748518159</v>
+        <v>7425.832771643436</v>
       </c>
       <c r="BE2">
-        <v>3488.097245195926</v>
+        <v>2309.998175626441</v>
       </c>
       <c r="BF2">
-        <v>3329.547370414292</v>
+        <v>2204.998258552512</v>
       </c>
       <c r="BG2">
-        <v>3534.256879194851</v>
+        <v>2340.567469665465</v>
       </c>
       <c r="BH2">
-        <v>10351.90149480507</v>
+        <v>6855.563903844417</v>
       </c>
       <c r="BI2">
-        <v>2135.324489715318</v>
+        <v>1414.122178619416</v>
       </c>
       <c r="BJ2">
-        <v>1846.007002301288</v>
+        <v>1222.521193577012</v>
       </c>
       <c r="BK2">
-        <v>1933.912097648968</v>
+        <v>1280.736488509251</v>
       </c>
       <c r="BL2">
-        <v>5915.243589665573</v>
+        <v>3917.379860705678</v>
       </c>
       <c r="BM2">
-        <v>1716.302394511177</v>
+        <v>1136.624102325283</v>
       </c>
       <c r="BN2">
-        <v>1638.288649306123</v>
+        <v>1084.959370401406</v>
       </c>
       <c r="BO2">
-        <v>2005.331609425604</v>
+        <v>1328.034178427552</v>
       </c>
       <c r="BP2">
-        <v>5359.922653242904</v>
+        <v>3549.617651154241</v>
       </c>
       <c r="BQ2">
-        <v>32840.07522289513</v>
+        <v>21748.39418734777</v>
       </c>
       <c r="BR2">
-        <v>150999.9999999999</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="3" spans="1:70">
@@ -6476,16 +6479,16 @@
         <v>0</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="AX3">
         <v>0</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="AZ3">
-        <v>1500</v>
+        <v>3000</v>
       </c>
       <c r="BA3">
         <v>0</v>
@@ -6539,7 +6542,7 @@
         <v>1500</v>
       </c>
       <c r="BR3">
-        <v>8500</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:70">
@@ -6547,423 +6550,635 @@
         <v>54</v>
       </c>
       <c r="B4">
-        <v>30.19654433341101</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>603.9308866682203</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="D4">
-        <v>709.3575448823935</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="E4">
-        <v>1343.484975884025</v>
+        <v>782.6086956521739</v>
       </c>
       <c r="F4">
-        <v>603.9308866682203</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="G4">
-        <v>704.6641082482327</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="H4">
-        <v>712.1321676910723</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="I4">
-        <v>2020.727162607525</v>
+        <v>1173.913043478261</v>
       </c>
       <c r="J4">
-        <v>1616.817568252034</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="K4">
-        <v>876.533073363084</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="L4">
-        <v>802.5911772149226</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="M4">
-        <v>3295.941818830041</v>
+        <v>1173.913043478261</v>
       </c>
       <c r="N4">
-        <v>828.7203767492479</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="O4">
-        <v>828.7203767492479</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="P4">
-        <v>837.2109027141166</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="Q4">
-        <v>2494.651656212613</v>
+        <v>1173.913043478261</v>
       </c>
       <c r="R4">
-        <v>9154.805613534203</v>
+        <v>4304.347826086956</v>
       </c>
       <c r="S4">
-        <v>763.5437662921391</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="T4">
-        <v>699.2049477870014</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="U4">
-        <v>710.7448562867328</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="V4">
-        <v>2173.493570365873</v>
+        <v>1173.913043478261</v>
       </c>
       <c r="W4">
-        <v>720.410993539045</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="X4">
-        <v>753.1569477908197</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="Y4">
-        <v>697.781602320212</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="Z4">
-        <v>2171.349543650077</v>
+        <v>1173.913043478261</v>
       </c>
       <c r="AA4">
-        <v>1347.716994558737</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="AB4">
-        <v>971.4693151463931</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="AC4">
-        <v>899.5047881751957</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="AD4">
-        <v>3218.691097880326</v>
+        <v>1173.913043478261</v>
       </c>
       <c r="AE4">
-        <v>974.3385273690039</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="AF4">
-        <v>889.6134380325689</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="AG4">
-        <v>979.7841750568161</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="AH4">
-        <v>2843.736140458389</v>
+        <v>1173.913043478261</v>
       </c>
       <c r="AI4">
-        <v>10407.27035235467</v>
+        <v>4695.652173913043</v>
       </c>
       <c r="AJ4">
-        <v>586.3868025126958</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="AK4">
-        <v>820.2253465265728</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="AL4">
-        <v>884.3164308523642</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="AM4">
-        <v>2290.928579891633</v>
+        <v>1173.913043478261</v>
       </c>
       <c r="AN4">
-        <v>986.8738768439267</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="AO4">
-        <v>986.8738768439267</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="AP4">
-        <v>951.9073234936479</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="AQ4">
-        <v>2925.655077181501</v>
+        <v>1173.913043478261</v>
       </c>
       <c r="AR4">
-        <v>1406.731780336833</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="AS4">
-        <v>953.5558818507524</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="AT4">
-        <v>1000.611863153131</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="AU4">
-        <v>3360.899525340716</v>
+        <v>1173.913043478261</v>
       </c>
       <c r="AV4">
-        <v>1082.287569954703</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="AW4">
-        <v>941.1196260475681</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="AX4">
-        <v>1127.014849971226</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="AY4">
-        <v>3150.422045973498</v>
+        <v>1173.913043478261</v>
       </c>
       <c r="AZ4">
-        <v>11727.90522838735</v>
+        <v>4695.652173913043</v>
       </c>
       <c r="BA4">
-        <v>1002.269430025848</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="BB4">
-        <v>928.9581299705678</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="BC4">
-        <v>872.0243112989815</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="BD4">
-        <v>2803.251871295397</v>
+        <v>1173.913043478261</v>
       </c>
       <c r="BE4">
-        <v>872.0243112989815</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="BF4">
-        <v>832.3868426035731</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="BG4">
-        <v>883.5642197987128</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="BH4">
-        <v>2587.975373701267</v>
+        <v>1173.913043478261</v>
       </c>
       <c r="BI4">
-        <v>908.8311224288294</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="BJ4">
-        <v>461.5017505753219</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="BK4">
-        <v>483.4780244122421</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="BL4">
-        <v>1853.810897416393</v>
+        <v>1173.913043478261</v>
       </c>
       <c r="BM4">
-        <v>429.0755986277942</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="BN4">
-        <v>409.5721623265309</v>
+        <v>391.3043478260869</v>
       </c>
       <c r="BO4">
-        <v>501.332902356401</v>
+        <v>0</v>
       </c>
       <c r="BP4">
-        <v>1339.980663310726</v>
+        <v>782.6086956521739</v>
       </c>
       <c r="BQ4">
-        <v>8585.018805723783</v>
+        <v>4304.347826086956</v>
       </c>
       <c r="BR4">
-        <v>39874.99999999999</v>
+        <v>17999.99999999999</v>
       </c>
     </row>
     <row r="5" spans="1:70">
       <c r="A5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>19.99771147908014</v>
+      </c>
+      <c r="C5">
+        <v>497.7803165381245</v>
+      </c>
+      <c r="D5">
+        <v>567.5992954879082</v>
+      </c>
+      <c r="E5">
+        <v>1085.377323505113</v>
+      </c>
+      <c r="F5">
+        <v>497.7803165381245</v>
+      </c>
+      <c r="G5">
+        <v>564.4910593063447</v>
+      </c>
+      <c r="H5">
+        <v>569.4367940367019</v>
+      </c>
+      <c r="I5">
+        <v>1631.708169881171</v>
+      </c>
+      <c r="J5">
+        <v>1506.314542752571</v>
+      </c>
+      <c r="K5">
+        <v>678.3115660049218</v>
+      </c>
+      <c r="L5">
+        <v>629.343422860444</v>
+      </c>
+      <c r="M5">
+        <v>2813.969531617937</v>
+      </c>
+      <c r="N5">
+        <v>646.6475285123151</v>
+      </c>
+      <c r="O5">
+        <v>646.6475285123151</v>
+      </c>
+      <c r="P5">
+        <v>652.2703933897114</v>
+      </c>
+      <c r="Q5">
+        <v>1945.565450414342</v>
+      </c>
+      <c r="R5">
+        <v>7476.620475418562</v>
+      </c>
+      <c r="S5">
+        <v>603.4842103287993</v>
+      </c>
+      <c r="T5">
+        <v>560.8757212525492</v>
+      </c>
+      <c r="U5">
+        <v>568.5180447623051</v>
+      </c>
+      <c r="V5">
+        <v>1732.877976343654</v>
+      </c>
+      <c r="W5">
+        <v>574.9194601611872</v>
+      </c>
+      <c r="X5">
+        <v>596.6055225795811</v>
+      </c>
+      <c r="Y5">
+        <v>559.9331083606355</v>
+      </c>
+      <c r="Z5">
+        <v>1731.458091101404</v>
+      </c>
+      <c r="AA5">
+        <v>1117.009527061646</v>
+      </c>
+      <c r="AB5">
+        <v>741.1832493051265</v>
+      </c>
+      <c r="AC5">
+        <v>693.5246221718832</v>
+      </c>
+      <c r="AD5">
+        <v>2551.717398538656</v>
+      </c>
+      <c r="AE5">
+        <v>743.0833898499018</v>
+      </c>
+      <c r="AF5">
+        <v>686.974059163521</v>
+      </c>
+      <c r="AG5">
+        <v>746.6897790471286</v>
+      </c>
+      <c r="AH5">
+        <v>2176.747228060551</v>
+      </c>
+      <c r="AI5">
+        <v>8192.800694044265</v>
+      </c>
+      <c r="AJ5">
+        <v>486.1617177596315</v>
+      </c>
+      <c r="AK5">
+        <v>641.0216806827291</v>
+      </c>
+      <c r="AL5">
+        <v>683.4661073885511</v>
+      </c>
+      <c r="AM5">
+        <v>1810.649505830912</v>
+      </c>
+      <c r="AN5">
+        <v>751.3849457935594</v>
+      </c>
+      <c r="AO5">
+        <v>751.3849457935594</v>
+      </c>
+      <c r="AP5">
+        <v>728.2282879456926</v>
+      </c>
+      <c r="AQ5">
+        <v>2230.998179532811</v>
+      </c>
+      <c r="AR5">
+        <v>1156.092166649788</v>
+      </c>
+      <c r="AS5">
+        <v>729.3200484470864</v>
+      </c>
+      <c r="AT5">
+        <v>760.4829499718402</v>
+      </c>
+      <c r="AU5">
+        <v>2645.895165068715</v>
+      </c>
+      <c r="AV5">
+        <v>814.5728220258616</v>
+      </c>
+      <c r="AW5">
+        <v>1096.0841174516</v>
+      </c>
+      <c r="AX5">
+        <v>844.1935372685921</v>
+      </c>
+      <c r="AY5">
+        <v>2754.850476746054</v>
+      </c>
+      <c r="AZ5">
+        <v>9442.393327178492</v>
+      </c>
+      <c r="BA5">
+        <v>761.5806763776131</v>
+      </c>
+      <c r="BB5">
+        <v>713.0301465396792</v>
+      </c>
+      <c r="BC5">
+        <v>675.325630863132</v>
+      </c>
+      <c r="BD5">
+        <v>2149.936453780424</v>
+      </c>
+      <c r="BE5">
+        <v>675.325630863132</v>
+      </c>
+      <c r="BF5">
+        <v>649.0756515946497</v>
+      </c>
+      <c r="BG5">
+        <v>682.9679543728879</v>
+      </c>
+      <c r="BH5">
+        <v>2007.36923683067</v>
+      </c>
+      <c r="BI5">
+        <v>826.3566316113756</v>
+      </c>
+      <c r="BJ5">
+        <v>403.4563853507747</v>
+      </c>
+      <c r="BK5">
+        <v>418.0102090838344</v>
+      </c>
+      <c r="BL5">
+        <v>1647.823226045985</v>
+      </c>
+      <c r="BM5">
+        <v>381.9821125378425</v>
+      </c>
+      <c r="BN5">
+        <v>369.0659295568733</v>
+      </c>
+      <c r="BO5">
+        <v>332.008544606888</v>
+      </c>
+      <c r="BP5">
+        <v>1083.056586701604</v>
+      </c>
+      <c r="BQ5">
+        <v>6888.185503358682</v>
+      </c>
+      <c r="BR5">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:70">
+      <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
-        <v>150.982721667055</v>
-      </c>
-      <c r="C5">
-        <v>3019.654433341102</v>
-      </c>
-      <c r="D5">
-        <v>3546.787724411968</v>
-      </c>
-      <c r="E5">
-        <v>6717.424879420125</v>
-      </c>
-      <c r="F5">
-        <v>3019.654433341102</v>
-      </c>
-      <c r="G5">
-        <v>3523.320541241163</v>
-      </c>
-      <c r="H5">
-        <v>3560.660838455361</v>
-      </c>
-      <c r="I5">
-        <v>10103.63581303762</v>
-      </c>
-      <c r="J5">
-        <v>8084.087841260171</v>
-      </c>
-      <c r="K5">
-        <v>4382.665366815419</v>
-      </c>
-      <c r="L5">
-        <v>4012.955886074613</v>
-      </c>
-      <c r="M5">
-        <v>16479.7090941502</v>
-      </c>
-      <c r="N5">
-        <v>4143.60188374624</v>
-      </c>
-      <c r="O5">
-        <v>4143.60188374624</v>
-      </c>
-      <c r="P5">
-        <v>4186.054513570583</v>
-      </c>
-      <c r="Q5">
-        <v>12473.25828106306</v>
-      </c>
-      <c r="R5">
-        <v>45774.02806767102</v>
-      </c>
-      <c r="S5">
-        <v>3817.718831460696</v>
-      </c>
-      <c r="T5">
-        <v>3496.024738935007</v>
-      </c>
-      <c r="U5">
-        <v>3553.724281433664</v>
-      </c>
-      <c r="V5">
-        <v>10867.46785182937</v>
-      </c>
-      <c r="W5">
-        <v>3602.054967695225</v>
-      </c>
-      <c r="X5">
-        <v>3765.784738954098</v>
-      </c>
-      <c r="Y5">
-        <v>3488.90801160106</v>
-      </c>
-      <c r="Z5">
-        <v>10856.74771825038</v>
-      </c>
-      <c r="AA5">
-        <v>6738.584972793687</v>
-      </c>
-      <c r="AB5">
-        <v>4857.346575731965</v>
-      </c>
-      <c r="AC5">
-        <v>4497.523940875979</v>
-      </c>
-      <c r="AD5">
-        <v>16093.45548940163</v>
-      </c>
-      <c r="AE5">
-        <v>4871.692636845019</v>
-      </c>
-      <c r="AF5">
-        <v>4448.067190162845</v>
-      </c>
-      <c r="AG5">
-        <v>4898.92087528408</v>
-      </c>
-      <c r="AH5">
-        <v>14218.68070229194</v>
-      </c>
-      <c r="AI5">
-        <v>52036.35176177333</v>
-      </c>
-      <c r="AJ5">
-        <v>2931.934012563479</v>
-      </c>
-      <c r="AK5">
-        <v>4101.126732632864</v>
-      </c>
-      <c r="AL5">
-        <v>4421.582154261821</v>
-      </c>
-      <c r="AM5">
-        <v>11454.64289945817</v>
-      </c>
-      <c r="AN5">
-        <v>4934.369384219634</v>
-      </c>
-      <c r="AO5">
-        <v>4934.369384219634</v>
-      </c>
-      <c r="AP5">
-        <v>4759.536617468239</v>
-      </c>
-      <c r="AQ5">
-        <v>14628.27538590751</v>
-      </c>
-      <c r="AR5">
-        <v>7033.658901684163</v>
-      </c>
-      <c r="AS5">
-        <v>4767.779409253762</v>
-      </c>
-      <c r="AT5">
-        <v>5003.059315765654</v>
-      </c>
-      <c r="AU5">
-        <v>16804.49762670358</v>
-      </c>
-      <c r="AV5">
-        <v>5411.437849773516</v>
-      </c>
-      <c r="AW5">
-        <v>4705.59813023784</v>
-      </c>
-      <c r="AX5">
-        <v>5635.074249856132</v>
-      </c>
-      <c r="AY5">
-        <v>15752.11022986749</v>
-      </c>
-      <c r="AZ5">
-        <v>58639.52614193674</v>
-      </c>
-      <c r="BA5">
-        <v>5011.34715012924</v>
-      </c>
-      <c r="BB5">
-        <v>4644.790649852839</v>
-      </c>
-      <c r="BC5">
-        <v>4360.121556494907</v>
-      </c>
-      <c r="BD5">
-        <v>14016.25935647699</v>
-      </c>
-      <c r="BE5">
-        <v>4360.121556494907</v>
-      </c>
-      <c r="BF5">
-        <v>4161.934213017866</v>
-      </c>
-      <c r="BG5">
-        <v>4417.821098993564</v>
-      </c>
-      <c r="BH5">
-        <v>12939.87686850634</v>
-      </c>
-      <c r="BI5">
-        <v>4544.155612144147</v>
-      </c>
-      <c r="BJ5">
-        <v>2307.50875287661</v>
-      </c>
-      <c r="BK5">
-        <v>2417.39012206121</v>
-      </c>
-      <c r="BL5">
-        <v>9269.054487081967</v>
-      </c>
-      <c r="BM5">
-        <v>2145.377993138971</v>
-      </c>
-      <c r="BN5">
-        <v>2047.860811632654</v>
-      </c>
-      <c r="BO5">
-        <v>2506.664511782005</v>
-      </c>
-      <c r="BP5">
-        <v>6699.903316553631</v>
-      </c>
-      <c r="BQ5">
-        <v>42925.09402861893</v>
-      </c>
-      <c r="BR5">
-        <v>199375</v>
+      <c r="B6">
+        <v>99.9885573954007</v>
+      </c>
+      <c r="C6">
+        <v>2488.901582690622</v>
+      </c>
+      <c r="D6">
+        <v>2837.996477439541</v>
+      </c>
+      <c r="E6">
+        <v>5426.886617525564</v>
+      </c>
+      <c r="F6">
+        <v>2488.901582690622</v>
+      </c>
+      <c r="G6">
+        <v>2822.455296531723</v>
+      </c>
+      <c r="H6">
+        <v>2847.18397018351</v>
+      </c>
+      <c r="I6">
+        <v>8158.540849405856</v>
+      </c>
+      <c r="J6">
+        <v>7531.572713762854</v>
+      </c>
+      <c r="K6">
+        <v>3391.557830024609</v>
+      </c>
+      <c r="L6">
+        <v>3146.71711430222</v>
+      </c>
+      <c r="M6">
+        <v>14069.84765808968</v>
+      </c>
+      <c r="N6">
+        <v>3233.237642561576</v>
+      </c>
+      <c r="O6">
+        <v>3233.237642561576</v>
+      </c>
+      <c r="P6">
+        <v>3261.351966948557</v>
+      </c>
+      <c r="Q6">
+        <v>9727.827252071709</v>
+      </c>
+      <c r="R6">
+        <v>37383.10237709281</v>
+      </c>
+      <c r="S6">
+        <v>3017.421051643997</v>
+      </c>
+      <c r="T6">
+        <v>2804.378606262746</v>
+      </c>
+      <c r="U6">
+        <v>2842.590223811525</v>
+      </c>
+      <c r="V6">
+        <v>8664.389881718267</v>
+      </c>
+      <c r="W6">
+        <v>2874.597300805936</v>
+      </c>
+      <c r="X6">
+        <v>2983.027612897906</v>
+      </c>
+      <c r="Y6">
+        <v>2799.665541803178</v>
+      </c>
+      <c r="Z6">
+        <v>8657.29045550702</v>
+      </c>
+      <c r="AA6">
+        <v>5585.047635308229</v>
+      </c>
+      <c r="AB6">
+        <v>3705.916246525633</v>
+      </c>
+      <c r="AC6">
+        <v>3467.623110859416</v>
+      </c>
+      <c r="AD6">
+        <v>12758.58699269328</v>
+      </c>
+      <c r="AE6">
+        <v>3715.416949249509</v>
+      </c>
+      <c r="AF6">
+        <v>3434.870295817605</v>
+      </c>
+      <c r="AG6">
+        <v>3733.448895235643</v>
+      </c>
+      <c r="AH6">
+        <v>10883.73614030276</v>
+      </c>
+      <c r="AI6">
+        <v>40964.00347022132</v>
+      </c>
+      <c r="AJ6">
+        <v>2430.808588798158</v>
+      </c>
+      <c r="AK6">
+        <v>3205.108403413646</v>
+      </c>
+      <c r="AL6">
+        <v>3417.330536942755</v>
+      </c>
+      <c r="AM6">
+        <v>9053.24752915456</v>
+      </c>
+      <c r="AN6">
+        <v>3756.924728967797</v>
+      </c>
+      <c r="AO6">
+        <v>3756.924728967797</v>
+      </c>
+      <c r="AP6">
+        <v>3641.141439728463</v>
+      </c>
+      <c r="AQ6">
+        <v>11154.99089766406</v>
+      </c>
+      <c r="AR6">
+        <v>5780.460833248941</v>
+      </c>
+      <c r="AS6">
+        <v>3646.600242235432</v>
+      </c>
+      <c r="AT6">
+        <v>3802.414749859201</v>
+      </c>
+      <c r="AU6">
+        <v>13229.47582534357</v>
+      </c>
+      <c r="AV6">
+        <v>4072.864110129308</v>
+      </c>
+      <c r="AW6">
+        <v>5480.420587258</v>
+      </c>
+      <c r="AX6">
+        <v>4220.96768634296</v>
+      </c>
+      <c r="AY6">
+        <v>13774.25238373027</v>
+      </c>
+      <c r="AZ6">
+        <v>47211.96663589247</v>
+      </c>
+      <c r="BA6">
+        <v>3807.903381888066</v>
+      </c>
+      <c r="BB6">
+        <v>3565.150732698396</v>
+      </c>
+      <c r="BC6">
+        <v>3376.62815431566</v>
+      </c>
+      <c r="BD6">
+        <v>10749.68226890212</v>
+      </c>
+      <c r="BE6">
+        <v>3376.62815431566</v>
+      </c>
+      <c r="BF6">
+        <v>3245.378257973248</v>
+      </c>
+      <c r="BG6">
+        <v>3414.83977186444</v>
+      </c>
+      <c r="BH6">
+        <v>10036.84618415335</v>
+      </c>
+      <c r="BI6">
+        <v>4131.783158056878</v>
+      </c>
+      <c r="BJ6">
+        <v>2017.281926753874</v>
+      </c>
+      <c r="BK6">
+        <v>2090.051045419172</v>
+      </c>
+      <c r="BL6">
+        <v>8239.116130229924</v>
+      </c>
+      <c r="BM6">
+        <v>1909.910562689212</v>
+      </c>
+      <c r="BN6">
+        <v>1845.329647784366</v>
+      </c>
+      <c r="BO6">
+        <v>1660.04272303444</v>
+      </c>
+      <c r="BP6">
+        <v>5415.282933508019</v>
+      </c>
+      <c r="BQ6">
+        <v>34440.92751679342</v>
+      </c>
+      <c r="BR6">
+        <v>160000</v>
       </c>
     </row>
   </sheetData>

--- a/data/Task schedule (template)_finplan.xlsx
+++ b/data/Task schedule (template)_finplan.xlsx
@@ -11,13 +11,14 @@
     <sheet name="Monthly pers payment, Euro" sheetId="2" r:id="rId2"/>
     <sheet name="Tabel, pers-day" sheetId="3" r:id="rId3"/>
     <sheet name="All monthly payments" sheetId="4" r:id="rId4"/>
+    <sheet name="Google calendar" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="409">
   <si>
     <t>Name</t>
   </si>
@@ -185,6 +186,1152 @@
   </si>
   <si>
     <t>Overhead</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Start Time</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>End Time</t>
+  </si>
+  <si>
+    <t>All Day Event</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Private</t>
+  </si>
+  <si>
+    <t>ZSUV, T.8.1, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, D.8.1, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, D.8.2, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, D.8.3, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.8.5, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, D.8.10, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.1, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.1.1, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.1.2, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.1.3, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, D.4.1, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.2, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.2.1, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.2.1.1, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.2.1.2, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.2.2, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, D.4.2, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.3, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.3.1, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.3.2, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, D.4.3, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, D.4.4, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.4, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.4.1, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.4.2, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.4.3, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, D.4.5, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.5, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.5.1, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.5.2, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, D.4.6, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.1, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.1.1, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.1.2, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.1.3, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, D.5.1, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.2, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.2.1, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.2.2, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.2.3.1, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.3, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.3.1, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.3.2, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.4, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.4.1, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.4.2, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.4.3, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.5, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.5.1, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T5.5.2, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, D.5.6, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.9, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.9.1, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.9.2, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T9.4, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.12, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, C1, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, C2, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, C3, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, C4, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, C5, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, S1, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, I1, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, I2, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, I3, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, I4, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, I5, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, I6, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, R1, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, I7, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, I8, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, I9, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, I10, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, I11, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, R2, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, I12, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, I13, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, I14, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, P1, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, P2, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, P3, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, FR1, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, P4, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, P5, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, FR2, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, P6, DateStart</t>
+  </si>
+  <si>
+    <t>ZSUV, T.8.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, D.8.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, D.8.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, D.8.3, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.8.5, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, D.8.10, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.1.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.1.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.1.3, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, D.4.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.2.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.2.1.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.2.1.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.2.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, D.4.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.3, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.3.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.3.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, D.4.3, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, D.4.4, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.4, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.4.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.4.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.4.3, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, D.4.5, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.5, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.5.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.4.5.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, D.4.6, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.1.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.1.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.1.3, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, D.5.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.2.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.2.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.2.3.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.3, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.3.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.3.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.4, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.4.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.4.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.4.3, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.5, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.5.5.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T5.5.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, D.5.6, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.9, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.9.1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.9.2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T9.4, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, T.12, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, C1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, C2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, C3, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, C4, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, C5, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, S1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, I1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, I2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, I3, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, I4, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, I5, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, I6, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, R1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, I7, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, I8, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, I9, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, I10, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, I11, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, R2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, I12, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, I13, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, I14, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, P1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, P2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, P3, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, FR1, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, P4, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, P5, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, FR2, DateEnd</t>
+  </si>
+  <si>
+    <t>ZSUV, P6, DateEnd</t>
+  </si>
+  <si>
+    <t>31.01.2023</t>
+  </si>
+  <si>
+    <t>02.06.2023</t>
+  </si>
+  <si>
+    <t>01.12.2023</t>
+  </si>
+  <si>
+    <t>01.06.2024</t>
+  </si>
+  <si>
+    <t>31.08.2024</t>
+  </si>
+  <si>
+    <t>30.11.2026</t>
+  </si>
+  <si>
+    <t>01.05.2023</t>
+  </si>
+  <si>
+    <t>01.08.2023</t>
+  </si>
+  <si>
+    <t>02.01.2024</t>
+  </si>
+  <si>
+    <t>01.04.2024</t>
+  </si>
+  <si>
+    <t>30.11.2024</t>
+  </si>
+  <si>
+    <t>30.01.2025</t>
+  </si>
+  <si>
+    <t>01.08.2025</t>
+  </si>
+  <si>
+    <t>30.11.2025</t>
+  </si>
+  <si>
+    <t>02.01.2026</t>
+  </si>
+  <si>
+    <t>01.06.2026</t>
+  </si>
+  <si>
+    <t>01.04.2025</t>
+  </si>
+  <si>
+    <t>01.01.2023</t>
+  </si>
+  <si>
+    <t>01.01.2024</t>
+  </si>
+  <si>
+    <t>31.07.2024</t>
+  </si>
+  <si>
+    <t>02.01.2025</t>
+  </si>
+  <si>
+    <t>31.07.2025</t>
+  </si>
+  <si>
+    <t>02.07.2023</t>
+  </si>
+  <si>
+    <t>03.07.2023</t>
+  </si>
+  <si>
+    <t>01.07.2024</t>
+  </si>
+  <si>
+    <t>05.07.2023</t>
+  </si>
+  <si>
+    <t>05.07.2024</t>
+  </si>
+  <si>
+    <t>05.07.2025</t>
+  </si>
+  <si>
+    <t>05.11.2025</t>
+  </si>
+  <si>
+    <t>05.07.2026</t>
+  </si>
+  <si>
+    <t>02.02.2023</t>
+  </si>
+  <si>
+    <t>21.03.2023</t>
+  </si>
+  <si>
+    <t>21.06.2023</t>
+  </si>
+  <si>
+    <t>21.09.2023</t>
+  </si>
+  <si>
+    <t>21.12.2023</t>
+  </si>
+  <si>
+    <t>21.03.2024</t>
+  </si>
+  <si>
+    <t>21.06.2024</t>
+  </si>
+  <si>
+    <t>21.09.2024</t>
+  </si>
+  <si>
+    <t>21.12.2024</t>
+  </si>
+  <si>
+    <t>21.03.2025</t>
+  </si>
+  <si>
+    <t>21.06.2025</t>
+  </si>
+  <si>
+    <t>30.09.2025</t>
+  </si>
+  <si>
+    <t>31.12.2025</t>
+  </si>
+  <si>
+    <t>21.06.2026</t>
+  </si>
+  <si>
+    <t>21.12.2026</t>
+  </si>
+  <si>
+    <t>02.06.2024</t>
+  </si>
+  <si>
+    <t>01.12.2024</t>
+  </si>
+  <si>
+    <t>01.12.2025</t>
+  </si>
+  <si>
+    <t>01.12.2026</t>
+  </si>
+  <si>
+    <t>31.12.2026</t>
+  </si>
+  <si>
+    <t>29.12.2023</t>
+  </si>
+  <si>
+    <t>31.12.2024</t>
+  </si>
+  <si>
+    <t>01.03.2024</t>
+  </si>
+  <si>
+    <t>29.03.2024</t>
+  </si>
+  <si>
+    <t>01.07.2026</t>
+  </si>
+  <si>
+    <t>28.04.2023</t>
+  </si>
+  <si>
+    <t>31.07.2023</t>
+  </si>
+  <si>
+    <t>30.07.2024</t>
+  </si>
+  <si>
+    <t>31.08.2025</t>
+  </si>
+  <si>
+    <t>02.07.2026</t>
+  </si>
+  <si>
+    <t>30.09.2026</t>
+  </si>
+  <si>
+    <t>07.07.2023</t>
+  </si>
+  <si>
+    <t>07.07.2024</t>
+  </si>
+  <si>
+    <t>07.07.2025</t>
+  </si>
+  <si>
+    <t>10.11.2025</t>
+  </si>
+  <si>
+    <t>07.07.2026</t>
+  </si>
+  <si>
+    <t>31.03.2023</t>
+  </si>
+  <si>
+    <t>30.06.2023</t>
+  </si>
+  <si>
+    <t>30.09.2023</t>
+  </si>
+  <si>
+    <t>31.12.2023</t>
+  </si>
+  <si>
+    <t>31.03.2024</t>
+  </si>
+  <si>
+    <t>30.06.2024</t>
+  </si>
+  <si>
+    <t>28.08.2024</t>
+  </si>
+  <si>
+    <t>30.09.2024</t>
+  </si>
+  <si>
+    <t>31.03.2025</t>
+  </si>
+  <si>
+    <t>30.06.2025</t>
+  </si>
+  <si>
+    <t>28.02.2026</t>
+  </si>
+  <si>
+    <t>30.06.2026</t>
+  </si>
+  <si>
+    <t>02.07.2024</t>
+  </si>
+  <si>
+    <t>01.01.2025</t>
+  </si>
+  <si>
+    <t>01.01.2026</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit, sed do eiusmod tempor incididunt ut labore et dolore magna aliqua.
+Виконавці: Gai, Celf, Hor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hendrerit gravida rutrum quisque non tellus.
+Виконавці: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malesuada bibendum arcu vitae elementum.
+Виконавці: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pellentesque diam volutpat commodo sed egestas egestas fringilla.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>Mauris pharetra et ultrices neque ornare aenean euismod elementum nisi.
+Виконавці: Gai, Celf, Hor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elementum pulvinar etiam non quam lacus suspendisse.
+Виконавці: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phasellus egestas tellus rutrum tellus pellentesque eu tincidunt tortor aliquam.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>Porta non pulvinar neque laoreet.
+Виконавці: Fed, Mag, Ger, Fer</t>
+  </si>
+  <si>
+    <t>Rhoncus aenean vel elit scelerisque mauris pellentesque.
+Виконавці: Fed, Mag, Ger, Fer</t>
+  </si>
+  <si>
+    <t>Adipiscing elit duis tristique sollicitudin nibh.
+Виконавці: Fed, Mag, Ger, Fer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sociis natoque penatibus et magnis dis parturient.
+Виконавці: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pharetra et ultrices neque ornare aenean euismod elementum.
+Виконавці: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dignissim convallis aenean et tortor at risus viverra adipiscing at.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>Condimentum vitae sapien pellentesque habitant morbi.
+Виконавці: Fed, Mag, Ger, Fer</t>
+  </si>
+  <si>
+    <t>Eget sit amet tellus cras adipiscing enim.
+Виконавці: Fed, Mag, Ger, Fer</t>
+  </si>
+  <si>
+    <t>Nulla aliquet porttitor lacus luctus accumsan tortor.
+Виконавці: Fed, Mag, Ger, Fer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lacus sed viverra tellus in hac habitasse platea dictumst.
+Виконавці: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platea dictumst quisque sagittis purus sit amet volutpat.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>Fusce id velit ut tortor pretium viverra suspendisse potenti nullam.
+Виконавці: Fed, Mag, Ger</t>
+  </si>
+  <si>
+    <t>Viverra accumsan in nisl nisi.
+Виконавці: Fed, Mag, Ger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morbi tempus iaculis urna id volutpat lacus laoreet non curabitur.
+Виконавці: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diam quam nulla porttitor massa id neque aliquam vestibulum morbi.
+Виконавці: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fames ac turpis egestas integer eget aliquet nibh.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>Magna fringilla urna porttitor rhoncus.
+Виконавці: Fed, Mag, Ger, Fer</t>
+  </si>
+  <si>
+    <t>Nam aliquam sem et tortor consequat id.
+Виконавці: Fed, Mag, Ger, Fer</t>
+  </si>
+  <si>
+    <t>Sit amet commodo nulla facilisi nullam vehicula ipsum.
+Виконавці: Fed, Ger, Fer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consequat nisl vel pretium lectus quam.
+Виконавці: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sollicitudin tempor id eu nisl.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>Eget felis eget nunc lobortis.
+Виконавці: Mag, Ger</t>
+  </si>
+  <si>
+    <t>Egestas quis ipsum suspendisse ultrices gravida dictum fusce ut.
+Виконавці: Mag, Ger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scelerisque eu ultrices vitae auctor eu augue.
+Виконавці: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sed velit dignissim sodales ut.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>Odio eu feugiat pretium nibh ipsum consequat.
+Виконавці: Mag, Ger, Ort, Rain</t>
+  </si>
+  <si>
+    <t>Lectus sit amet est placerat in egestas erat imperdiet.
+Виконавці: Mag, Ger, Ort, Rain</t>
+  </si>
+  <si>
+    <t>Orci sagittis eu volutpat odio facilisis.
+Виконавці: Mag, Ger, Ort, Rain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id diam vel quam elementum.
+Виконавці: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amet tellus cras adipiscing enim eu turpis egestas pretium.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>Tortor consequat id porta nibh venenatis cras.
+Виконавці: Mag, Ort, Rain</t>
+  </si>
+  <si>
+    <t>Tristique senectus et netus et malesuada fames.
+Виконавці: Mag, Ort, Rain</t>
+  </si>
+  <si>
+    <t>Iaculis at erat pellentesque adipiscing commodo elit at.
+Виконавці: Mag, Ort, Rain</t>
+  </si>
+  <si>
+    <t>Erat imperdiet sed euismod nisi porta lorem mollis aliquam.
+Виконавці: Mag, Ort, Rain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ut lectus arcu bibendum at.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>Nam libero justo laoreet sit amet cursus sit amet dictum.
+Виконавці: Mag, Ort, Rain</t>
+  </si>
+  <si>
+    <t>Consectetur adipiscing elit ut aliquam purus.
+Виконавці: Mag, Ort, Rain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amet consectetur adipiscing elit duis tristique sollicitudin nibh sit amet.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>Suscipit adipiscing bibendum est ultricies.
+Виконавці: Mag, Ort, Rain</t>
+  </si>
+  <si>
+    <t>Praesent tristique magna sit amet.
+Виконавці: Mag, Ort, Rain</t>
+  </si>
+  <si>
+    <t>Turpis egestas pretium aenean pharetra magna.
+Виконавці: Mag, Ort, Rain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnis dis parturient montes nascetur ridiculus.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>Sit amet consectetur adipiscing elit duis tristique sollicitudin nibh.
+Виконавці: Mag, Ger, Ort, Rain</t>
+  </si>
+  <si>
+    <t>Tempor nec feugiat nisl pretium.
+Виконавці: Mag, Ger, Ort, Rain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Euismod quis viverra nibh cras pulvinar mattis nunc sed blandit.
+Виконавці: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suspendisse sed nisi lacus sed.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>Tellus in hac habitasse platea.
+Виконавці: Gai, Celf, Hor</t>
+  </si>
+  <si>
+    <t>Morbi leo urna molestie at elementum.
+Виконавці: Gai, Celf, Hor</t>
+  </si>
+  <si>
+    <t>Leo vel fringilla est ullamcorper.
+Виконавці: Gai, Celf, Hor</t>
+  </si>
+  <si>
+    <t>Sit amet nisl suscipit adipiscing bibendum est.
+Виконавці: Fed, Arn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ut enim blandit volutpat maecenas volutpat blandit aliquam etiam.
+Виконавці: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enim sit amet venenatis urna cursus eget nunc scelerisque.
+Виконавці: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vitae tempus quam pellentesque nec nam aliquam.
+Виконавці: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amet mattis vulputate enim nulla aliquet.
+Виконавці: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorem ipsum dolor sit amet consectetur adipiscing elit ut aliquam.
+Виконавці: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erat imperdiet sed euismod nisi porta lorem mollis aliquam.
+Виконавці: </t>
+  </si>
+  <si>
+    <t>Nulla facilisi nullam vehicula ipsum a arcu.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>Id diam vel quam elementum pulvinar etiam non quam lacus.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>Enim nunc faucibus a pellentesque sit amet porttitor.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>A scelerisque purus semper eget duis at tellus at.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>Turpis egestas maecenas pharetra convallis posuere.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>Sed risus pretium quam vulputate.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>Accumsan in nisl nisi scelerisque eu ultrices.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>Dictumst quisque sagittis purus sit amet volutpat.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>Eget mauris pharetra et ultrices neque.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>Tortor dignissim convallis aenean et tortor at risus.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>Consequat semper viverra nam libero justo laoreet sit amet.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>Amet aliquam id diam maecenas ultricies mi.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>Amet mattis vulputate enim nulla aliquet.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>Elementum nibh tellus molestie nunc non blandit massa enim nec.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>Laoreet suspendisse interdum consectetur libero id faucibus nisl tincidunt.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>Quis risus sed vulputate odio ut enim blandit volutpat maecenas.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>Maecenas volutpat blandit aliquam etiam erat.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>Amet risus nullam eget felis.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>Pretium nibh ipsum consequat nisl vel pretium lectus.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>Nulla posuere sollicitudin aliquam ultrices sagittis orci a.
+Виконавці: Fed, Arn</t>
+  </si>
+  <si>
+    <t>Arcu vitae elementum curabitur vitae nunc sed velit dignissim sodales.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>Enim sit amet venenatis urna cursus eget nunc scelerisque viverra.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>Velit laoreet id donec ultrices tincidunt arcu non.
+Виконавці: Fed, Arn</t>
+  </si>
+  <si>
+    <t>Tellus mauris a diam maecenas sed enim ut sem viverra.
+Виконавці: Fed</t>
+  </si>
+  <si>
+    <t>TRUE</t>
   </si>
 </sst>
 </file>
@@ -7184,4 +8331,4570 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I175"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" t="s">
+        <v>321</v>
+      </c>
+      <c r="I2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" t="s">
+        <v>318</v>
+      </c>
+      <c r="D3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G3" t="s">
+        <v>322</v>
+      </c>
+      <c r="I3" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G4" t="s">
+        <v>323</v>
+      </c>
+      <c r="I4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E5" t="s">
+        <v>319</v>
+      </c>
+      <c r="F5" t="s">
+        <v>320</v>
+      </c>
+      <c r="G5" t="s">
+        <v>324</v>
+      </c>
+      <c r="I5" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" t="s">
+        <v>319</v>
+      </c>
+      <c r="F6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G6" t="s">
+        <v>325</v>
+      </c>
+      <c r="I6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C7" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G7" t="s">
+        <v>326</v>
+      </c>
+      <c r="I7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" t="s">
+        <v>318</v>
+      </c>
+      <c r="D8" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" t="s">
+        <v>319</v>
+      </c>
+      <c r="F8" t="s">
+        <v>320</v>
+      </c>
+      <c r="G8" t="s">
+        <v>327</v>
+      </c>
+      <c r="I8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" t="s">
+        <v>318</v>
+      </c>
+      <c r="D9" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" t="s">
+        <v>328</v>
+      </c>
+      <c r="I9" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D10" t="s">
+        <v>243</v>
+      </c>
+      <c r="E10" t="s">
+        <v>319</v>
+      </c>
+      <c r="F10" t="s">
+        <v>320</v>
+      </c>
+      <c r="G10" t="s">
+        <v>329</v>
+      </c>
+      <c r="I10" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C11" t="s">
+        <v>318</v>
+      </c>
+      <c r="D11" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" t="s">
+        <v>319</v>
+      </c>
+      <c r="F11" t="s">
+        <v>320</v>
+      </c>
+      <c r="G11" t="s">
+        <v>330</v>
+      </c>
+      <c r="I11" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" t="s">
+        <v>318</v>
+      </c>
+      <c r="D12" t="s">
+        <v>239</v>
+      </c>
+      <c r="E12" t="s">
+        <v>319</v>
+      </c>
+      <c r="F12" t="s">
+        <v>320</v>
+      </c>
+      <c r="G12" t="s">
+        <v>331</v>
+      </c>
+      <c r="I12" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" t="s">
+        <v>319</v>
+      </c>
+      <c r="F13" t="s">
+        <v>320</v>
+      </c>
+      <c r="G13" t="s">
+        <v>332</v>
+      </c>
+      <c r="I13" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>77</v>
+      </c>
+      <c r="B14" t="s">
+        <v>244</v>
+      </c>
+      <c r="C14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D14" t="s">
+        <v>244</v>
+      </c>
+      <c r="E14" t="s">
+        <v>319</v>
+      </c>
+      <c r="F14" t="s">
+        <v>320</v>
+      </c>
+      <c r="G14" t="s">
+        <v>333</v>
+      </c>
+      <c r="I14" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" t="s">
+        <v>319</v>
+      </c>
+      <c r="F15" t="s">
+        <v>320</v>
+      </c>
+      <c r="G15" t="s">
+        <v>334</v>
+      </c>
+      <c r="I15" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D16" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" t="s">
+        <v>319</v>
+      </c>
+      <c r="F16" t="s">
+        <v>320</v>
+      </c>
+      <c r="G16" t="s">
+        <v>335</v>
+      </c>
+      <c r="I16" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" t="s">
+        <v>318</v>
+      </c>
+      <c r="D17" t="s">
+        <v>246</v>
+      </c>
+      <c r="E17" t="s">
+        <v>319</v>
+      </c>
+      <c r="F17" t="s">
+        <v>320</v>
+      </c>
+      <c r="G17" t="s">
+        <v>336</v>
+      </c>
+      <c r="I17" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C18" t="s">
+        <v>318</v>
+      </c>
+      <c r="D18" t="s">
+        <v>247</v>
+      </c>
+      <c r="E18" t="s">
+        <v>319</v>
+      </c>
+      <c r="F18" t="s">
+        <v>320</v>
+      </c>
+      <c r="G18" t="s">
+        <v>337</v>
+      </c>
+      <c r="I18" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C19" t="s">
+        <v>318</v>
+      </c>
+      <c r="D19" t="s">
+        <v>248</v>
+      </c>
+      <c r="E19" t="s">
+        <v>319</v>
+      </c>
+      <c r="F19" t="s">
+        <v>320</v>
+      </c>
+      <c r="G19" t="s">
+        <v>338</v>
+      </c>
+      <c r="I19" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C20" t="s">
+        <v>318</v>
+      </c>
+      <c r="D20" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20" t="s">
+        <v>319</v>
+      </c>
+      <c r="F20" t="s">
+        <v>320</v>
+      </c>
+      <c r="G20" t="s">
+        <v>339</v>
+      </c>
+      <c r="I20" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" t="s">
+        <v>249</v>
+      </c>
+      <c r="C21" t="s">
+        <v>318</v>
+      </c>
+      <c r="D21" t="s">
+        <v>249</v>
+      </c>
+      <c r="E21" t="s">
+        <v>319</v>
+      </c>
+      <c r="F21" t="s">
+        <v>320</v>
+      </c>
+      <c r="G21" t="s">
+        <v>340</v>
+      </c>
+      <c r="I21" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C22" t="s">
+        <v>318</v>
+      </c>
+      <c r="D22" t="s">
+        <v>250</v>
+      </c>
+      <c r="E22" t="s">
+        <v>319</v>
+      </c>
+      <c r="F22" t="s">
+        <v>320</v>
+      </c>
+      <c r="G22" t="s">
+        <v>341</v>
+      </c>
+      <c r="I22" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" t="s">
+        <v>247</v>
+      </c>
+      <c r="C23" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23" t="s">
+        <v>247</v>
+      </c>
+      <c r="E23" t="s">
+        <v>319</v>
+      </c>
+      <c r="F23" t="s">
+        <v>320</v>
+      </c>
+      <c r="G23" t="s">
+        <v>342</v>
+      </c>
+      <c r="I23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C24" t="s">
+        <v>318</v>
+      </c>
+      <c r="D24" t="s">
+        <v>248</v>
+      </c>
+      <c r="E24" t="s">
+        <v>319</v>
+      </c>
+      <c r="F24" t="s">
+        <v>320</v>
+      </c>
+      <c r="G24" t="s">
+        <v>343</v>
+      </c>
+      <c r="I24" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" t="s">
+        <v>248</v>
+      </c>
+      <c r="C25" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25" t="s">
+        <v>248</v>
+      </c>
+      <c r="E25" t="s">
+        <v>319</v>
+      </c>
+      <c r="F25" t="s">
+        <v>320</v>
+      </c>
+      <c r="G25" t="s">
+        <v>344</v>
+      </c>
+      <c r="I25" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>249</v>
+      </c>
+      <c r="C26" t="s">
+        <v>318</v>
+      </c>
+      <c r="D26" t="s">
+        <v>249</v>
+      </c>
+      <c r="E26" t="s">
+        <v>319</v>
+      </c>
+      <c r="F26" t="s">
+        <v>320</v>
+      </c>
+      <c r="G26" t="s">
+        <v>345</v>
+      </c>
+      <c r="I26" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" t="s">
+        <v>251</v>
+      </c>
+      <c r="C27" t="s">
+        <v>318</v>
+      </c>
+      <c r="D27" t="s">
+        <v>251</v>
+      </c>
+      <c r="E27" t="s">
+        <v>319</v>
+      </c>
+      <c r="F27" t="s">
+        <v>320</v>
+      </c>
+      <c r="G27" t="s">
+        <v>346</v>
+      </c>
+      <c r="I27" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" t="s">
+        <v>252</v>
+      </c>
+      <c r="C28" t="s">
+        <v>318</v>
+      </c>
+      <c r="D28" t="s">
+        <v>252</v>
+      </c>
+      <c r="E28" t="s">
+        <v>319</v>
+      </c>
+      <c r="F28" t="s">
+        <v>320</v>
+      </c>
+      <c r="G28" t="s">
+        <v>347</v>
+      </c>
+      <c r="I28" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>253</v>
+      </c>
+      <c r="C29" t="s">
+        <v>318</v>
+      </c>
+      <c r="D29" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" t="s">
+        <v>319</v>
+      </c>
+      <c r="F29" t="s">
+        <v>320</v>
+      </c>
+      <c r="G29" t="s">
+        <v>348</v>
+      </c>
+      <c r="I29" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C30" t="s">
+        <v>318</v>
+      </c>
+      <c r="D30" t="s">
+        <v>253</v>
+      </c>
+      <c r="E30" t="s">
+        <v>319</v>
+      </c>
+      <c r="F30" t="s">
+        <v>320</v>
+      </c>
+      <c r="G30" t="s">
+        <v>349</v>
+      </c>
+      <c r="I30" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>249</v>
+      </c>
+      <c r="C31" t="s">
+        <v>318</v>
+      </c>
+      <c r="D31" t="s">
+        <v>249</v>
+      </c>
+      <c r="E31" t="s">
+        <v>319</v>
+      </c>
+      <c r="F31" t="s">
+        <v>320</v>
+      </c>
+      <c r="G31" t="s">
+        <v>350</v>
+      </c>
+      <c r="I31" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" t="s">
+        <v>242</v>
+      </c>
+      <c r="C32" t="s">
+        <v>318</v>
+      </c>
+      <c r="D32" t="s">
+        <v>242</v>
+      </c>
+      <c r="E32" t="s">
+        <v>319</v>
+      </c>
+      <c r="F32" t="s">
+        <v>320</v>
+      </c>
+      <c r="G32" t="s">
+        <v>351</v>
+      </c>
+      <c r="I32" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" t="s">
+        <v>318</v>
+      </c>
+      <c r="D33" t="s">
+        <v>237</v>
+      </c>
+      <c r="E33" t="s">
+        <v>319</v>
+      </c>
+      <c r="F33" t="s">
+        <v>320</v>
+      </c>
+      <c r="G33" t="s">
+        <v>352</v>
+      </c>
+      <c r="I33" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" t="s">
+        <v>318</v>
+      </c>
+      <c r="D34" t="s">
+        <v>237</v>
+      </c>
+      <c r="E34" t="s">
+        <v>319</v>
+      </c>
+      <c r="F34" t="s">
+        <v>320</v>
+      </c>
+      <c r="G34" t="s">
+        <v>353</v>
+      </c>
+      <c r="I34" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" t="s">
+        <v>243</v>
+      </c>
+      <c r="C35" t="s">
+        <v>318</v>
+      </c>
+      <c r="D35" t="s">
+        <v>243</v>
+      </c>
+      <c r="E35" t="s">
+        <v>319</v>
+      </c>
+      <c r="F35" t="s">
+        <v>320</v>
+      </c>
+      <c r="G35" t="s">
+        <v>354</v>
+      </c>
+      <c r="I35" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" t="s">
+        <v>244</v>
+      </c>
+      <c r="C36" t="s">
+        <v>318</v>
+      </c>
+      <c r="D36" t="s">
+        <v>244</v>
+      </c>
+      <c r="E36" t="s">
+        <v>319</v>
+      </c>
+      <c r="F36" t="s">
+        <v>320</v>
+      </c>
+      <c r="G36" t="s">
+        <v>355</v>
+      </c>
+      <c r="I36" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>100</v>
+      </c>
+      <c r="B37" t="s">
+        <v>254</v>
+      </c>
+      <c r="C37" t="s">
+        <v>318</v>
+      </c>
+      <c r="D37" t="s">
+        <v>254</v>
+      </c>
+      <c r="E37" t="s">
+        <v>319</v>
+      </c>
+      <c r="F37" t="s">
+        <v>320</v>
+      </c>
+      <c r="G37" t="s">
+        <v>356</v>
+      </c>
+      <c r="I37" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" t="s">
+        <v>244</v>
+      </c>
+      <c r="C38" t="s">
+        <v>318</v>
+      </c>
+      <c r="D38" t="s">
+        <v>244</v>
+      </c>
+      <c r="E38" t="s">
+        <v>319</v>
+      </c>
+      <c r="F38" t="s">
+        <v>320</v>
+      </c>
+      <c r="G38" t="s">
+        <v>357</v>
+      </c>
+      <c r="I38" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" t="s">
+        <v>244</v>
+      </c>
+      <c r="C39" t="s">
+        <v>318</v>
+      </c>
+      <c r="D39" t="s">
+        <v>244</v>
+      </c>
+      <c r="E39" t="s">
+        <v>319</v>
+      </c>
+      <c r="F39" t="s">
+        <v>320</v>
+      </c>
+      <c r="G39" t="s">
+        <v>358</v>
+      </c>
+      <c r="I39" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>103</v>
+      </c>
+      <c r="B40" t="s">
+        <v>255</v>
+      </c>
+      <c r="C40" t="s">
+        <v>318</v>
+      </c>
+      <c r="D40" t="s">
+        <v>255</v>
+      </c>
+      <c r="E40" t="s">
+        <v>319</v>
+      </c>
+      <c r="F40" t="s">
+        <v>320</v>
+      </c>
+      <c r="G40" t="s">
+        <v>359</v>
+      </c>
+      <c r="I40" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" t="s">
+        <v>246</v>
+      </c>
+      <c r="C41" t="s">
+        <v>318</v>
+      </c>
+      <c r="D41" t="s">
+        <v>246</v>
+      </c>
+      <c r="E41" t="s">
+        <v>319</v>
+      </c>
+      <c r="F41" t="s">
+        <v>320</v>
+      </c>
+      <c r="G41" t="s">
+        <v>360</v>
+      </c>
+      <c r="I41" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" t="s">
+        <v>256</v>
+      </c>
+      <c r="C42" t="s">
+        <v>318</v>
+      </c>
+      <c r="D42" t="s">
+        <v>256</v>
+      </c>
+      <c r="E42" t="s">
+        <v>319</v>
+      </c>
+      <c r="F42" t="s">
+        <v>320</v>
+      </c>
+      <c r="G42" t="s">
+        <v>361</v>
+      </c>
+      <c r="I42" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" t="s">
+        <v>256</v>
+      </c>
+      <c r="C43" t="s">
+        <v>318</v>
+      </c>
+      <c r="D43" t="s">
+        <v>256</v>
+      </c>
+      <c r="E43" t="s">
+        <v>319</v>
+      </c>
+      <c r="F43" t="s">
+        <v>320</v>
+      </c>
+      <c r="G43" t="s">
+        <v>362</v>
+      </c>
+      <c r="I43" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44" t="s">
+        <v>256</v>
+      </c>
+      <c r="C44" t="s">
+        <v>318</v>
+      </c>
+      <c r="D44" t="s">
+        <v>256</v>
+      </c>
+      <c r="E44" t="s">
+        <v>319</v>
+      </c>
+      <c r="F44" t="s">
+        <v>320</v>
+      </c>
+      <c r="G44" t="s">
+        <v>363</v>
+      </c>
+      <c r="I44" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" t="s">
+        <v>257</v>
+      </c>
+      <c r="C45" t="s">
+        <v>318</v>
+      </c>
+      <c r="D45" t="s">
+        <v>257</v>
+      </c>
+      <c r="E45" t="s">
+        <v>319</v>
+      </c>
+      <c r="F45" t="s">
+        <v>320</v>
+      </c>
+      <c r="G45" t="s">
+        <v>364</v>
+      </c>
+      <c r="I45" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46" t="s">
+        <v>248</v>
+      </c>
+      <c r="C46" t="s">
+        <v>318</v>
+      </c>
+      <c r="D46" t="s">
+        <v>248</v>
+      </c>
+      <c r="E46" t="s">
+        <v>319</v>
+      </c>
+      <c r="F46" t="s">
+        <v>320</v>
+      </c>
+      <c r="G46" t="s">
+        <v>365</v>
+      </c>
+      <c r="I46" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" t="s">
+        <v>248</v>
+      </c>
+      <c r="C47" t="s">
+        <v>318</v>
+      </c>
+      <c r="D47" t="s">
+        <v>248</v>
+      </c>
+      <c r="E47" t="s">
+        <v>319</v>
+      </c>
+      <c r="F47" t="s">
+        <v>320</v>
+      </c>
+      <c r="G47" t="s">
+        <v>366</v>
+      </c>
+      <c r="I47" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48" t="s">
+        <v>249</v>
+      </c>
+      <c r="C48" t="s">
+        <v>318</v>
+      </c>
+      <c r="D48" t="s">
+        <v>249</v>
+      </c>
+      <c r="E48" t="s">
+        <v>319</v>
+      </c>
+      <c r="F48" t="s">
+        <v>320</v>
+      </c>
+      <c r="G48" t="s">
+        <v>367</v>
+      </c>
+      <c r="I48" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49" t="s">
+        <v>251</v>
+      </c>
+      <c r="C49" t="s">
+        <v>318</v>
+      </c>
+      <c r="D49" t="s">
+        <v>251</v>
+      </c>
+      <c r="E49" t="s">
+        <v>319</v>
+      </c>
+      <c r="F49" t="s">
+        <v>320</v>
+      </c>
+      <c r="G49" t="s">
+        <v>368</v>
+      </c>
+      <c r="I49" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" t="s">
+        <v>258</v>
+      </c>
+      <c r="C50" t="s">
+        <v>318</v>
+      </c>
+      <c r="D50" t="s">
+        <v>258</v>
+      </c>
+      <c r="E50" t="s">
+        <v>319</v>
+      </c>
+      <c r="F50" t="s">
+        <v>320</v>
+      </c>
+      <c r="G50" t="s">
+        <v>369</v>
+      </c>
+      <c r="I50" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51" t="s">
+        <v>249</v>
+      </c>
+      <c r="C51" t="s">
+        <v>318</v>
+      </c>
+      <c r="D51" t="s">
+        <v>249</v>
+      </c>
+      <c r="E51" t="s">
+        <v>319</v>
+      </c>
+      <c r="F51" t="s">
+        <v>320</v>
+      </c>
+      <c r="G51" t="s">
+        <v>370</v>
+      </c>
+      <c r="I51" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52" t="s">
+        <v>251</v>
+      </c>
+      <c r="C52" t="s">
+        <v>318</v>
+      </c>
+      <c r="D52" t="s">
+        <v>251</v>
+      </c>
+      <c r="E52" t="s">
+        <v>319</v>
+      </c>
+      <c r="F52" t="s">
+        <v>320</v>
+      </c>
+      <c r="G52" t="s">
+        <v>371</v>
+      </c>
+      <c r="I52" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" t="s">
+        <v>318</v>
+      </c>
+      <c r="D53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E53" t="s">
+        <v>319</v>
+      </c>
+      <c r="F53" t="s">
+        <v>320</v>
+      </c>
+      <c r="G53" t="s">
+        <v>372</v>
+      </c>
+      <c r="I53" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" t="s">
+        <v>259</v>
+      </c>
+      <c r="C54" t="s">
+        <v>318</v>
+      </c>
+      <c r="D54" t="s">
+        <v>259</v>
+      </c>
+      <c r="E54" t="s">
+        <v>319</v>
+      </c>
+      <c r="F54" t="s">
+        <v>320</v>
+      </c>
+      <c r="G54" t="s">
+        <v>373</v>
+      </c>
+      <c r="I54" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55" t="s">
+        <v>260</v>
+      </c>
+      <c r="C55" t="s">
+        <v>318</v>
+      </c>
+      <c r="D55" t="s">
+        <v>260</v>
+      </c>
+      <c r="E55" t="s">
+        <v>319</v>
+      </c>
+      <c r="F55" t="s">
+        <v>320</v>
+      </c>
+      <c r="G55" t="s">
+        <v>374</v>
+      </c>
+      <c r="I55" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" t="s">
+        <v>255</v>
+      </c>
+      <c r="C56" t="s">
+        <v>318</v>
+      </c>
+      <c r="D56" t="s">
+        <v>255</v>
+      </c>
+      <c r="E56" t="s">
+        <v>319</v>
+      </c>
+      <c r="F56" t="s">
+        <v>320</v>
+      </c>
+      <c r="G56" t="s">
+        <v>375</v>
+      </c>
+      <c r="I56" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s">
+        <v>261</v>
+      </c>
+      <c r="C57" t="s">
+        <v>318</v>
+      </c>
+      <c r="D57" t="s">
+        <v>261</v>
+      </c>
+      <c r="E57" t="s">
+        <v>319</v>
+      </c>
+      <c r="F57" t="s">
+        <v>320</v>
+      </c>
+      <c r="G57" t="s">
+        <v>376</v>
+      </c>
+      <c r="I57" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" t="s">
+        <v>237</v>
+      </c>
+      <c r="C58" t="s">
+        <v>318</v>
+      </c>
+      <c r="D58" t="s">
+        <v>237</v>
+      </c>
+      <c r="E58" t="s">
+        <v>319</v>
+      </c>
+      <c r="F58" t="s">
+        <v>320</v>
+      </c>
+      <c r="G58" t="s">
+        <v>377</v>
+      </c>
+      <c r="I58" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" t="s">
+        <v>262</v>
+      </c>
+      <c r="C59" t="s">
+        <v>318</v>
+      </c>
+      <c r="D59" t="s">
+        <v>262</v>
+      </c>
+      <c r="E59" t="s">
+        <v>319</v>
+      </c>
+      <c r="F59" t="s">
+        <v>320</v>
+      </c>
+      <c r="G59" t="s">
+        <v>378</v>
+      </c>
+      <c r="I59" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60" t="s">
+        <v>263</v>
+      </c>
+      <c r="C60" t="s">
+        <v>318</v>
+      </c>
+      <c r="D60" t="s">
+        <v>263</v>
+      </c>
+      <c r="E60" t="s">
+        <v>319</v>
+      </c>
+      <c r="F60" t="s">
+        <v>320</v>
+      </c>
+      <c r="G60" t="s">
+        <v>379</v>
+      </c>
+      <c r="I60" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>264</v>
+      </c>
+      <c r="C61" t="s">
+        <v>318</v>
+      </c>
+      <c r="D61" t="s">
+        <v>264</v>
+      </c>
+      <c r="E61" t="s">
+        <v>319</v>
+      </c>
+      <c r="F61" t="s">
+        <v>320</v>
+      </c>
+      <c r="G61" t="s">
+        <v>380</v>
+      </c>
+      <c r="I61" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>265</v>
+      </c>
+      <c r="C62" t="s">
+        <v>318</v>
+      </c>
+      <c r="D62" t="s">
+        <v>265</v>
+      </c>
+      <c r="E62" t="s">
+        <v>319</v>
+      </c>
+      <c r="F62" t="s">
+        <v>320</v>
+      </c>
+      <c r="G62" t="s">
+        <v>381</v>
+      </c>
+      <c r="I62" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>266</v>
+      </c>
+      <c r="C63" t="s">
+        <v>318</v>
+      </c>
+      <c r="D63" t="s">
+        <v>266</v>
+      </c>
+      <c r="E63" t="s">
+        <v>319</v>
+      </c>
+      <c r="F63" t="s">
+        <v>320</v>
+      </c>
+      <c r="G63" t="s">
+        <v>382</v>
+      </c>
+      <c r="I63" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>267</v>
+      </c>
+      <c r="C64" t="s">
+        <v>318</v>
+      </c>
+      <c r="D64" t="s">
+        <v>267</v>
+      </c>
+      <c r="E64" t="s">
+        <v>319</v>
+      </c>
+      <c r="F64" t="s">
+        <v>320</v>
+      </c>
+      <c r="G64" t="s">
+        <v>383</v>
+      </c>
+      <c r="I64" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" t="s">
+        <v>268</v>
+      </c>
+      <c r="C65" t="s">
+        <v>318</v>
+      </c>
+      <c r="D65" t="s">
+        <v>268</v>
+      </c>
+      <c r="E65" t="s">
+        <v>319</v>
+      </c>
+      <c r="F65" t="s">
+        <v>320</v>
+      </c>
+      <c r="G65" t="s">
+        <v>384</v>
+      </c>
+      <c r="I65" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
+        <v>269</v>
+      </c>
+      <c r="C66" t="s">
+        <v>318</v>
+      </c>
+      <c r="D66" t="s">
+        <v>269</v>
+      </c>
+      <c r="E66" t="s">
+        <v>319</v>
+      </c>
+      <c r="F66" t="s">
+        <v>320</v>
+      </c>
+      <c r="G66" t="s">
+        <v>385</v>
+      </c>
+      <c r="I66" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" t="s">
+        <v>270</v>
+      </c>
+      <c r="C67" t="s">
+        <v>318</v>
+      </c>
+      <c r="D67" t="s">
+        <v>270</v>
+      </c>
+      <c r="E67" t="s">
+        <v>319</v>
+      </c>
+      <c r="F67" t="s">
+        <v>320</v>
+      </c>
+      <c r="G67" t="s">
+        <v>386</v>
+      </c>
+      <c r="I67" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68" t="s">
+        <v>271</v>
+      </c>
+      <c r="C68" t="s">
+        <v>318</v>
+      </c>
+      <c r="D68" t="s">
+        <v>271</v>
+      </c>
+      <c r="E68" t="s">
+        <v>319</v>
+      </c>
+      <c r="F68" t="s">
+        <v>320</v>
+      </c>
+      <c r="G68" t="s">
+        <v>387</v>
+      </c>
+      <c r="I68" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
+      <c r="A69" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" t="s">
+        <v>272</v>
+      </c>
+      <c r="C69" t="s">
+        <v>318</v>
+      </c>
+      <c r="D69" t="s">
+        <v>272</v>
+      </c>
+      <c r="E69" t="s">
+        <v>319</v>
+      </c>
+      <c r="F69" t="s">
+        <v>320</v>
+      </c>
+      <c r="G69" t="s">
+        <v>388</v>
+      </c>
+      <c r="I69" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
+      <c r="A70" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" t="s">
+        <v>273</v>
+      </c>
+      <c r="C70" t="s">
+        <v>318</v>
+      </c>
+      <c r="D70" t="s">
+        <v>273</v>
+      </c>
+      <c r="E70" t="s">
+        <v>319</v>
+      </c>
+      <c r="F70" t="s">
+        <v>320</v>
+      </c>
+      <c r="G70" t="s">
+        <v>389</v>
+      </c>
+      <c r="I70" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
+      <c r="A71" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71" t="s">
+        <v>261</v>
+      </c>
+      <c r="C71" t="s">
+        <v>318</v>
+      </c>
+      <c r="D71" t="s">
+        <v>261</v>
+      </c>
+      <c r="E71" t="s">
+        <v>319</v>
+      </c>
+      <c r="F71" t="s">
+        <v>320</v>
+      </c>
+      <c r="G71" t="s">
+        <v>390</v>
+      </c>
+      <c r="I71" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
+      <c r="A72" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" t="s">
+        <v>274</v>
+      </c>
+      <c r="C72" t="s">
+        <v>318</v>
+      </c>
+      <c r="D72" t="s">
+        <v>274</v>
+      </c>
+      <c r="E72" t="s">
+        <v>319</v>
+      </c>
+      <c r="F72" t="s">
+        <v>320</v>
+      </c>
+      <c r="G72" t="s">
+        <v>391</v>
+      </c>
+      <c r="I72" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" t="s">
+        <v>275</v>
+      </c>
+      <c r="C73" t="s">
+        <v>318</v>
+      </c>
+      <c r="D73" t="s">
+        <v>275</v>
+      </c>
+      <c r="E73" t="s">
+        <v>319</v>
+      </c>
+      <c r="F73" t="s">
+        <v>320</v>
+      </c>
+      <c r="G73" t="s">
+        <v>392</v>
+      </c>
+      <c r="I73" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
+      <c r="A74" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" t="s">
+        <v>276</v>
+      </c>
+      <c r="C74" t="s">
+        <v>318</v>
+      </c>
+      <c r="D74" t="s">
+        <v>276</v>
+      </c>
+      <c r="E74" t="s">
+        <v>319</v>
+      </c>
+      <c r="F74" t="s">
+        <v>320</v>
+      </c>
+      <c r="G74" t="s">
+        <v>393</v>
+      </c>
+      <c r="I74" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
+      <c r="A75" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" t="s">
+        <v>277</v>
+      </c>
+      <c r="C75" t="s">
+        <v>318</v>
+      </c>
+      <c r="D75" t="s">
+        <v>277</v>
+      </c>
+      <c r="E75" t="s">
+        <v>319</v>
+      </c>
+      <c r="F75" t="s">
+        <v>320</v>
+      </c>
+      <c r="G75" t="s">
+        <v>394</v>
+      </c>
+      <c r="I75" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
+      <c r="A76" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" t="s">
+        <v>278</v>
+      </c>
+      <c r="C76" t="s">
+        <v>318</v>
+      </c>
+      <c r="D76" t="s">
+        <v>278</v>
+      </c>
+      <c r="E76" t="s">
+        <v>319</v>
+      </c>
+      <c r="F76" t="s">
+        <v>320</v>
+      </c>
+      <c r="G76" t="s">
+        <v>395</v>
+      </c>
+      <c r="I76" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
+      <c r="A77" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" t="s">
+        <v>279</v>
+      </c>
+      <c r="C77" t="s">
+        <v>318</v>
+      </c>
+      <c r="D77" t="s">
+        <v>279</v>
+      </c>
+      <c r="E77" t="s">
+        <v>319</v>
+      </c>
+      <c r="F77" t="s">
+        <v>320</v>
+      </c>
+      <c r="G77" t="s">
+        <v>396</v>
+      </c>
+      <c r="I77" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
+      <c r="A78" t="s">
+        <v>140</v>
+      </c>
+      <c r="B78" t="s">
+        <v>276</v>
+      </c>
+      <c r="C78" t="s">
+        <v>318</v>
+      </c>
+      <c r="D78" t="s">
+        <v>276</v>
+      </c>
+      <c r="E78" t="s">
+        <v>319</v>
+      </c>
+      <c r="F78" t="s">
+        <v>320</v>
+      </c>
+      <c r="G78" t="s">
+        <v>397</v>
+      </c>
+      <c r="I78" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
+      <c r="A79" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79" t="s">
+        <v>280</v>
+      </c>
+      <c r="C79" t="s">
+        <v>318</v>
+      </c>
+      <c r="D79" t="s">
+        <v>280</v>
+      </c>
+      <c r="E79" t="s">
+        <v>319</v>
+      </c>
+      <c r="F79" t="s">
+        <v>320</v>
+      </c>
+      <c r="G79" t="s">
+        <v>398</v>
+      </c>
+      <c r="I79" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
+      <c r="A80" t="s">
+        <v>142</v>
+      </c>
+      <c r="B80" t="s">
+        <v>281</v>
+      </c>
+      <c r="C80" t="s">
+        <v>318</v>
+      </c>
+      <c r="D80" t="s">
+        <v>281</v>
+      </c>
+      <c r="E80" t="s">
+        <v>319</v>
+      </c>
+      <c r="F80" t="s">
+        <v>320</v>
+      </c>
+      <c r="G80" t="s">
+        <v>399</v>
+      </c>
+      <c r="I80" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
+      <c r="A81" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81" t="s">
+        <v>238</v>
+      </c>
+      <c r="C81" t="s">
+        <v>318</v>
+      </c>
+      <c r="D81" t="s">
+        <v>238</v>
+      </c>
+      <c r="E81" t="s">
+        <v>319</v>
+      </c>
+      <c r="F81" t="s">
+        <v>320</v>
+      </c>
+      <c r="G81" t="s">
+        <v>400</v>
+      </c>
+      <c r="I81" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
+      <c r="A82" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" t="s">
+        <v>239</v>
+      </c>
+      <c r="C82" t="s">
+        <v>318</v>
+      </c>
+      <c r="D82" t="s">
+        <v>239</v>
+      </c>
+      <c r="E82" t="s">
+        <v>319</v>
+      </c>
+      <c r="F82" t="s">
+        <v>320</v>
+      </c>
+      <c r="G82" t="s">
+        <v>401</v>
+      </c>
+      <c r="I82" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
+      <c r="A83" t="s">
+        <v>145</v>
+      </c>
+      <c r="B83" t="s">
+        <v>282</v>
+      </c>
+      <c r="C83" t="s">
+        <v>318</v>
+      </c>
+      <c r="D83" t="s">
+        <v>282</v>
+      </c>
+      <c r="E83" t="s">
+        <v>319</v>
+      </c>
+      <c r="F83" t="s">
+        <v>320</v>
+      </c>
+      <c r="G83" t="s">
+        <v>402</v>
+      </c>
+      <c r="I83" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
+      <c r="A84" t="s">
+        <v>146</v>
+      </c>
+      <c r="B84" t="s">
+        <v>261</v>
+      </c>
+      <c r="C84" t="s">
+        <v>318</v>
+      </c>
+      <c r="D84" t="s">
+        <v>261</v>
+      </c>
+      <c r="E84" t="s">
+        <v>319</v>
+      </c>
+      <c r="F84" t="s">
+        <v>320</v>
+      </c>
+      <c r="G84" t="s">
+        <v>403</v>
+      </c>
+      <c r="I84" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
+      <c r="A85" t="s">
+        <v>147</v>
+      </c>
+      <c r="B85" t="s">
+        <v>283</v>
+      </c>
+      <c r="C85" t="s">
+        <v>318</v>
+      </c>
+      <c r="D85" t="s">
+        <v>283</v>
+      </c>
+      <c r="E85" t="s">
+        <v>319</v>
+      </c>
+      <c r="F85" t="s">
+        <v>320</v>
+      </c>
+      <c r="G85" t="s">
+        <v>404</v>
+      </c>
+      <c r="I85" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
+      <c r="A86" t="s">
+        <v>148</v>
+      </c>
+      <c r="B86" t="s">
+        <v>284</v>
+      </c>
+      <c r="C86" t="s">
+        <v>318</v>
+      </c>
+      <c r="D86" t="s">
+        <v>284</v>
+      </c>
+      <c r="E86" t="s">
+        <v>319</v>
+      </c>
+      <c r="F86" t="s">
+        <v>320</v>
+      </c>
+      <c r="G86" t="s">
+        <v>405</v>
+      </c>
+      <c r="I86" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
+      <c r="A87" t="s">
+        <v>149</v>
+      </c>
+      <c r="B87" t="s">
+        <v>279</v>
+      </c>
+      <c r="C87" t="s">
+        <v>318</v>
+      </c>
+      <c r="D87" t="s">
+        <v>279</v>
+      </c>
+      <c r="E87" t="s">
+        <v>319</v>
+      </c>
+      <c r="F87" t="s">
+        <v>320</v>
+      </c>
+      <c r="G87" t="s">
+        <v>406</v>
+      </c>
+      <c r="I87" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
+      <c r="A88" t="s">
+        <v>150</v>
+      </c>
+      <c r="B88" t="s">
+        <v>285</v>
+      </c>
+      <c r="C88" t="s">
+        <v>318</v>
+      </c>
+      <c r="D88" t="s">
+        <v>285</v>
+      </c>
+      <c r="E88" t="s">
+        <v>319</v>
+      </c>
+      <c r="F88" t="s">
+        <v>320</v>
+      </c>
+      <c r="G88" t="s">
+        <v>407</v>
+      </c>
+      <c r="I88" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
+      <c r="A89" t="s">
+        <v>151</v>
+      </c>
+      <c r="B89" t="s">
+        <v>259</v>
+      </c>
+      <c r="C89" t="s">
+        <v>318</v>
+      </c>
+      <c r="D89" t="s">
+        <v>259</v>
+      </c>
+      <c r="E89" t="s">
+        <v>319</v>
+      </c>
+      <c r="F89" t="s">
+        <v>320</v>
+      </c>
+      <c r="G89" t="s">
+        <v>321</v>
+      </c>
+      <c r="I89" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
+      <c r="A90" t="s">
+        <v>152</v>
+      </c>
+      <c r="B90" t="s">
+        <v>259</v>
+      </c>
+      <c r="C90" t="s">
+        <v>318</v>
+      </c>
+      <c r="D90" t="s">
+        <v>259</v>
+      </c>
+      <c r="E90" t="s">
+        <v>319</v>
+      </c>
+      <c r="F90" t="s">
+        <v>320</v>
+      </c>
+      <c r="G90" t="s">
+        <v>322</v>
+      </c>
+      <c r="I90" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
+      <c r="A91" t="s">
+        <v>153</v>
+      </c>
+      <c r="B91" t="s">
+        <v>255</v>
+      </c>
+      <c r="C91" t="s">
+        <v>318</v>
+      </c>
+      <c r="D91" t="s">
+        <v>255</v>
+      </c>
+      <c r="E91" t="s">
+        <v>319</v>
+      </c>
+      <c r="F91" t="s">
+        <v>320</v>
+      </c>
+      <c r="G91" t="s">
+        <v>323</v>
+      </c>
+      <c r="I91" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>154</v>
+      </c>
+      <c r="B92" t="s">
+        <v>261</v>
+      </c>
+      <c r="C92" t="s">
+        <v>318</v>
+      </c>
+      <c r="D92" t="s">
+        <v>261</v>
+      </c>
+      <c r="E92" t="s">
+        <v>319</v>
+      </c>
+      <c r="F92" t="s">
+        <v>320</v>
+      </c>
+      <c r="G92" t="s">
+        <v>324</v>
+      </c>
+      <c r="I92" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>155</v>
+      </c>
+      <c r="B93" t="s">
+        <v>286</v>
+      </c>
+      <c r="C93" t="s">
+        <v>318</v>
+      </c>
+      <c r="D93" t="s">
+        <v>286</v>
+      </c>
+      <c r="E93" t="s">
+        <v>319</v>
+      </c>
+      <c r="F93" t="s">
+        <v>320</v>
+      </c>
+      <c r="G93" t="s">
+        <v>325</v>
+      </c>
+      <c r="I93" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>156</v>
+      </c>
+      <c r="B94" t="s">
+        <v>286</v>
+      </c>
+      <c r="C94" t="s">
+        <v>318</v>
+      </c>
+      <c r="D94" t="s">
+        <v>286</v>
+      </c>
+      <c r="E94" t="s">
+        <v>319</v>
+      </c>
+      <c r="F94" t="s">
+        <v>320</v>
+      </c>
+      <c r="G94" t="s">
+        <v>326</v>
+      </c>
+      <c r="I94" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95" t="s">
+        <v>255</v>
+      </c>
+      <c r="C95" t="s">
+        <v>318</v>
+      </c>
+      <c r="D95" t="s">
+        <v>255</v>
+      </c>
+      <c r="E95" t="s">
+        <v>319</v>
+      </c>
+      <c r="F95" t="s">
+        <v>320</v>
+      </c>
+      <c r="G95" t="s">
+        <v>327</v>
+      </c>
+      <c r="I95" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>158</v>
+      </c>
+      <c r="B96" t="s">
+        <v>243</v>
+      </c>
+      <c r="C96" t="s">
+        <v>318</v>
+      </c>
+      <c r="D96" t="s">
+        <v>243</v>
+      </c>
+      <c r="E96" t="s">
+        <v>319</v>
+      </c>
+      <c r="F96" t="s">
+        <v>320</v>
+      </c>
+      <c r="G96" t="s">
+        <v>328</v>
+      </c>
+      <c r="I96" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>159</v>
+      </c>
+      <c r="B97" t="s">
+        <v>244</v>
+      </c>
+      <c r="C97" t="s">
+        <v>318</v>
+      </c>
+      <c r="D97" t="s">
+        <v>244</v>
+      </c>
+      <c r="E97" t="s">
+        <v>319</v>
+      </c>
+      <c r="F97" t="s">
+        <v>320</v>
+      </c>
+      <c r="G97" t="s">
+        <v>329</v>
+      </c>
+      <c r="I97" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>160</v>
+      </c>
+      <c r="B98" t="s">
+        <v>287</v>
+      </c>
+      <c r="C98" t="s">
+        <v>318</v>
+      </c>
+      <c r="D98" t="s">
+        <v>287</v>
+      </c>
+      <c r="E98" t="s">
+        <v>319</v>
+      </c>
+      <c r="F98" t="s">
+        <v>320</v>
+      </c>
+      <c r="G98" t="s">
+        <v>330</v>
+      </c>
+      <c r="I98" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>161</v>
+      </c>
+      <c r="B99" t="s">
+        <v>255</v>
+      </c>
+      <c r="C99" t="s">
+        <v>318</v>
+      </c>
+      <c r="D99" t="s">
+        <v>255</v>
+      </c>
+      <c r="E99" t="s">
+        <v>319</v>
+      </c>
+      <c r="F99" t="s">
+        <v>320</v>
+      </c>
+      <c r="G99" t="s">
+        <v>331</v>
+      </c>
+      <c r="I99" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>162</v>
+      </c>
+      <c r="B100" t="s">
+        <v>288</v>
+      </c>
+      <c r="C100" t="s">
+        <v>318</v>
+      </c>
+      <c r="D100" t="s">
+        <v>288</v>
+      </c>
+      <c r="E100" t="s">
+        <v>319</v>
+      </c>
+      <c r="F100" t="s">
+        <v>320</v>
+      </c>
+      <c r="G100" t="s">
+        <v>332</v>
+      </c>
+      <c r="I100" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>163</v>
+      </c>
+      <c r="B101" t="s">
+        <v>289</v>
+      </c>
+      <c r="C101" t="s">
+        <v>318</v>
+      </c>
+      <c r="D101" t="s">
+        <v>289</v>
+      </c>
+      <c r="E101" t="s">
+        <v>319</v>
+      </c>
+      <c r="F101" t="s">
+        <v>320</v>
+      </c>
+      <c r="G101" t="s">
+        <v>333</v>
+      </c>
+      <c r="I101" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>164</v>
+      </c>
+      <c r="B102" t="s">
+        <v>287</v>
+      </c>
+      <c r="C102" t="s">
+        <v>318</v>
+      </c>
+      <c r="D102" t="s">
+        <v>287</v>
+      </c>
+      <c r="E102" t="s">
+        <v>319</v>
+      </c>
+      <c r="F102" t="s">
+        <v>320</v>
+      </c>
+      <c r="G102" t="s">
+        <v>334</v>
+      </c>
+      <c r="I102" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>165</v>
+      </c>
+      <c r="B103" t="s">
+        <v>290</v>
+      </c>
+      <c r="C103" t="s">
+        <v>318</v>
+      </c>
+      <c r="D103" t="s">
+        <v>290</v>
+      </c>
+      <c r="E103" t="s">
+        <v>319</v>
+      </c>
+      <c r="F103" t="s">
+        <v>320</v>
+      </c>
+      <c r="G103" t="s">
+        <v>335</v>
+      </c>
+      <c r="I103" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>166</v>
+      </c>
+      <c r="B104" t="s">
+        <v>288</v>
+      </c>
+      <c r="C104" t="s">
+        <v>318</v>
+      </c>
+      <c r="D104" t="s">
+        <v>288</v>
+      </c>
+      <c r="E104" t="s">
+        <v>319</v>
+      </c>
+      <c r="F104" t="s">
+        <v>320</v>
+      </c>
+      <c r="G104" t="s">
+        <v>336</v>
+      </c>
+      <c r="I104" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>167</v>
+      </c>
+      <c r="B105" t="s">
+        <v>288</v>
+      </c>
+      <c r="C105" t="s">
+        <v>318</v>
+      </c>
+      <c r="D105" t="s">
+        <v>288</v>
+      </c>
+      <c r="E105" t="s">
+        <v>319</v>
+      </c>
+      <c r="F105" t="s">
+        <v>320</v>
+      </c>
+      <c r="G105" t="s">
+        <v>337</v>
+      </c>
+      <c r="I105" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>168</v>
+      </c>
+      <c r="B106" t="s">
+        <v>279</v>
+      </c>
+      <c r="C106" t="s">
+        <v>318</v>
+      </c>
+      <c r="D106" t="s">
+        <v>279</v>
+      </c>
+      <c r="E106" t="s">
+        <v>319</v>
+      </c>
+      <c r="F106" t="s">
+        <v>320</v>
+      </c>
+      <c r="G106" t="s">
+        <v>338</v>
+      </c>
+      <c r="I106" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>169</v>
+      </c>
+      <c r="B107" t="s">
+        <v>258</v>
+      </c>
+      <c r="C107" t="s">
+        <v>318</v>
+      </c>
+      <c r="D107" t="s">
+        <v>258</v>
+      </c>
+      <c r="E107" t="s">
+        <v>319</v>
+      </c>
+      <c r="F107" t="s">
+        <v>320</v>
+      </c>
+      <c r="G107" t="s">
+        <v>339</v>
+      </c>
+      <c r="I107" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>170</v>
+      </c>
+      <c r="B108" t="s">
+        <v>279</v>
+      </c>
+      <c r="C108" t="s">
+        <v>318</v>
+      </c>
+      <c r="D108" t="s">
+        <v>279</v>
+      </c>
+      <c r="E108" t="s">
+        <v>319</v>
+      </c>
+      <c r="F108" t="s">
+        <v>320</v>
+      </c>
+      <c r="G108" t="s">
+        <v>340</v>
+      </c>
+      <c r="I108" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>171</v>
+      </c>
+      <c r="B109" t="s">
+        <v>279</v>
+      </c>
+      <c r="C109" t="s">
+        <v>318</v>
+      </c>
+      <c r="D109" t="s">
+        <v>279</v>
+      </c>
+      <c r="E109" t="s">
+        <v>319</v>
+      </c>
+      <c r="F109" t="s">
+        <v>320</v>
+      </c>
+      <c r="G109" t="s">
+        <v>341</v>
+      </c>
+      <c r="I109" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>172</v>
+      </c>
+      <c r="B110" t="s">
+        <v>288</v>
+      </c>
+      <c r="C110" t="s">
+        <v>318</v>
+      </c>
+      <c r="D110" t="s">
+        <v>288</v>
+      </c>
+      <c r="E110" t="s">
+        <v>319</v>
+      </c>
+      <c r="F110" t="s">
+        <v>320</v>
+      </c>
+      <c r="G110" t="s">
+        <v>342</v>
+      </c>
+      <c r="I110" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>173</v>
+      </c>
+      <c r="B111" t="s">
+        <v>291</v>
+      </c>
+      <c r="C111" t="s">
+        <v>318</v>
+      </c>
+      <c r="D111" t="s">
+        <v>291</v>
+      </c>
+      <c r="E111" t="s">
+        <v>319</v>
+      </c>
+      <c r="F111" t="s">
+        <v>320</v>
+      </c>
+      <c r="G111" t="s">
+        <v>343</v>
+      </c>
+      <c r="I111" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>174</v>
+      </c>
+      <c r="B112" t="s">
+        <v>258</v>
+      </c>
+      <c r="C112" t="s">
+        <v>318</v>
+      </c>
+      <c r="D112" t="s">
+        <v>258</v>
+      </c>
+      <c r="E112" t="s">
+        <v>319</v>
+      </c>
+      <c r="F112" t="s">
+        <v>320</v>
+      </c>
+      <c r="G112" t="s">
+        <v>344</v>
+      </c>
+      <c r="I112" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>175</v>
+      </c>
+      <c r="B113" t="s">
+        <v>279</v>
+      </c>
+      <c r="C113" t="s">
+        <v>318</v>
+      </c>
+      <c r="D113" t="s">
+        <v>279</v>
+      </c>
+      <c r="E113" t="s">
+        <v>319</v>
+      </c>
+      <c r="F113" t="s">
+        <v>320</v>
+      </c>
+      <c r="G113" t="s">
+        <v>345</v>
+      </c>
+      <c r="I113" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>176</v>
+      </c>
+      <c r="B114" t="s">
+        <v>291</v>
+      </c>
+      <c r="C114" t="s">
+        <v>318</v>
+      </c>
+      <c r="D114" t="s">
+        <v>291</v>
+      </c>
+      <c r="E114" t="s">
+        <v>319</v>
+      </c>
+      <c r="F114" t="s">
+        <v>320</v>
+      </c>
+      <c r="G114" t="s">
+        <v>346</v>
+      </c>
+      <c r="I114" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>177</v>
+      </c>
+      <c r="B115" t="s">
+        <v>291</v>
+      </c>
+      <c r="C115" t="s">
+        <v>318</v>
+      </c>
+      <c r="D115" t="s">
+        <v>291</v>
+      </c>
+      <c r="E115" t="s">
+        <v>319</v>
+      </c>
+      <c r="F115" t="s">
+        <v>320</v>
+      </c>
+      <c r="G115" t="s">
+        <v>347</v>
+      </c>
+      <c r="I115" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>178</v>
+      </c>
+      <c r="B116" t="s">
+        <v>286</v>
+      </c>
+      <c r="C116" t="s">
+        <v>318</v>
+      </c>
+      <c r="D116" t="s">
+        <v>286</v>
+      </c>
+      <c r="E116" t="s">
+        <v>319</v>
+      </c>
+      <c r="F116" t="s">
+        <v>320</v>
+      </c>
+      <c r="G116" t="s">
+        <v>348</v>
+      </c>
+      <c r="I116" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>179</v>
+      </c>
+      <c r="B117" t="s">
+        <v>258</v>
+      </c>
+      <c r="C117" t="s">
+        <v>318</v>
+      </c>
+      <c r="D117" t="s">
+        <v>258</v>
+      </c>
+      <c r="E117" t="s">
+        <v>319</v>
+      </c>
+      <c r="F117" t="s">
+        <v>320</v>
+      </c>
+      <c r="G117" t="s">
+        <v>349</v>
+      </c>
+      <c r="I117" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>180</v>
+      </c>
+      <c r="B118" t="s">
+        <v>286</v>
+      </c>
+      <c r="C118" t="s">
+        <v>318</v>
+      </c>
+      <c r="D118" t="s">
+        <v>286</v>
+      </c>
+      <c r="E118" t="s">
+        <v>319</v>
+      </c>
+      <c r="F118" t="s">
+        <v>320</v>
+      </c>
+      <c r="G118" t="s">
+        <v>350</v>
+      </c>
+      <c r="I118" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>181</v>
+      </c>
+      <c r="B119" t="s">
+        <v>286</v>
+      </c>
+      <c r="C119" t="s">
+        <v>318</v>
+      </c>
+      <c r="D119" t="s">
+        <v>286</v>
+      </c>
+      <c r="E119" t="s">
+        <v>319</v>
+      </c>
+      <c r="F119" t="s">
+        <v>320</v>
+      </c>
+      <c r="G119" t="s">
+        <v>351</v>
+      </c>
+      <c r="I119" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>182</v>
+      </c>
+      <c r="B120" t="s">
+        <v>255</v>
+      </c>
+      <c r="C120" t="s">
+        <v>318</v>
+      </c>
+      <c r="D120" t="s">
+        <v>255</v>
+      </c>
+      <c r="E120" t="s">
+        <v>319</v>
+      </c>
+      <c r="F120" t="s">
+        <v>320</v>
+      </c>
+      <c r="G120" t="s">
+        <v>352</v>
+      </c>
+      <c r="I120" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>183</v>
+      </c>
+      <c r="B121" t="s">
+        <v>292</v>
+      </c>
+      <c r="C121" t="s">
+        <v>318</v>
+      </c>
+      <c r="D121" t="s">
+        <v>292</v>
+      </c>
+      <c r="E121" t="s">
+        <v>319</v>
+      </c>
+      <c r="F121" t="s">
+        <v>320</v>
+      </c>
+      <c r="G121" t="s">
+        <v>353</v>
+      </c>
+      <c r="I121" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
+      <c r="A122" t="s">
+        <v>184</v>
+      </c>
+      <c r="B122" t="s">
+        <v>293</v>
+      </c>
+      <c r="C122" t="s">
+        <v>318</v>
+      </c>
+      <c r="D122" t="s">
+        <v>293</v>
+      </c>
+      <c r="E122" t="s">
+        <v>319</v>
+      </c>
+      <c r="F122" t="s">
+        <v>320</v>
+      </c>
+      <c r="G122" t="s">
+        <v>354</v>
+      </c>
+      <c r="I122" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
+      <c r="A123" t="s">
+        <v>185</v>
+      </c>
+      <c r="B123" t="s">
+        <v>287</v>
+      </c>
+      <c r="C123" t="s">
+        <v>318</v>
+      </c>
+      <c r="D123" t="s">
+        <v>287</v>
+      </c>
+      <c r="E123" t="s">
+        <v>319</v>
+      </c>
+      <c r="F123" t="s">
+        <v>320</v>
+      </c>
+      <c r="G123" t="s">
+        <v>355</v>
+      </c>
+      <c r="I123" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
+      <c r="A124" t="s">
+        <v>186</v>
+      </c>
+      <c r="B124" t="s">
+        <v>255</v>
+      </c>
+      <c r="C124" t="s">
+        <v>318</v>
+      </c>
+      <c r="D124" t="s">
+        <v>255</v>
+      </c>
+      <c r="E124" t="s">
+        <v>319</v>
+      </c>
+      <c r="F124" t="s">
+        <v>320</v>
+      </c>
+      <c r="G124" t="s">
+        <v>356</v>
+      </c>
+      <c r="I124" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
+      <c r="A125" t="s">
+        <v>187</v>
+      </c>
+      <c r="B125" t="s">
+        <v>288</v>
+      </c>
+      <c r="C125" t="s">
+        <v>318</v>
+      </c>
+      <c r="D125" t="s">
+        <v>288</v>
+      </c>
+      <c r="E125" t="s">
+        <v>319</v>
+      </c>
+      <c r="F125" t="s">
+        <v>320</v>
+      </c>
+      <c r="G125" t="s">
+        <v>357</v>
+      </c>
+      <c r="I125" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
+      <c r="A126" t="s">
+        <v>188</v>
+      </c>
+      <c r="B126" t="s">
+        <v>255</v>
+      </c>
+      <c r="C126" t="s">
+        <v>318</v>
+      </c>
+      <c r="D126" t="s">
+        <v>255</v>
+      </c>
+      <c r="E126" t="s">
+        <v>319</v>
+      </c>
+      <c r="F126" t="s">
+        <v>320</v>
+      </c>
+      <c r="G126" t="s">
+        <v>358</v>
+      </c>
+      <c r="I126" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
+      <c r="A127" t="s">
+        <v>189</v>
+      </c>
+      <c r="B127" t="s">
+        <v>290</v>
+      </c>
+      <c r="C127" t="s">
+        <v>318</v>
+      </c>
+      <c r="D127" t="s">
+        <v>290</v>
+      </c>
+      <c r="E127" t="s">
+        <v>319</v>
+      </c>
+      <c r="F127" t="s">
+        <v>320</v>
+      </c>
+      <c r="G127" t="s">
+        <v>359</v>
+      </c>
+      <c r="I127" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
+      <c r="A128" t="s">
+        <v>190</v>
+      </c>
+      <c r="B128" t="s">
+        <v>294</v>
+      </c>
+      <c r="C128" t="s">
+        <v>318</v>
+      </c>
+      <c r="D128" t="s">
+        <v>294</v>
+      </c>
+      <c r="E128" t="s">
+        <v>319</v>
+      </c>
+      <c r="F128" t="s">
+        <v>320</v>
+      </c>
+      <c r="G128" t="s">
+        <v>360</v>
+      </c>
+      <c r="I128" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
+      <c r="A129" t="s">
+        <v>190</v>
+      </c>
+      <c r="B129" t="s">
+        <v>288</v>
+      </c>
+      <c r="C129" t="s">
+        <v>318</v>
+      </c>
+      <c r="D129" t="s">
+        <v>288</v>
+      </c>
+      <c r="E129" t="s">
+        <v>319</v>
+      </c>
+      <c r="F129" t="s">
+        <v>320</v>
+      </c>
+      <c r="G129" t="s">
+        <v>361</v>
+      </c>
+      <c r="I129" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
+      <c r="A130" t="s">
+        <v>191</v>
+      </c>
+      <c r="B130" t="s">
+        <v>295</v>
+      </c>
+      <c r="C130" t="s">
+        <v>318</v>
+      </c>
+      <c r="D130" t="s">
+        <v>295</v>
+      </c>
+      <c r="E130" t="s">
+        <v>319</v>
+      </c>
+      <c r="F130" t="s">
+        <v>320</v>
+      </c>
+      <c r="G130" t="s">
+        <v>362</v>
+      </c>
+      <c r="I130" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
+      <c r="A131" t="s">
+        <v>192</v>
+      </c>
+      <c r="B131" t="s">
+        <v>288</v>
+      </c>
+      <c r="C131" t="s">
+        <v>318</v>
+      </c>
+      <c r="D131" t="s">
+        <v>288</v>
+      </c>
+      <c r="E131" t="s">
+        <v>319</v>
+      </c>
+      <c r="F131" t="s">
+        <v>320</v>
+      </c>
+      <c r="G131" t="s">
+        <v>363</v>
+      </c>
+      <c r="I131" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
+      <c r="A132" t="s">
+        <v>193</v>
+      </c>
+      <c r="B132" t="s">
+        <v>258</v>
+      </c>
+      <c r="C132" t="s">
+        <v>318</v>
+      </c>
+      <c r="D132" t="s">
+        <v>258</v>
+      </c>
+      <c r="E132" t="s">
+        <v>319</v>
+      </c>
+      <c r="F132" t="s">
+        <v>320</v>
+      </c>
+      <c r="G132" t="s">
+        <v>364</v>
+      </c>
+      <c r="I132" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
+      <c r="A133" t="s">
+        <v>194</v>
+      </c>
+      <c r="B133" t="s">
+        <v>291</v>
+      </c>
+      <c r="C133" t="s">
+        <v>318</v>
+      </c>
+      <c r="D133" t="s">
+        <v>291</v>
+      </c>
+      <c r="E133" t="s">
+        <v>319</v>
+      </c>
+      <c r="F133" t="s">
+        <v>320</v>
+      </c>
+      <c r="G133" t="s">
+        <v>365</v>
+      </c>
+      <c r="I133" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
+      <c r="A134" t="s">
+        <v>195</v>
+      </c>
+      <c r="B134" t="s">
+        <v>258</v>
+      </c>
+      <c r="C134" t="s">
+        <v>318</v>
+      </c>
+      <c r="D134" t="s">
+        <v>258</v>
+      </c>
+      <c r="E134" t="s">
+        <v>319</v>
+      </c>
+      <c r="F134" t="s">
+        <v>320</v>
+      </c>
+      <c r="G134" t="s">
+        <v>366</v>
+      </c>
+      <c r="I134" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
+      <c r="A135" t="s">
+        <v>196</v>
+      </c>
+      <c r="B135" t="s">
+        <v>279</v>
+      </c>
+      <c r="C135" t="s">
+        <v>318</v>
+      </c>
+      <c r="D135" t="s">
+        <v>279</v>
+      </c>
+      <c r="E135" t="s">
+        <v>319</v>
+      </c>
+      <c r="F135" t="s">
+        <v>320</v>
+      </c>
+      <c r="G135" t="s">
+        <v>367</v>
+      </c>
+      <c r="I135" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" t="s">
+        <v>197</v>
+      </c>
+      <c r="B136" t="s">
+        <v>296</v>
+      </c>
+      <c r="C136" t="s">
+        <v>318</v>
+      </c>
+      <c r="D136" t="s">
+        <v>296</v>
+      </c>
+      <c r="E136" t="s">
+        <v>319</v>
+      </c>
+      <c r="F136" t="s">
+        <v>320</v>
+      </c>
+      <c r="G136" t="s">
+        <v>368</v>
+      </c>
+      <c r="I136" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" t="s">
+        <v>198</v>
+      </c>
+      <c r="B137" t="s">
+        <v>286</v>
+      </c>
+      <c r="C137" t="s">
+        <v>318</v>
+      </c>
+      <c r="D137" t="s">
+        <v>286</v>
+      </c>
+      <c r="E137" t="s">
+        <v>319</v>
+      </c>
+      <c r="F137" t="s">
+        <v>320</v>
+      </c>
+      <c r="G137" t="s">
+        <v>369</v>
+      </c>
+      <c r="I137" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" t="s">
+        <v>199</v>
+      </c>
+      <c r="B138" t="s">
+        <v>279</v>
+      </c>
+      <c r="C138" t="s">
+        <v>318</v>
+      </c>
+      <c r="D138" t="s">
+        <v>279</v>
+      </c>
+      <c r="E138" t="s">
+        <v>319</v>
+      </c>
+      <c r="F138" t="s">
+        <v>320</v>
+      </c>
+      <c r="G138" t="s">
+        <v>370</v>
+      </c>
+      <c r="I138" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" t="s">
+        <v>200</v>
+      </c>
+      <c r="B139" t="s">
+        <v>286</v>
+      </c>
+      <c r="C139" t="s">
+        <v>318</v>
+      </c>
+      <c r="D139" t="s">
+        <v>286</v>
+      </c>
+      <c r="E139" t="s">
+        <v>319</v>
+      </c>
+      <c r="F139" t="s">
+        <v>320</v>
+      </c>
+      <c r="G139" t="s">
+        <v>371</v>
+      </c>
+      <c r="I139" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" t="s">
+        <v>201</v>
+      </c>
+      <c r="B140" t="s">
+        <v>286</v>
+      </c>
+      <c r="C140" t="s">
+        <v>318</v>
+      </c>
+      <c r="D140" t="s">
+        <v>286</v>
+      </c>
+      <c r="E140" t="s">
+        <v>319</v>
+      </c>
+      <c r="F140" t="s">
+        <v>320</v>
+      </c>
+      <c r="G140" t="s">
+        <v>372</v>
+      </c>
+      <c r="I140" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" t="s">
+        <v>202</v>
+      </c>
+      <c r="B141" t="s">
+        <v>286</v>
+      </c>
+      <c r="C141" t="s">
+        <v>318</v>
+      </c>
+      <c r="D141" t="s">
+        <v>286</v>
+      </c>
+      <c r="E141" t="s">
+        <v>319</v>
+      </c>
+      <c r="F141" t="s">
+        <v>320</v>
+      </c>
+      <c r="G141" t="s">
+        <v>373</v>
+      </c>
+      <c r="I141" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" t="s">
+        <v>203</v>
+      </c>
+      <c r="B142" t="s">
+        <v>296</v>
+      </c>
+      <c r="C142" t="s">
+        <v>318</v>
+      </c>
+      <c r="D142" t="s">
+        <v>296</v>
+      </c>
+      <c r="E142" t="s">
+        <v>319</v>
+      </c>
+      <c r="F142" t="s">
+        <v>320</v>
+      </c>
+      <c r="G142" t="s">
+        <v>374</v>
+      </c>
+      <c r="I142" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" t="s">
+        <v>204</v>
+      </c>
+      <c r="B143" t="s">
+        <v>279</v>
+      </c>
+      <c r="C143" t="s">
+        <v>318</v>
+      </c>
+      <c r="D143" t="s">
+        <v>279</v>
+      </c>
+      <c r="E143" t="s">
+        <v>319</v>
+      </c>
+      <c r="F143" t="s">
+        <v>320</v>
+      </c>
+      <c r="G143" t="s">
+        <v>375</v>
+      </c>
+      <c r="I143" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" t="s">
+        <v>205</v>
+      </c>
+      <c r="B144" t="s">
+        <v>297</v>
+      </c>
+      <c r="C144" t="s">
+        <v>318</v>
+      </c>
+      <c r="D144" t="s">
+        <v>297</v>
+      </c>
+      <c r="E144" t="s">
+        <v>319</v>
+      </c>
+      <c r="F144" t="s">
+        <v>320</v>
+      </c>
+      <c r="G144" t="s">
+        <v>376</v>
+      </c>
+      <c r="I144" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" t="s">
+        <v>206</v>
+      </c>
+      <c r="B145" t="s">
+        <v>286</v>
+      </c>
+      <c r="C145" t="s">
+        <v>318</v>
+      </c>
+      <c r="D145" t="s">
+        <v>286</v>
+      </c>
+      <c r="E145" t="s">
+        <v>319</v>
+      </c>
+      <c r="F145" t="s">
+        <v>320</v>
+      </c>
+      <c r="G145" t="s">
+        <v>377</v>
+      </c>
+      <c r="I145" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" t="s">
+        <v>207</v>
+      </c>
+      <c r="B146" t="s">
+        <v>298</v>
+      </c>
+      <c r="C146" t="s">
+        <v>318</v>
+      </c>
+      <c r="D146" t="s">
+        <v>298</v>
+      </c>
+      <c r="E146" t="s">
+        <v>319</v>
+      </c>
+      <c r="F146" t="s">
+        <v>320</v>
+      </c>
+      <c r="G146" t="s">
+        <v>378</v>
+      </c>
+      <c r="I146" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
+      <c r="A147" t="s">
+        <v>208</v>
+      </c>
+      <c r="B147" t="s">
+        <v>299</v>
+      </c>
+      <c r="C147" t="s">
+        <v>318</v>
+      </c>
+      <c r="D147" t="s">
+        <v>299</v>
+      </c>
+      <c r="E147" t="s">
+        <v>319</v>
+      </c>
+      <c r="F147" t="s">
+        <v>320</v>
+      </c>
+      <c r="G147" t="s">
+        <v>379</v>
+      </c>
+      <c r="I147" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
+      <c r="A148" t="s">
+        <v>209</v>
+      </c>
+      <c r="B148" t="s">
+        <v>300</v>
+      </c>
+      <c r="C148" t="s">
+        <v>318</v>
+      </c>
+      <c r="D148" t="s">
+        <v>300</v>
+      </c>
+      <c r="E148" t="s">
+        <v>319</v>
+      </c>
+      <c r="F148" t="s">
+        <v>320</v>
+      </c>
+      <c r="G148" t="s">
+        <v>380</v>
+      </c>
+      <c r="I148" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
+      <c r="A149" t="s">
+        <v>210</v>
+      </c>
+      <c r="B149" t="s">
+        <v>301</v>
+      </c>
+      <c r="C149" t="s">
+        <v>318</v>
+      </c>
+      <c r="D149" t="s">
+        <v>301</v>
+      </c>
+      <c r="E149" t="s">
+        <v>319</v>
+      </c>
+      <c r="F149" t="s">
+        <v>320</v>
+      </c>
+      <c r="G149" t="s">
+        <v>381</v>
+      </c>
+      <c r="I149" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
+      <c r="A150" t="s">
+        <v>211</v>
+      </c>
+      <c r="B150" t="s">
+        <v>302</v>
+      </c>
+      <c r="C150" t="s">
+        <v>318</v>
+      </c>
+      <c r="D150" t="s">
+        <v>302</v>
+      </c>
+      <c r="E150" t="s">
+        <v>319</v>
+      </c>
+      <c r="F150" t="s">
+        <v>320</v>
+      </c>
+      <c r="G150" t="s">
+        <v>382</v>
+      </c>
+      <c r="I150" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
+      <c r="A151" t="s">
+        <v>212</v>
+      </c>
+      <c r="B151" t="s">
+        <v>242</v>
+      </c>
+      <c r="C151" t="s">
+        <v>318</v>
+      </c>
+      <c r="D151" t="s">
+        <v>242</v>
+      </c>
+      <c r="E151" t="s">
+        <v>319</v>
+      </c>
+      <c r="F151" t="s">
+        <v>320</v>
+      </c>
+      <c r="G151" t="s">
+        <v>383</v>
+      </c>
+      <c r="I151" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
+      <c r="A152" t="s">
+        <v>213</v>
+      </c>
+      <c r="B152" t="s">
+        <v>303</v>
+      </c>
+      <c r="C152" t="s">
+        <v>318</v>
+      </c>
+      <c r="D152" t="s">
+        <v>303</v>
+      </c>
+      <c r="E152" t="s">
+        <v>319</v>
+      </c>
+      <c r="F152" t="s">
+        <v>320</v>
+      </c>
+      <c r="G152" t="s">
+        <v>384</v>
+      </c>
+      <c r="I152" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
+      <c r="A153" t="s">
+        <v>214</v>
+      </c>
+      <c r="B153" t="s">
+        <v>304</v>
+      </c>
+      <c r="C153" t="s">
+        <v>318</v>
+      </c>
+      <c r="D153" t="s">
+        <v>304</v>
+      </c>
+      <c r="E153" t="s">
+        <v>319</v>
+      </c>
+      <c r="F153" t="s">
+        <v>320</v>
+      </c>
+      <c r="G153" t="s">
+        <v>385</v>
+      </c>
+      <c r="I153" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
+      <c r="A154" t="s">
+        <v>215</v>
+      </c>
+      <c r="B154" t="s">
+        <v>305</v>
+      </c>
+      <c r="C154" t="s">
+        <v>318</v>
+      </c>
+      <c r="D154" t="s">
+        <v>305</v>
+      </c>
+      <c r="E154" t="s">
+        <v>319</v>
+      </c>
+      <c r="F154" t="s">
+        <v>320</v>
+      </c>
+      <c r="G154" t="s">
+        <v>386</v>
+      </c>
+      <c r="I154" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
+      <c r="A155" t="s">
+        <v>216</v>
+      </c>
+      <c r="B155" t="s">
+        <v>306</v>
+      </c>
+      <c r="C155" t="s">
+        <v>318</v>
+      </c>
+      <c r="D155" t="s">
+        <v>306</v>
+      </c>
+      <c r="E155" t="s">
+        <v>319</v>
+      </c>
+      <c r="F155" t="s">
+        <v>320</v>
+      </c>
+      <c r="G155" t="s">
+        <v>387</v>
+      </c>
+      <c r="I155" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
+      <c r="A156" t="s">
+        <v>217</v>
+      </c>
+      <c r="B156" t="s">
+        <v>307</v>
+      </c>
+      <c r="C156" t="s">
+        <v>318</v>
+      </c>
+      <c r="D156" t="s">
+        <v>307</v>
+      </c>
+      <c r="E156" t="s">
+        <v>319</v>
+      </c>
+      <c r="F156" t="s">
+        <v>320</v>
+      </c>
+      <c r="G156" t="s">
+        <v>388</v>
+      </c>
+      <c r="I156" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
+      <c r="A157" t="s">
+        <v>218</v>
+      </c>
+      <c r="B157" t="s">
+        <v>308</v>
+      </c>
+      <c r="C157" t="s">
+        <v>318</v>
+      </c>
+      <c r="D157" t="s">
+        <v>308</v>
+      </c>
+      <c r="E157" t="s">
+        <v>319</v>
+      </c>
+      <c r="F157" t="s">
+        <v>320</v>
+      </c>
+      <c r="G157" t="s">
+        <v>389</v>
+      </c>
+      <c r="I157" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
+      <c r="A158" t="s">
+        <v>219</v>
+      </c>
+      <c r="B158" t="s">
+        <v>309</v>
+      </c>
+      <c r="C158" t="s">
+        <v>318</v>
+      </c>
+      <c r="D158" t="s">
+        <v>309</v>
+      </c>
+      <c r="E158" t="s">
+        <v>319</v>
+      </c>
+      <c r="F158" t="s">
+        <v>320</v>
+      </c>
+      <c r="G158" t="s">
+        <v>390</v>
+      </c>
+      <c r="I158" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
+      <c r="A159" t="s">
+        <v>220</v>
+      </c>
+      <c r="B159" t="s">
+        <v>310</v>
+      </c>
+      <c r="C159" t="s">
+        <v>318</v>
+      </c>
+      <c r="D159" t="s">
+        <v>310</v>
+      </c>
+      <c r="E159" t="s">
+        <v>319</v>
+      </c>
+      <c r="F159" t="s">
+        <v>320</v>
+      </c>
+      <c r="G159" t="s">
+        <v>391</v>
+      </c>
+      <c r="I159" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
+      <c r="A160" t="s">
+        <v>221</v>
+      </c>
+      <c r="B160" t="s">
+        <v>288</v>
+      </c>
+      <c r="C160" t="s">
+        <v>318</v>
+      </c>
+      <c r="D160" t="s">
+        <v>288</v>
+      </c>
+      <c r="E160" t="s">
+        <v>319</v>
+      </c>
+      <c r="F160" t="s">
+        <v>320</v>
+      </c>
+      <c r="G160" t="s">
+        <v>392</v>
+      </c>
+      <c r="I160" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
+      <c r="A161" t="s">
+        <v>222</v>
+      </c>
+      <c r="B161" t="s">
+        <v>311</v>
+      </c>
+      <c r="C161" t="s">
+        <v>318</v>
+      </c>
+      <c r="D161" t="s">
+        <v>311</v>
+      </c>
+      <c r="E161" t="s">
+        <v>319</v>
+      </c>
+      <c r="F161" t="s">
+        <v>320</v>
+      </c>
+      <c r="G161" t="s">
+        <v>393</v>
+      </c>
+      <c r="I161" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
+      <c r="A162" t="s">
+        <v>223</v>
+      </c>
+      <c r="B162" t="s">
+        <v>312</v>
+      </c>
+      <c r="C162" t="s">
+        <v>318</v>
+      </c>
+      <c r="D162" t="s">
+        <v>312</v>
+      </c>
+      <c r="E162" t="s">
+        <v>319</v>
+      </c>
+      <c r="F162" t="s">
+        <v>320</v>
+      </c>
+      <c r="G162" t="s">
+        <v>394</v>
+      </c>
+      <c r="I162" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
+      <c r="A163" t="s">
+        <v>224</v>
+      </c>
+      <c r="B163" t="s">
+        <v>279</v>
+      </c>
+      <c r="C163" t="s">
+        <v>318</v>
+      </c>
+      <c r="D163" t="s">
+        <v>279</v>
+      </c>
+      <c r="E163" t="s">
+        <v>319</v>
+      </c>
+      <c r="F163" t="s">
+        <v>320</v>
+      </c>
+      <c r="G163" t="s">
+        <v>395</v>
+      </c>
+      <c r="I163" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
+      <c r="A164" t="s">
+        <v>225</v>
+      </c>
+      <c r="B164" t="s">
+        <v>313</v>
+      </c>
+      <c r="C164" t="s">
+        <v>318</v>
+      </c>
+      <c r="D164" t="s">
+        <v>313</v>
+      </c>
+      <c r="E164" t="s">
+        <v>319</v>
+      </c>
+      <c r="F164" t="s">
+        <v>320</v>
+      </c>
+      <c r="G164" t="s">
+        <v>396</v>
+      </c>
+      <c r="I164" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
+      <c r="A165" t="s">
+        <v>226</v>
+      </c>
+      <c r="B165" t="s">
+        <v>311</v>
+      </c>
+      <c r="C165" t="s">
+        <v>318</v>
+      </c>
+      <c r="D165" t="s">
+        <v>311</v>
+      </c>
+      <c r="E165" t="s">
+        <v>319</v>
+      </c>
+      <c r="F165" t="s">
+        <v>320</v>
+      </c>
+      <c r="G165" t="s">
+        <v>397</v>
+      </c>
+      <c r="I165" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
+      <c r="A166" t="s">
+        <v>227</v>
+      </c>
+      <c r="B166" t="s">
+        <v>314</v>
+      </c>
+      <c r="C166" t="s">
+        <v>318</v>
+      </c>
+      <c r="D166" t="s">
+        <v>314</v>
+      </c>
+      <c r="E166" t="s">
+        <v>319</v>
+      </c>
+      <c r="F166" t="s">
+        <v>320</v>
+      </c>
+      <c r="G166" t="s">
+        <v>398</v>
+      </c>
+      <c r="I166" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
+      <c r="A167" t="s">
+        <v>228</v>
+      </c>
+      <c r="B167" t="s">
+        <v>286</v>
+      </c>
+      <c r="C167" t="s">
+        <v>318</v>
+      </c>
+      <c r="D167" t="s">
+        <v>286</v>
+      </c>
+      <c r="E167" t="s">
+        <v>319</v>
+      </c>
+      <c r="F167" t="s">
+        <v>320</v>
+      </c>
+      <c r="G167" t="s">
+        <v>399</v>
+      </c>
+      <c r="I167" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
+      <c r="A168" t="s">
+        <v>229</v>
+      </c>
+      <c r="B168" t="s">
+        <v>259</v>
+      </c>
+      <c r="C168" t="s">
+        <v>318</v>
+      </c>
+      <c r="D168" t="s">
+        <v>259</v>
+      </c>
+      <c r="E168" t="s">
+        <v>319</v>
+      </c>
+      <c r="F168" t="s">
+        <v>320</v>
+      </c>
+      <c r="G168" t="s">
+        <v>400</v>
+      </c>
+      <c r="I168" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
+      <c r="A169" t="s">
+        <v>230</v>
+      </c>
+      <c r="B169" t="s">
+        <v>255</v>
+      </c>
+      <c r="C169" t="s">
+        <v>318</v>
+      </c>
+      <c r="D169" t="s">
+        <v>255</v>
+      </c>
+      <c r="E169" t="s">
+        <v>319</v>
+      </c>
+      <c r="F169" t="s">
+        <v>320</v>
+      </c>
+      <c r="G169" t="s">
+        <v>401</v>
+      </c>
+      <c r="I169" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
+      <c r="A170" t="s">
+        <v>231</v>
+      </c>
+      <c r="B170" t="s">
+        <v>315</v>
+      </c>
+      <c r="C170" t="s">
+        <v>318</v>
+      </c>
+      <c r="D170" t="s">
+        <v>315</v>
+      </c>
+      <c r="E170" t="s">
+        <v>319</v>
+      </c>
+      <c r="F170" t="s">
+        <v>320</v>
+      </c>
+      <c r="G170" t="s">
+        <v>402</v>
+      </c>
+      <c r="I170" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
+      <c r="A171" t="s">
+        <v>232</v>
+      </c>
+      <c r="B171" t="s">
+        <v>309</v>
+      </c>
+      <c r="C171" t="s">
+        <v>318</v>
+      </c>
+      <c r="D171" t="s">
+        <v>309</v>
+      </c>
+      <c r="E171" t="s">
+        <v>319</v>
+      </c>
+      <c r="F171" t="s">
+        <v>320</v>
+      </c>
+      <c r="G171" t="s">
+        <v>403</v>
+      </c>
+      <c r="I171" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
+      <c r="A172" t="s">
+        <v>233</v>
+      </c>
+      <c r="B172" t="s">
+        <v>316</v>
+      </c>
+      <c r="C172" t="s">
+        <v>318</v>
+      </c>
+      <c r="D172" t="s">
+        <v>316</v>
+      </c>
+      <c r="E172" t="s">
+        <v>319</v>
+      </c>
+      <c r="F172" t="s">
+        <v>320</v>
+      </c>
+      <c r="G172" t="s">
+        <v>404</v>
+      </c>
+      <c r="I172" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
+      <c r="A173" t="s">
+        <v>234</v>
+      </c>
+      <c r="B173" t="s">
+        <v>317</v>
+      </c>
+      <c r="C173" t="s">
+        <v>318</v>
+      </c>
+      <c r="D173" t="s">
+        <v>317</v>
+      </c>
+      <c r="E173" t="s">
+        <v>319</v>
+      </c>
+      <c r="F173" t="s">
+        <v>320</v>
+      </c>
+      <c r="G173" t="s">
+        <v>405</v>
+      </c>
+      <c r="I173" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" t="s">
+        <v>235</v>
+      </c>
+      <c r="B174" t="s">
+        <v>313</v>
+      </c>
+      <c r="C174" t="s">
+        <v>318</v>
+      </c>
+      <c r="D174" t="s">
+        <v>313</v>
+      </c>
+      <c r="E174" t="s">
+        <v>319</v>
+      </c>
+      <c r="F174" t="s">
+        <v>320</v>
+      </c>
+      <c r="G174" t="s">
+        <v>406</v>
+      </c>
+      <c r="I174" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="A175" t="s">
+        <v>236</v>
+      </c>
+      <c r="B175" t="s">
+        <v>286</v>
+      </c>
+      <c r="C175" t="s">
+        <v>318</v>
+      </c>
+      <c r="D175" t="s">
+        <v>286</v>
+      </c>
+      <c r="E175" t="s">
+        <v>319</v>
+      </c>
+      <c r="F175" t="s">
+        <v>320</v>
+      </c>
+      <c r="G175" t="s">
+        <v>407</v>
+      </c>
+      <c r="I175" t="s">
+        <v>408</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>